--- a/sources/case/Smoke.xlsx
+++ b/sources/case/Smoke.xlsx
@@ -8,9 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="adjust" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Formal" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="104">
   <si>
     <t>FilePath</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -208,586 +208,651 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <t>Update_direct_report</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Update_direct_report</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Update_direct_report</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>ApprovalTypes.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mem_Transfer_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>MemberTransfer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.xlsx</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemberTransfer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>GetInstances</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.xlsx</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>GetInstances</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetInstances</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>GetInstanceInfo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.xlsx</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>GetInstanceInfo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uth</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uth.xlsx</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auth_11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auth_12</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auth_13</t>
+  </si>
+  <si>
+    <t>houlong</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auth_15</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetInstanceInfo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auth_16</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CancelTransfer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CancelTransfer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.xlsx</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CancelTransfer_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>types_4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetInstanceInfo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Approval</t>
+  </si>
+  <si>
+    <t>Approval.xlsx</t>
+  </si>
+  <si>
+    <t>Approval_3</t>
+  </si>
+  <si>
+    <t>Approval_1</t>
+  </si>
+  <si>
+    <t>Approval_2</t>
+  </si>
+  <si>
+    <t>Approval_4</t>
+  </si>
+  <si>
+    <t>Approval_5</t>
+  </si>
+  <si>
+    <t>Approval_6</t>
+  </si>
+  <si>
+    <t>Approval</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Approval_reject.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>reject</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>reject_7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mem_Transfer_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetInstanceInfo_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetInstanceInfo_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Approval_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Approval_3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>将测试1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0-15的员工调入到organization_1部门</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置organization_1部门负责人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>将测试16-20的员工调入到organization_1部门</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>编辑汇报关系：测试1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0-》测试11</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑汇报关系：测试11-》测试12</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑汇报关系：测试12-》测试13</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑汇报关系：测试13-》测试15</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑汇报关系：测试15-》测试16</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑汇报关系：测试16-》测试17</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑汇报关系：测试17-》测试18</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑汇报关系：测试18-》测试19</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑调整审理流程</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>测试1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0发起调整审批</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取发起的审批列表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取审批详情</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>切换测试1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1登录</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>测试1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1审批通过</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>切换测试12登录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>测试12审批通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>切换测试13登录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>测试13审批通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>切换测试15登录</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试15审批通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换测试16登录</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试16审批通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换侯龙登录</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>侯龙驳回审批</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>侯龙撤回审批</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试20发起调整审批</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>侯龙审批通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Update_direct_report</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>types_6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑转正审理流程</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Formal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.xlsx</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Formal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>发起转正审批</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Approval_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Formal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetInstances_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Approval_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试10发起调整审批(流程1)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>types_5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Update_direct_report</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Update_direct_report</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Update_direct_report</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Update_direct_report</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>ApprovalTypes.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mem_Transfer_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>MemberTransfer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.xlsx</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MemberTransfer</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>GetInstances</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.xlsx</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>GetInstances</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_1</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetInstances</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>GetInstanceInfo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.xlsx</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>GetInstanceInfo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_1</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>uth</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>uth.xlsx</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Auth_11</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Auth_12</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Auth_13</t>
-  </si>
-  <si>
-    <t>houlong</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Auth_15</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetInstanceInfo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Auth_16</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CancelTransfer</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>CancelTransfer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.xlsx</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CancelTransfer_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>types_4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetInstanceInfo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Approval</t>
-  </si>
-  <si>
-    <t>Approval.xlsx</t>
-  </si>
-  <si>
-    <t>Approval_3</t>
-  </si>
-  <si>
-    <t>Approval_1</t>
-  </si>
-  <si>
-    <t>Approval_2</t>
-  </si>
-  <si>
-    <t>Approval_4</t>
-  </si>
-  <si>
-    <t>Approval_5</t>
-  </si>
-  <si>
-    <t>Approval_6</t>
-  </si>
-  <si>
-    <t>Approval</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Approval_reject.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>reject</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>reject_7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mem_Transfer_2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetInstanceInfo_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetInstanceInfo_2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Approval_2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Approval_3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>将测试1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0-15的员工调入到organization_1部门</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置organization_1部门负责人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>将测试16-20的员工调入到organization_1部门</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>编辑汇报关系：测试1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0-》测试11</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑汇报关系：测试11-》测试12</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑汇报关系：测试12-》测试13</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑汇报关系：测试13-》测试15</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑汇报关系：测试15-》测试16</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑汇报关系：测试16-》测试17</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑汇报关系：测试17-》测试18</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑汇报关系：测试18-》测试19</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑调整审理流程</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>测试1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0发起调整审批</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取发起的审批列表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取审批详情</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>切换测试1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1登录</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>测试1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1审批通过</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>切换测试12登录</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>测试12审批通过</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>切换测试13登录</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>测试13审批通过</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>切换测试15登录</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试15审批通过</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>切换测试16登录</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试16审批通过</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>切换侯龙登录</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>侯龙驳回审批</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>侯龙撤回审批</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试20发起调整审批</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>侯龙审批通过</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1156,10 +1221,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1182,7 +1247,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1196,7 +1261,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1210,7 +1275,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1224,7 +1289,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1238,7 +1303,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1252,7 +1317,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1266,7 +1331,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1280,7 +1345,7 @@
         <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1294,7 +1359,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1305,10 +1370,10 @@
         <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1319,10 +1384,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1333,10 +1398,10 @@
         <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1347,486 +1412,504 @@
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>57</v>
+        <v>31</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1838,17 +1921,168 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="19.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/sources/case/Smoke.xlsx
+++ b/sources/case/Smoke.xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="7140"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="7140" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="adjust" sheetId="1" r:id="rId1"/>
     <sheet name="Formal" sheetId="2" r:id="rId2"/>
+    <sheet name="Temp" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="174">
   <si>
     <t>FilePath</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -290,12 +292,8 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Mem_Transfer_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>MemberTransfer</t>
+    <r>
+      <t>GetInstances</t>
     </r>
     <r>
       <rPr>
@@ -310,10 +308,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>MemberTransfer</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>GetInstances</t>
     </r>
@@ -325,13 +319,33 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>_1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetInstances</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>GetInstanceInfo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>.xlsx</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>GetInstances</t>
+      <t>GetInstanceInfo</t>
     </r>
     <r>
       <rPr>
@@ -346,12 +360,71 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>GetInstances</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>GetInstanceInfo</t>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uth</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uth.xlsx</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auth_11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auth_12</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auth_13</t>
+  </si>
+  <si>
+    <t>houlong</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auth_15</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetInstanceInfo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auth_16</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CancelTransfer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CancelTransfer</t>
     </r>
     <r>
       <rPr>
@@ -366,8 +439,337 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>GetInstanceInfo</t>
+    <t>CancelTransfer_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetInstanceInfo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Approval</t>
+  </si>
+  <si>
+    <t>Approval.xlsx</t>
+  </si>
+  <si>
+    <t>Approval_3</t>
+  </si>
+  <si>
+    <t>Approval_1</t>
+  </si>
+  <si>
+    <t>Approval_2</t>
+  </si>
+  <si>
+    <t>Approval_4</t>
+  </si>
+  <si>
+    <t>Approval</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Approval_reject.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>reject</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>reject_7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetInstanceInfo_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetInstanceInfo_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Approval_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Approval_3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>将测试1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0-15的员工调入到organization_1部门</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置organization_1部门负责人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>将测试16-20的员工调入到organization_1部门</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>编辑汇报关系：测试1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0-》测试11</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑汇报关系：测试11-》测试12</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑汇报关系：测试12-》测试13</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑汇报关系：测试13-》测试15</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑汇报关系：测试15-》测试16</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑汇报关系：测试16-》测试17</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑汇报关系：测试17-》测试18</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑汇报关系：测试18-》测试19</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑调整审理流程</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>测试1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0发起调整审批</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取发起的审批列表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取审批详情</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>切换测试1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1登录</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>测试1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1审批通过</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>切换测试12登录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>测试12审批通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>切换测试13登录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>测试13审批通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>切换测试15登录</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试15审批通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换测试16登录</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试16审批通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换侯龙登录</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>侯龙驳回审批</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>侯龙撤回审批</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>侯龙审批通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Update_direct_report</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑转正审理流程</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Formal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.xlsx</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Formal</t>
     </r>
     <r>
       <rPr>
@@ -382,39 +784,63 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>uth</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>uth.xlsx</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Auth_11</t>
+    <t>发起转正审批</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Formal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetInstances_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Approval_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试10发起调整审批(流程1)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormalType_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormalType_2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adjuctType_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>adjuctType_2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试16发起调整审批</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Approval_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Approval_5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Approval_6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>侯龙审批通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auth_10</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -423,9 +849,6 @@
   </si>
   <si>
     <t>Auth_13</t>
-  </si>
-  <si>
-    <t>houlong</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -433,426 +856,266 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>GetInstanceInfo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Auth_16</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CancelTransfer</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>CancelTransfer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.xlsx</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CancelTransfer_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>types_4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetInstanceInfo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Approval</t>
-  </si>
-  <si>
-    <t>Approval.xlsx</t>
+    <t>Approval_4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Approval_5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Approval_6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Approval_7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换测试10登录</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换测试11登录</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换测试12登录</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换测试13登录</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换测试16登录</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试16审批通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试13审批通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试12审批通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试11审批通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试10审批通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Formal_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑汇报关系：新成员1-》测试10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑汇报关系：新成员2-》测试10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Update_direct_report_new2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Update_direct_report_new1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Approval_4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adjuctType_2</t>
+  </si>
+  <si>
+    <t>FormalType_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormalType_2</t>
+  </si>
+  <si>
+    <t>Offboard_resign1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offboard_resign2</t>
+  </si>
+  <si>
+    <t>Offboard_dismiss1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offboard_dismiss2</t>
+  </si>
+  <si>
+    <t>Offer_2</t>
+  </si>
+  <si>
+    <t>resign_2</t>
+  </si>
+  <si>
+    <t>out_2</t>
+  </si>
+  <si>
+    <t>补卡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>补卡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>外出</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整审理流程</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>转正审理流程</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>辞职审理流程</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>辞退审理流程</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>辞退审理流程</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offer审理流程</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offer审理流程</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请假审理流程</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offer_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>overtime_2</t>
+  </si>
+  <si>
+    <t>trip_2</t>
+  </si>
+  <si>
+    <t>加班</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>出差</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave_2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave_3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>resign_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>resign_3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>out_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>out_3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>overtime_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>overtime_3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>trip_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>trip_3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adjust</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adjust.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adjust_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adjust_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offboard</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offboard.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offboard_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetInstances_3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Approval_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Approval_3</t>
-  </si>
-  <si>
-    <t>Approval_1</t>
-  </si>
-  <si>
-    <t>Approval_2</t>
-  </si>
-  <si>
-    <t>Approval_4</t>
-  </si>
-  <si>
-    <t>Approval_5</t>
-  </si>
-  <si>
-    <t>Approval_6</t>
-  </si>
-  <si>
-    <t>Approval</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Approval_reject.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>reject</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>reject_7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mem_Transfer_2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetInstanceInfo_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetInstanceInfo_2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Approval_2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Approval_3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>将测试1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0-15的员工调入到organization_1部门</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置organization_1部门负责人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>将测试16-20的员工调入到organization_1部门</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>编辑汇报关系：测试1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0-》测试11</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑汇报关系：测试11-》测试12</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑汇报关系：测试12-》测试13</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑汇报关系：测试13-》测试15</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑汇报关系：测试15-》测试16</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑汇报关系：测试16-》测试17</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑汇报关系：测试17-》测试18</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑汇报关系：测试18-》测试19</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑调整审理流程</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>测试1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0发起调整审批</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取发起的审批列表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取审批详情</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>切换测试1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1登录</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>测试1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1审批通过</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>切换测试12登录</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>测试12审批通过</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>切换测试13登录</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>测试13审批通过</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>切换测试15登录</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试15审批通过</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>切换测试16登录</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试16审批通过</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>切换侯龙登录</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>侯龙驳回审批</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>侯龙撤回审批</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试20发起调整审批</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>侯龙审批通过</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Update_direct_report</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>types_6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑转正审理流程</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Formal</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.xlsx</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Formal</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_1</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>发起转正审批</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Approval_2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Formal</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetInstances_2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Approval_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试10发起调整审批(流程1)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>types_5</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -860,7 +1123,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -903,6 +1166,13 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1221,10 +1491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1247,77 +1517,77 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1328,10 +1598,10 @@
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1342,10 +1612,10 @@
         <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1356,10 +1626,10 @@
         <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1370,10 +1640,10 @@
         <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1384,10 +1654,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1398,10 +1668,10 @@
         <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1412,504 +1682,490 @@
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>25</v>
+        <v>165</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>26</v>
+        <v>166</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="D27" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>55</v>
+        <v>28</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+      <c r="A32" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>25</v>
+        <v>165</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>26</v>
+        <v>166</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>41</v>
+        <v>28</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="2"/>
+      <c r="A43" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>90</v>
-      </c>
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>25</v>
+        <v>165</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>26</v>
+        <v>167</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1921,18 +2177,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1947,139 +2203,635 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>95</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>76</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D25" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>86</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2087,4 +2839,591 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D25" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D26" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D27" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/sources/case/Smoke.xlsx
+++ b/sources/case/Smoke.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="7140" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="7140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="adjust" sheetId="1" r:id="rId1"/>
     <sheet name="Formal" sheetId="2" r:id="rId2"/>
-    <sheet name="Temp" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="Offboard" sheetId="3" r:id="rId3"/>
+    <sheet name="Temp" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="205">
   <si>
     <t>FilePath</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1103,11 +1103,54 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>GetInstances_3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>Offboard_1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>GetInstances_3</t>
+    <t>Offboard_resign2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换测试10登录</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auth_11</t>
+  </si>
+  <si>
+    <t>切换测试11登录</t>
+  </si>
+  <si>
+    <t>Auth_12</t>
+  </si>
+  <si>
+    <t>切换测试12登录</t>
+  </si>
+  <si>
+    <t>切换测试13登录</t>
+  </si>
+  <si>
+    <t>Auth_15</t>
+  </si>
+  <si>
+    <t>切换测试15登录</t>
+  </si>
+  <si>
+    <t>Auth_16</t>
+  </si>
+  <si>
+    <t>切换测试16登录</t>
+  </si>
+  <si>
+    <t>Auth_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换测试1登录</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1115,7 +1158,71 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>测试10审批通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试11审批通过</t>
+  </si>
+  <si>
+    <t>测试12审批通过</t>
+  </si>
+  <si>
+    <t>测试13审批通过</t>
+  </si>
+  <si>
+    <t>Approval_5</t>
+  </si>
+  <si>
+    <t>Approval_6</t>
+  </si>
+  <si>
+    <t>测试15审批通过</t>
+  </si>
+  <si>
+    <t>Approval_7</t>
+  </si>
+  <si>
+    <t>测试16审批通过</t>
+  </si>
+  <si>
+    <t>测试1审批通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>发起辞职审批</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换侯龙登录</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offboard_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑汇报关系：测试13-》测试15</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EditSon_3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>侯龙审批通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Approval_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>Approval_3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Approval_4</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2177,10 +2284,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:XFD35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2357,7 +2464,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>61</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -2417,24 +2524,24 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
@@ -2682,155 +2789,141 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>94</v>
+        <v>86</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D47" s="2" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2843,18 +2936,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -2885,146 +2978,630 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>130</v>
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>168</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C4" t="s">
-        <v>170</v>
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>171</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>76</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>172</v>
+        <v>124</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>116</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C19" t="s">
+        <v>171</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>101</v>
+      <c r="C24" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C41" t="s">
+        <v>198</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3033,7 +3610,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/sources/case/Smoke.xlsx
+++ b/sources/case/Smoke.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="7140" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="7140" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="adjust" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="219">
   <si>
     <t>FilePath</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -489,10 +489,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Approval_2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Approval_3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -836,10 +832,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>侯龙审批通过</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Auth_10</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -933,10 +925,6 @@
   </si>
   <si>
     <t>Update_direct_report_new1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Approval_4</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1107,10 +1095,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Offboard_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Offboard_resign2</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1194,35 +1178,100 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>切换侯龙登录</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Offboard_2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑汇报关系：测试13-》测试15</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EditSon_3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>侯龙审批通过</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Approval_2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Approval_3</t>
+    <t>切换测试16登录</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试16审批通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试1审批通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>houlong</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试1登录</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auth_16</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Approval_4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Formal_3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offboard_dismiss1</t>
+  </si>
+  <si>
+    <t>Offboard_resign_1</t>
+  </si>
+  <si>
+    <t>Offboard_resign_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offboard_resign_3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offboard_dismiss2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offboard_dismiss_1</t>
+  </si>
+  <si>
+    <t>Offboard_dismiss_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offboard_dismiss_3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>发起辞退审批</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Update_direct_report_new3</t>
+  </si>
+  <si>
+    <t>Update_direct_report_new4</t>
+  </si>
+  <si>
+    <t>Update_direct_report_new5</t>
+  </si>
+  <si>
+    <t>Update_direct_report_new6</t>
+  </si>
+  <si>
+    <t>编辑汇报关系：新成员3-》测试10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑汇报关系：新成员4-》测试10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑汇报关系：新成员5-》测试10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑汇报关系：新成员6-》测试10</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1300,7 +1349,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -1308,19 +1357,48 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="常规 3" xfId="1"/>
+    <cellStyle name="常规 3 2" xfId="4"/>
+    <cellStyle name="常规 4" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1624,7 +1702,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1638,7 +1716,7 @@
         <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1652,7 +1730,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1666,7 +1744,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1680,7 +1758,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1694,7 +1772,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1708,7 +1786,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1722,7 +1800,7 @@
         <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1736,7 +1814,7 @@
         <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1750,7 +1828,7 @@
         <v>16</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1764,7 +1842,7 @@
         <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1778,7 +1856,7 @@
         <v>19</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1789,10 +1867,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1806,7 +1884,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1823,24 +1901,24 @@
         <v>21</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1854,7 +1932,7 @@
         <v>23</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1868,7 +1946,7 @@
         <v>26</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1882,7 +1960,7 @@
         <v>29</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1896,7 +1974,7 @@
         <v>43</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1910,7 +1988,7 @@
         <v>30</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1924,7 +2002,7 @@
         <v>44</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1938,7 +2016,7 @@
         <v>31</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1952,7 +2030,7 @@
         <v>42</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1966,7 +2044,7 @@
         <v>33</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1980,7 +2058,7 @@
         <v>45</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1991,10 +2069,10 @@
         <v>41</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -2008,7 +2086,7 @@
         <v>35</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -2019,10 +2097,10 @@
         <v>41</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -2036,7 +2114,7 @@
         <v>32</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -2050,7 +2128,7 @@
         <v>49</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -2067,24 +2145,24 @@
         <v>21</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -2098,7 +2176,7 @@
         <v>23</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -2112,7 +2190,7 @@
         <v>51</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -2126,7 +2204,7 @@
         <v>33</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -2140,7 +2218,7 @@
         <v>44</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -2154,7 +2232,7 @@
         <v>35</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -2168,7 +2246,7 @@
         <v>42</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -2182,7 +2260,7 @@
         <v>32</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -2196,7 +2274,7 @@
         <v>38</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -2207,16 +2285,16 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="D45" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -2230,7 +2308,7 @@
         <v>23</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -2244,7 +2322,7 @@
         <v>50</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -2258,7 +2336,7 @@
         <v>32</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -2269,10 +2347,10 @@
         <v>41</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2284,10 +2362,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2310,7 +2388,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2324,7 +2402,7 @@
         <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2338,7 +2416,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2352,7 +2430,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2366,7 +2444,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2380,7 +2458,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -2391,10 +2469,10 @@
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2405,10 +2483,10 @@
         <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2419,10 +2497,10 @@
         <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>211</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>58</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -2433,10 +2511,10 @@
         <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>212</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>59</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -2447,10 +2525,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>15</v>
+        <v>213</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>60</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -2461,10 +2539,10 @@
         <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>16</v>
+        <v>214</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -2475,10 +2553,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -2489,10 +2567,10 @@
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -2503,10 +2581,10 @@
         <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -2517,128 +2595,128 @@
         <v>12</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="A17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>93</v>
+        <v>12</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>69</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>102</v>
+        <v>21</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>119</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -2649,10 +2727,10 @@
         <v>28</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -2663,7 +2741,7 @@
         <v>41</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>118</v>
@@ -2677,21 +2755,21 @@
         <v>28</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>117</v>
@@ -2705,24 +2783,24 @@
         <v>28</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -2733,10 +2811,10 @@
         <v>28</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -2747,10 +2825,10 @@
         <v>41</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -2761,10 +2839,10 @@
         <v>28</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -2775,73 +2853,73 @@
         <v>41</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
+      <c r="A36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>94</v>
+        <v>41</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>121</v>
+        <v>179</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>88</v>
+        <v>198</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>68</v>
+        <v>191</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>69</v>
-      </c>
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
@@ -2851,80 +2929,268 @@
         <v>28</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>105</v>
+        <v>197</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>52</v>
+        <v>21</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>101</v>
+      <c r="C47" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2936,10 +3202,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D106"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2961,7 +3227,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2975,7 +3241,7 @@
         <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2989,7 +3255,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3003,7 +3269,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3017,7 +3283,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3031,7 +3297,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3042,10 +3308,10 @@
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3056,10 +3322,10 @@
         <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3070,10 +3336,10 @@
         <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>211</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>58</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3084,10 +3350,10 @@
         <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>212</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>59</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3098,10 +3364,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>15</v>
+        <v>213</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>60</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3112,10 +3378,10 @@
         <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>16</v>
+        <v>214</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>61</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3126,10 +3392,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3140,10 +3406,10 @@
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3154,10 +3420,10 @@
         <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3168,281 +3434,297 @@
         <v>12</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>130</v>
+        <v>12</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>168</v>
+        <v>11</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C19" t="s">
-        <v>171</v>
+        <v>12</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>196</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>102</v>
+        <v>166</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>203</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="C27" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>42</v>
+        <v>170</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>45</v>
+        <v>172</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>179</v>
+        <v>42</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>190</v>
+        <v>31</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>181</v>
+        <v>45</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="C35" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
+      <c r="C37" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
@@ -3452,119 +3734,111 @@
         <v>28</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>32</v>
+        <v>179</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
+      <c r="C42" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C41" t="s">
-        <v>198</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="D42" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>26</v>
+        <v>166</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>204</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>69</v>
+        <v>192</v>
       </c>
     </row>
     <row r="44" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>202</v>
+        <v>167</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>181</v>
+        <v>26</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>194</v>
@@ -3572,30 +3846,802 @@
     </row>
     <row r="47" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C47" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D47" s="2" t="s">
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B79" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D48" s="2" t="s">
+      <c r="C79" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+    </row>
+    <row r="87" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>195</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+    </row>
+    <row r="97" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -3610,7 +4656,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3632,7 +4678,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3646,7 +4692,7 @@
         <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3657,10 +4703,10 @@
         <v>21</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3671,10 +4717,10 @@
         <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3685,10 +4731,10 @@
         <v>21</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -3699,10 +4745,10 @@
         <v>21</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -3713,10 +4759,10 @@
         <v>21</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3727,10 +4773,10 @@
         <v>21</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3741,10 +4787,10 @@
         <v>21</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3755,10 +4801,10 @@
         <v>21</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -3769,10 +4815,10 @@
         <v>21</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3783,10 +4829,10 @@
         <v>21</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -3797,10 +4843,10 @@
         <v>21</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -3811,10 +4857,10 @@
         <v>21</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -3825,10 +4871,10 @@
         <v>21</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -3839,10 +4885,10 @@
         <v>21</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -3853,10 +4899,10 @@
         <v>21</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -3867,10 +4913,10 @@
         <v>21</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -3881,10 +4927,10 @@
         <v>21</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -3895,10 +4941,10 @@
         <v>21</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -3909,10 +4955,10 @@
         <v>21</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -3923,10 +4969,10 @@
         <v>21</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -3937,10 +4983,10 @@
         <v>21</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -3951,10 +4997,10 @@
         <v>21</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -3965,10 +5011,10 @@
         <v>21</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D25" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -3979,10 +5025,10 @@
         <v>21</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D26" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -3993,10 +5039,10 @@
         <v>21</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D27" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/sources/case/Smoke.xlsx
+++ b/sources/case/Smoke.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="7140" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="7140" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="adjust" sheetId="1" r:id="rId1"/>
     <sheet name="Formal" sheetId="2" r:id="rId2"/>
     <sheet name="Offboard" sheetId="3" r:id="rId3"/>
     <sheet name="Temp" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -22,22 +23,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="228">
   <si>
     <t>FilePath</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>API</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Case</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>TransferIn</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -53,11 +54,11 @@
       </rPr>
       <t>.xlsx</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>TransferIn_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -73,27 +74,27 @@
       </rPr>
       <t>Son</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>EditSon.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>EditSon_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>TransferIn_2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>EditSon_2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Update_direct_report</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -109,7 +110,7 @@
       </rPr>
       <t>.xlsx</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -125,7 +126,7 @@
       </rPr>
       <t>_1</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -207,7 +208,7 @@
   </si>
   <si>
     <t>approvalTypes</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -289,7 +290,7 @@
   </si>
   <si>
     <t>ApprovalTypes.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -305,7 +306,7 @@
       </rPr>
       <t>.xlsx</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -321,11 +322,11 @@
       </rPr>
       <t>_1</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>GetInstances</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -341,7 +342,7 @@
       </rPr>
       <t>.xlsx</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -357,7 +358,7 @@
       </rPr>
       <t>_1</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -373,7 +374,7 @@
       </rPr>
       <t>uth</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -389,38 +390,38 @@
       </rPr>
       <t>uth.xlsx</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Auth_11</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Auth_12</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Auth_13</t>
   </si>
   <si>
     <t>houlong</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Auth_15</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>GetInstanceInfo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Auth_16</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CancelTransfer</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -436,15 +437,15 @@
       </rPr>
       <t>.xlsx</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CancelTransfer_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>GetInstanceInfo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Approval</t>
@@ -456,9 +457,6 @@
     <t>Approval_3</t>
   </si>
   <si>
-    <t>Approval_1</t>
-  </si>
-  <si>
     <t>Approval_2</t>
   </si>
   <si>
@@ -466,31 +464,31 @@
   </si>
   <si>
     <t>Approval</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Approval_reject.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>reject</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>reject_7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>GetInstanceInfo_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>GetInstanceInfo_2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Approval_3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -506,19 +504,19 @@
       </rPr>
       <t>0-15的员工调入到organization_1部门</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>设置organization_1部门负责人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>将测试16-20的员工调入到organization_1部门</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>description</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -534,187 +532,71 @@
       </rPr>
       <t>0-》测试11</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：测试11-》测试12</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：测试12-》测试13</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：测试13-》测试15</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：测试15-》测试16</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：测试16-》测试17</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：测试17-》测试18</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：测试18-》测试19</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>编辑调整审理流程</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>测试1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0发起调整审批</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>获取发起的审批列表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>获取审批详情</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>切换测试1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1登录</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>测试1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1审批通过</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>切换测试12登录</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>测试12审批通过</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>切换测试13登录</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>测试13审批通过</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>切换测试15登录</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>测试15审批通过</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>切换测试16登录</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>测试16审批通过</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>切换侯龙登录</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>侯龙驳回审批</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>侯龙撤回审批</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>侯龙审批通过</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -741,11 +623,11 @@
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>编辑转正审理流程</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -761,7 +643,7 @@
       </rPr>
       <t>.xlsx</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -777,176 +659,172 @@
       </rPr>
       <t>_1</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>发起转正审批</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Formal</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>GetInstances_2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Approval_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>测试10发起调整审批(流程1)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>FormalType_1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>FormalType_2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>adjuctType_1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>adjuctType_2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试16发起调整审批</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Approval_2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Approval_5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Approval_6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Auth_10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Auth_12</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Auth_13</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Auth_15</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Auth_16</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Approval_4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Approval_5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Approval_6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Approval_7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>切换测试10登录</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>切换测试11登录</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>切换测试12登录</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>切换测试13登录</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>切换测试16登录</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>测试16审批通过</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>测试13审批通过</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>测试12审批通过</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>测试11审批通过</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>测试10审批通过</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Formal_2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：新成员1-》测试10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：新成员2-》测试10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Update_direct_report_new2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Update_direct_report_new1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>adjuctType_2</t>
   </si>
   <si>
     <t>FormalType_1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>FormalType_2</t>
   </si>
   <si>
     <t>Offboard_resign1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Offboard_resign2</t>
   </si>
   <si>
     <t>Offboard_dismiss1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Offboard_dismiss2</t>
@@ -962,51 +840,51 @@
   </si>
   <si>
     <t>补卡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>补卡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>外出</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>调整审理流程</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>转正审理流程</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>辞职审理流程</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>辞退审理流程</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>辞退审理流程</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Offer审理流程</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Offer审理流程</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>请假审理流程</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Offer_1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>overtime_2</t>
@@ -1016,91 +894,91 @@
   </si>
   <si>
     <t>加班</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>出差</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Leave_1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Leave_2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Leave_3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>resign_1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>resign_3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>out_1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>out_3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>overtime_1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>overtime_3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>trip_1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>trip_3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Adjust</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Adjust.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Adjust_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Adjust_2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Offboard</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Offboard.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>GetInstances_3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Offboard_resign2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>切换测试10登录</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Auth_11</t>
@@ -1131,19 +1009,19 @@
   </si>
   <si>
     <t>Auth_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>切换测试1登录</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Approval_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>测试10审批通过</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>测试11审批通过</t>
@@ -1171,47 +1049,47 @@
   </si>
   <si>
     <t>测试1审批通过</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>发起辞职审批</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Approval_2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>切换测试16登录</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>测试16审批通过</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>测试1审批通过</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>houlong</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>测试1登录</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Auth_16</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Approval_4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Formal_3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Offboard_dismiss1</t>
@@ -1221,30 +1099,30 @@
   </si>
   <si>
     <t>Offboard_resign_2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Offboard_resign_3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Offboard_dismiss2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Offboard_dismiss_1</t>
   </si>
   <si>
     <t>Offboard_dismiss_2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Offboard_dismiss_3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>发起辞退审批</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Update_direct_report_new3</t>
@@ -1260,31 +1138,124 @@
   </si>
   <si>
     <t>编辑汇报关系：新成员3-》测试10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：新成员4-》测试10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：新成员5-》测试10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：新成员6-》测试10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApprovalTypes.xlsx</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>驳回审批</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>发起调整审批</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adjust_3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换测试1登录</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试1审批通过</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>houlong登录</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>houlong审批通过</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adjust</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Update_direct_report_houlong</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑汇报关系：houlong-》测试10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>GetInstances</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_1</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>OvertimeRequest</t>
+  </si>
+  <si>
+    <t>OvertimeRequest.xlsx</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>OvertimeRequest_01</t>
+  </si>
+  <si>
+    <t>OvertimeRequest_02</t>
+  </si>
+  <si>
+    <t>OvertimeRequest_03</t>
+  </si>
+  <si>
+    <t>OvertimeRequest_04</t>
+  </si>
+  <si>
+    <t>OvertimeRequest_05</t>
+  </si>
+  <si>
+    <t>OvertimeRequest_06</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1351,45 +1322,45 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1676,17 +1647,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
@@ -1702,7 +1673,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1716,7 +1687,7 @@
         <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1730,7 +1701,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1744,7 +1715,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1758,7 +1729,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1772,7 +1743,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1783,10 +1754,10 @@
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1797,10 +1768,10 @@
         <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1811,10 +1782,10 @@
         <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>59</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1825,10 +1796,10 @@
         <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>16</v>
+        <v>201</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>60</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1839,10 +1810,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>202</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>61</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1853,10 +1824,10 @@
         <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>19</v>
+        <v>203</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>62</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1867,10 +1838,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>83</v>
+        <v>217</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>63</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1881,198 +1852,198 @@
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>94</v>
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>163</v>
+        <v>16</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>44</v>
+        <v>208</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>27</v>
+        <v>216</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>28</v>
+        <v>151</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>31</v>
+        <v>152</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -2083,10 +2054,10 @@
         <v>28</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -2097,10 +2068,10 @@
         <v>41</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -2111,143 +2082,143 @@
         <v>28</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
+      <c r="A33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>95</v>
+        <v>41</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>161</v>
+        <v>27</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>162</v>
+        <v>28</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>163</v>
+        <v>33</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>44</v>
+        <v>168</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>76</v>
+        <v>187</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>77</v>
+        <v>209</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>114</v>
-      </c>
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
@@ -2260,101 +2231,269 @@
         <v>32</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="2"/>
+      <c r="A44" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>161</v>
+        <v>24</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>162</v>
+        <v>22</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>164</v>
+        <v>23</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B57" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>82</v>
+      <c r="C57" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2364,8 +2503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:XFD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2388,7 +2527,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2402,7 +2541,7 @@
         <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2416,7 +2555,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2430,7 +2569,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2444,7 +2583,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2458,7 +2597,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -2469,10 +2608,10 @@
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2483,10 +2622,10 @@
         <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2497,10 +2636,10 @@
         <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -2511,10 +2650,10 @@
         <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -2525,10 +2664,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -2539,10 +2678,10 @@
         <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -2556,7 +2695,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -2570,7 +2709,7 @@
         <v>14</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -2584,7 +2723,7 @@
         <v>15</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -2598,7 +2737,7 @@
         <v>16</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -2612,7 +2751,7 @@
         <v>18</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -2626,7 +2765,7 @@
         <v>19</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -2637,10 +2776,10 @@
         <v>12</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -2654,7 +2793,7 @@
         <v>20</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -2671,24 +2810,24 @@
         <v>21</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -2699,10 +2838,10 @@
         <v>22</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -2716,7 +2855,7 @@
         <v>26</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -2727,24 +2866,24 @@
         <v>28</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -2758,7 +2897,7 @@
         <v>29</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -2769,10 +2908,10 @@
         <v>41</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -2783,24 +2922,24 @@
         <v>28</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -2811,24 +2950,24 @@
         <v>28</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -2839,10 +2978,10 @@
         <v>28</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -2853,10 +2992,10 @@
         <v>41</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -2867,24 +3006,24 @@
         <v>28</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -2895,10 +3034,10 @@
         <v>28</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -2909,10 +3048,10 @@
         <v>41</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -2929,10 +3068,10 @@
         <v>28</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -2943,24 +3082,24 @@
         <v>21</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -2971,10 +3110,10 @@
         <v>22</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -2988,7 +3127,7 @@
         <v>26</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -3002,7 +3141,7 @@
         <v>35</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -3013,10 +3152,10 @@
         <v>41</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -3027,24 +3166,24 @@
         <v>28</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -3061,24 +3200,24 @@
         <v>28</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -3089,10 +3228,10 @@
         <v>22</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -3106,7 +3245,7 @@
         <v>26</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -3120,7 +3259,7 @@
         <v>33</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -3131,10 +3270,10 @@
         <v>41</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -3145,10 +3284,10 @@
         <v>28</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -3159,10 +3298,10 @@
         <v>41</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -3173,28 +3312,28 @@
         <v>28</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3204,7 +3343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -3227,7 +3366,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3241,7 +3380,7 @@
         <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3255,7 +3394,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3269,7 +3408,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3283,7 +3422,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3297,7 +3436,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3308,10 +3447,10 @@
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3322,10 +3461,10 @@
         <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3336,10 +3475,10 @@
         <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3350,10 +3489,10 @@
         <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3364,10 +3503,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3378,10 +3517,10 @@
         <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3395,7 +3534,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3409,7 +3548,7 @@
         <v>14</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3423,7 +3562,7 @@
         <v>15</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3437,7 +3576,7 @@
         <v>16</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3451,7 +3590,7 @@
         <v>18</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3465,7 +3604,7 @@
         <v>19</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3476,10 +3615,10 @@
         <v>12</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3493,7 +3632,7 @@
         <v>20</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3510,24 +3649,24 @@
         <v>21</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3538,10 +3677,10 @@
         <v>22</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3555,7 +3694,7 @@
         <v>26</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3566,10 +3705,10 @@
         <v>28</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3580,10 +3719,10 @@
         <v>41</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -3594,10 +3733,10 @@
         <v>28</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -3608,10 +3747,10 @@
         <v>41</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -3622,10 +3761,10 @@
         <v>28</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -3639,7 +3778,7 @@
         <v>42</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -3653,7 +3792,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -3664,10 +3803,10 @@
         <v>41</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -3678,10 +3817,10 @@
         <v>28</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -3692,10 +3831,10 @@
         <v>41</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -3706,10 +3845,10 @@
         <v>28</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -3720,10 +3859,10 @@
         <v>41</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3734,10 +3873,10 @@
         <v>28</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -3748,10 +3887,10 @@
         <v>41</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -3771,7 +3910,7 @@
         <v>32</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -3782,24 +3921,24 @@
         <v>21</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3810,10 +3949,10 @@
         <v>22</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3827,7 +3966,7 @@
         <v>26</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3841,7 +3980,7 @@
         <v>35</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="47" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3852,10 +3991,10 @@
         <v>41</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="48" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3866,24 +4005,24 @@
         <v>28</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="49" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3903,21 +4042,21 @@
         <v>32</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="53" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3928,10 +4067,10 @@
         <v>22</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3945,7 +4084,7 @@
         <v>26</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3959,7 +4098,7 @@
         <v>33</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3970,10 +4109,10 @@
         <v>41</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3984,10 +4123,10 @@
         <v>28</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="58" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3998,10 +4137,10 @@
         <v>41</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="59" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4012,24 +4151,24 @@
         <v>28</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="60" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="61" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4049,7 +4188,7 @@
         <v>32</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="63" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4063,7 +4202,7 @@
         <v>5</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4077,7 +4216,7 @@
         <v>8</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="65" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4091,7 +4230,7 @@
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4105,7 +4244,7 @@
         <v>10</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="67" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4122,24 +4261,24 @@
         <v>21</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="70" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4150,10 +4289,10 @@
         <v>22</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4167,7 +4306,7 @@
         <v>26</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="72" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4178,10 +4317,10 @@
         <v>28</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="73" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4192,10 +4331,10 @@
         <v>41</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -4206,10 +4345,10 @@
         <v>28</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -4220,10 +4359,10 @@
         <v>41</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -4234,10 +4373,10 @@
         <v>28</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -4251,7 +4390,7 @@
         <v>42</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -4265,7 +4404,7 @@
         <v>31</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -4276,10 +4415,10 @@
         <v>41</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -4290,10 +4429,10 @@
         <v>28</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -4304,10 +4443,10 @@
         <v>41</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -4318,10 +4457,10 @@
         <v>28</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -4332,10 +4471,10 @@
         <v>41</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="84" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4346,10 +4485,10 @@
         <v>28</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -4360,10 +4499,10 @@
         <v>41</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -4383,7 +4522,7 @@
         <v>32</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -4394,24 +4533,24 @@
         <v>21</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="90" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4422,10 +4561,10 @@
         <v>22</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="91" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4439,7 +4578,7 @@
         <v>26</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="92" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4453,7 +4592,7 @@
         <v>35</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="93" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4464,10 +4603,10 @@
         <v>41</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="94" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4478,24 +4617,24 @@
         <v>28</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="95" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="96" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4515,21 +4654,21 @@
         <v>32</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="99" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4540,10 +4679,10 @@
         <v>22</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="100" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4557,7 +4696,7 @@
         <v>26</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="101" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4571,7 +4710,7 @@
         <v>33</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="102" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4582,10 +4721,10 @@
         <v>41</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="103" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4596,10 +4735,10 @@
         <v>28</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="104" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4610,10 +4749,10 @@
         <v>41</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="105" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4624,28 +4763,28 @@
         <v>28</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="106" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4656,7 +4795,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4678,7 +4817,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4692,7 +4831,7 @@
         <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4703,10 +4842,10 @@
         <v>21</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4717,10 +4856,10 @@
         <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -4731,10 +4870,10 @@
         <v>21</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -4745,10 +4884,10 @@
         <v>21</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -4759,10 +4898,10 @@
         <v>21</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -4773,10 +4912,10 @@
         <v>21</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4787,10 +4926,10 @@
         <v>21</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4801,10 +4940,10 @@
         <v>21</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4815,10 +4954,10 @@
         <v>21</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -4829,10 +4968,10 @@
         <v>21</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -4843,10 +4982,10 @@
         <v>21</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -4857,10 +4996,10 @@
         <v>21</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -4871,10 +5010,10 @@
         <v>21</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -4885,10 +5024,10 @@
         <v>21</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -4899,10 +5038,10 @@
         <v>21</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -4913,10 +5052,10 @@
         <v>21</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -4927,10 +5066,10 @@
         <v>21</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -4941,10 +5080,10 @@
         <v>21</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -4955,10 +5094,10 @@
         <v>21</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -4969,10 +5108,10 @@
         <v>21</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -4983,10 +5122,10 @@
         <v>21</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -4997,10 +5136,10 @@
         <v>21</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -5011,10 +5150,10 @@
         <v>21</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D25" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -5025,10 +5164,10 @@
         <v>21</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="D26" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -5039,14 +5178,116 @@
         <v>21</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="D27" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sources/case/Smoke.xlsx
+++ b/sources/case/Smoke.xlsx
@@ -4,14 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="7140" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="7140" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="adjust" sheetId="1" r:id="rId1"/>
     <sheet name="Formal" sheetId="2" r:id="rId2"/>
     <sheet name="Offboard" sheetId="3" r:id="rId3"/>
-    <sheet name="Temp" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="Leave" sheetId="6" r:id="rId4"/>
+    <sheet name="Out" sheetId="7" r:id="rId5"/>
+    <sheet name="Resign" sheetId="8" r:id="rId6"/>
+    <sheet name="OverTime" sheetId="9" r:id="rId7"/>
+    <sheet name="Temp" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -23,22 +26,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2023" uniqueCount="267">
   <si>
     <t>FilePath</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>API</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Case</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>TransferIn</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -54,11 +57,11 @@
       </rPr>
       <t>.xlsx</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>TransferIn_1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -74,27 +77,27 @@
       </rPr>
       <t>Son</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>EditSon.xlsx</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>EditSon_1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>TransferIn_2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>EditSon_2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Update_direct_report</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -110,7 +113,7 @@
       </rPr>
       <t>.xlsx</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -126,7 +129,7 @@
       </rPr>
       <t>_1</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -208,7 +211,7 @@
   </si>
   <si>
     <t>approvalTypes</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -290,7 +293,7 @@
   </si>
   <si>
     <t>ApprovalTypes.xlsx</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -306,7 +309,7 @@
       </rPr>
       <t>.xlsx</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -322,11 +325,11 @@
       </rPr>
       <t>_1</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>GetInstances</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -342,7 +345,7 @@
       </rPr>
       <t>.xlsx</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -358,7 +361,7 @@
       </rPr>
       <t>_1</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -374,7 +377,7 @@
       </rPr>
       <t>uth</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -390,38 +393,38 @@
       </rPr>
       <t>uth.xlsx</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Auth_11</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Auth_12</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Auth_13</t>
   </si>
   <si>
     <t>houlong</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Auth_15</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>GetInstanceInfo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Auth_16</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>CancelTransfer</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -437,15 +440,15 @@
       </rPr>
       <t>.xlsx</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>CancelTransfer_1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>GetInstanceInfo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Approval</t>
@@ -464,31 +467,31 @@
   </si>
   <si>
     <t>Approval</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Approval_reject.xlsx</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>reject</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>reject_7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>GetInstanceInfo_1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>GetInstanceInfo_2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Approval_3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -504,19 +507,19 @@
       </rPr>
       <t>0-15的员工调入到organization_1部门</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>设置organization_1部门负责人</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>将测试16-20的员工调入到organization_1部门</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>description</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -532,71 +535,71 @@
       </rPr>
       <t>0-》测试11</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：测试11-》测试12</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：测试12-》测试13</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：测试13-》测试15</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：测试15-》测试16</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：测试16-》测试17</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：测试17-》测试18</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：测试18-》测试19</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>编辑调整审理流程</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>获取发起的审批列表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>获取审批详情</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>切换测试15登录</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>测试15审批通过</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>切换测试16登录</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>测试16审批通过</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>切换侯龙登录</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>侯龙撤回审批</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -623,11 +626,11 @@
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>编辑转正审理流程</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -643,7 +646,7 @@
       </rPr>
       <t>.xlsx</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -659,542 +662,411 @@
       </rPr>
       <t>_1</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>发起转正审批</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Formal</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>GetInstances_2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Approval_1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>测试10发起调整审批(流程1)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>FormalType_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>FormalType_2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>adjuctType_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>adjuctType_2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Approval_2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Approval_5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Approval_6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Auth_10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Auth_12</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Auth_13</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Auth_15</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Auth_16</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Approval_4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Approval_5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Approval_6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Approval_7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>切换测试10登录</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>切换测试11登录</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>切换测试12登录</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>切换测试13登录</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>切换测试16登录</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>测试16审批通过</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>测试13审批通过</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>测试12审批通过</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>测试11审批通过</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>测试10审批通过</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Formal_2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：新成员1-》测试10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：新成员2-》测试10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Update_direct_report_new2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Update_direct_report_new1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>adjuctType_2</t>
-  </si>
-  <si>
-    <t>FormalType_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>FormalType_2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Offboard_resign1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>辞职审理流程</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adjust</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adjust.xlsx</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adjust_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adjust_2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offboard</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offboard.xlsx</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetInstances_3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Offboard_resign2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换测试10登录</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auth_11</t>
+  </si>
+  <si>
+    <t>切换测试11登录</t>
+  </si>
+  <si>
+    <t>Auth_12</t>
+  </si>
+  <si>
+    <t>切换测试12登录</t>
+  </si>
+  <si>
+    <t>切换测试13登录</t>
+  </si>
+  <si>
+    <t>Auth_15</t>
+  </si>
+  <si>
+    <t>切换测试15登录</t>
+  </si>
+  <si>
+    <t>Auth_16</t>
+  </si>
+  <si>
+    <t>切换测试16登录</t>
+  </si>
+  <si>
+    <t>Auth_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换测试1登录</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Approval_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试10审批通过</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试11审批通过</t>
+  </si>
+  <si>
+    <t>测试12审批通过</t>
+  </si>
+  <si>
+    <t>测试13审批通过</t>
+  </si>
+  <si>
+    <t>Approval_5</t>
+  </si>
+  <si>
+    <t>Approval_6</t>
+  </si>
+  <si>
+    <t>测试15审批通过</t>
+  </si>
+  <si>
+    <t>Approval_7</t>
+  </si>
+  <si>
+    <t>测试16审批通过</t>
+  </si>
+  <si>
+    <t>测试1审批通过</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>发起辞职审批</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Approval_2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换测试16登录</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试16审批通过</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试1审批通过</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>houlong</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试1登录</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auth_16</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Approval_4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Formal_3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Offboard_dismiss1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offboard_resign_1</t>
+  </si>
+  <si>
+    <t>Offboard_resign_2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offboard_resign_3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Offboard_dismiss2</t>
-  </si>
-  <si>
-    <t>Offer_2</t>
-  </si>
-  <si>
-    <t>resign_2</t>
-  </si>
-  <si>
-    <t>out_2</t>
-  </si>
-  <si>
-    <t>补卡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>补卡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>外出</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>调整审理流程</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>转正审理流程</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>辞职审理流程</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>辞退审理流程</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>辞退审理流程</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Offer审理流程</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Offer审理流程</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>请假审理流程</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Offer_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>overtime_2</t>
-  </si>
-  <si>
-    <t>trip_2</t>
-  </si>
-  <si>
-    <t>加班</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>出差</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leave_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leave_2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leave_3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>resign_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>resign_3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>out_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>out_3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>overtime_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>overtime_3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>trip_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>trip_3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offboard_dismiss_1</t>
+  </si>
+  <si>
+    <t>Offboard_dismiss_2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offboard_dismiss_3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>发起辞退审批</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Update_direct_report_new3</t>
+  </si>
+  <si>
+    <t>Update_direct_report_new4</t>
+  </si>
+  <si>
+    <t>Update_direct_report_new5</t>
+  </si>
+  <si>
+    <t>Update_direct_report_new6</t>
+  </si>
+  <si>
+    <t>编辑汇报关系：新成员3-》测试10</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑汇报关系：新成员4-》测试10</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑汇报关系：新成员5-》测试10</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑汇报关系：新成员6-》测试10</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApprovalTypes.xlsx</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>驳回审批</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>发起调整审批</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adjust_3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换测试1登录</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试1审批通过</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>houlong登录</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>houlong审批通过</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Adjust</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Adjust.xlsx</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Adjust_1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Adjust_2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Offboard</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Offboard.xlsx</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetInstances_3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Offboard_resign2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>切换测试10登录</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Auth_11</t>
-  </si>
-  <si>
-    <t>切换测试11登录</t>
-  </si>
-  <si>
-    <t>Auth_12</t>
-  </si>
-  <si>
-    <t>切换测试12登录</t>
-  </si>
-  <si>
-    <t>切换测试13登录</t>
-  </si>
-  <si>
-    <t>Auth_15</t>
-  </si>
-  <si>
-    <t>切换测试15登录</t>
-  </si>
-  <si>
-    <t>Auth_16</t>
-  </si>
-  <si>
-    <t>切换测试16登录</t>
-  </si>
-  <si>
-    <t>Auth_1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>切换测试1登录</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Approval_1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试10审批通过</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试11审批通过</t>
-  </si>
-  <si>
-    <t>测试12审批通过</t>
-  </si>
-  <si>
-    <t>测试13审批通过</t>
-  </si>
-  <si>
-    <t>Approval_5</t>
-  </si>
-  <si>
-    <t>Approval_6</t>
-  </si>
-  <si>
-    <t>测试15审批通过</t>
-  </si>
-  <si>
-    <t>Approval_7</t>
-  </si>
-  <si>
-    <t>测试16审批通过</t>
-  </si>
-  <si>
-    <t>测试1审批通过</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>发起辞职审批</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Approval_2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>切换测试16登录</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试16审批通过</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试1审批通过</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>houlong</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试1登录</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Auth_16</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Approval_4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Formal_3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Offboard_dismiss1</t>
-  </si>
-  <si>
-    <t>Offboard_resign_1</t>
-  </si>
-  <si>
-    <t>Offboard_resign_2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Offboard_resign_3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Offboard_dismiss2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Offboard_dismiss_1</t>
-  </si>
-  <si>
-    <t>Offboard_dismiss_2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Offboard_dismiss_3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>发起辞退审批</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Update_direct_report_new3</t>
-  </si>
-  <si>
-    <t>Update_direct_report_new4</t>
-  </si>
-  <si>
-    <t>Update_direct_report_new5</t>
-  </si>
-  <si>
-    <t>Update_direct_report_new6</t>
-  </si>
-  <si>
-    <t>编辑汇报关系：新成员3-》测试10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑汇报关系：新成员4-》测试10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑汇报关系：新成员5-》测试10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑汇报关系：新成员6-》测试10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ApprovalTypes.xlsx</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>驳回审批</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>发起调整审批</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Adjust_3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>切换测试1登录</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试1审批通过</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>houlong登录</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>houlong审批通过</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Adjust</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Update_direct_report_houlong</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：houlong-》测试10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1210,44 +1082,351 @@
       </rPr>
       <t>_1</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auth_13</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换测试13登录</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>out_1</t>
+  </si>
+  <si>
+    <t>overtime_1</t>
+  </si>
+  <si>
+    <t>Leave_1</t>
+  </si>
+  <si>
+    <t>resign_1</t>
+  </si>
+  <si>
+    <t>LeaveRequest</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeaveRequest.xlsx</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeaveRequest_01</t>
+  </si>
+  <si>
+    <t>LeaveRequest_05</t>
+  </si>
+  <si>
+    <t>LeaveRequest_06</t>
+  </si>
+  <si>
+    <t>发起请假审批</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Approval_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Approval_4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Approval_6</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Approval_2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Approval_3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Approval_7</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave_2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>请假审批流程</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeaveRequest_02</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeaveRequest_03</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>EditSon_3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置organization_3部门负责人</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TransferIn_3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>将侯龙调入到organization_3部门</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetInstances_4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换测试11登录</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeaveRequest_04</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auth_17</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auth_18</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeaveRequest_07</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auth_19</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave_3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>OutRequest</t>
+  </si>
+  <si>
+    <t>OutRequest.xlsx</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>OutRequest_01</t>
+  </si>
+  <si>
+    <t>out_2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>out_3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>OutRequest_03</t>
+  </si>
+  <si>
+    <t>OutRequest_04</t>
+  </si>
+  <si>
+    <t>OutRequest_05</t>
+  </si>
+  <si>
+    <t>OutRequest_02</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetInstances_5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auth_10</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换测试16登录</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auth_15</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Approval_3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auth_16</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetInstances_7</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auth_13</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Approval_3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResignRequest</t>
+  </si>
+  <si>
+    <t>ResignRequest_03</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResignRequest_02</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResignRequest_03</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResignRequest.xlsx</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>resign_2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>OvertimeRequest</t>
   </si>
   <si>
     <t>OvertimeRequest.xlsx</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetInstances_6</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>OvertimeRequest_02</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetInstances_6</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>overtime_2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>overtime_3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auth_17</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uth.xlsx</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auth_18</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auth_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换测试1登录</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>加班审批流程</t>
+  </si>
+  <si>
+    <t>加班审批流程</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>加班侯龙登录</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>发起加班审批</t>
   </si>
   <si>
     <t>OvertimeRequest_01</t>
-  </si>
-  <si>
-    <t>OvertimeRequest_02</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>overtime_2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Approval_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>OvertimeRequest_03</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>OvertimeRequest_04</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>OvertimeRequest_05</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auth_20</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>OvertimeRequest_06</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1302,6 +1481,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1320,56 +1506,97 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="10">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="常规 3" xfId="1"/>
     <cellStyle name="常规 3 2" xfId="4"/>
+    <cellStyle name="常规 3 3" xfId="8"/>
     <cellStyle name="常规 4" xfId="3"/>
+    <cellStyle name="常规 5" xfId="5"/>
+    <cellStyle name="常规 6" xfId="6"/>
+    <cellStyle name="常规 7" xfId="7"/>
+    <cellStyle name="常规 8" xfId="9"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1649,8 +1876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1782,10 +2009,10 @@
         <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>204</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1796,10 +2023,10 @@
         <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1810,10 +2037,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>202</v>
+        <v>167</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>206</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1824,10 +2051,10 @@
         <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>203</v>
+        <v>168</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>207</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1838,10 +2065,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>217</v>
+        <v>182</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>218</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1967,7 +2194,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>208</v>
+        <v>173</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>84</v>
@@ -1978,13 +2205,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>81</v>
@@ -2194,10 +2421,10 @@
         <v>28</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>187</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -2211,7 +2438,7 @@
         <v>48</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>209</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -2250,16 +2477,16 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>210</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -2368,16 +2595,16 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>210</v>
+        <v>175</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -2388,7 +2615,7 @@
         <v>22</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>65</v>
@@ -2416,10 +2643,10 @@
         <v>28</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>33</v>
+        <v>185</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>67</v>
+        <v>186</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -2433,7 +2660,7 @@
         <v>86</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -2444,10 +2671,10 @@
         <v>28</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -2461,7 +2688,7 @@
         <v>51</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>213</v>
+        <v>178</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -2475,7 +2702,7 @@
         <v>32</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>214</v>
+        <v>179</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -2489,11 +2716,11 @@
         <v>94</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2503,8 +2730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:XFD49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2636,10 +2863,10 @@
         <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>204</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -2650,10 +2877,10 @@
         <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -2664,10 +2891,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>202</v>
+        <v>167</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>206</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -2678,10 +2905,10 @@
         <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>203</v>
+        <v>168</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>207</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -3034,10 +3261,10 @@
         <v>28</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>187</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -3051,7 +3278,7 @@
         <v>97</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -3068,7 +3295,7 @@
         <v>28</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>71</v>
@@ -3141,7 +3368,7 @@
         <v>35</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -3152,10 +3379,10 @@
         <v>41</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -3166,10 +3393,10 @@
         <v>28</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -3183,7 +3410,7 @@
         <v>51</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -3200,7 +3427,7 @@
         <v>28</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>71</v>
@@ -3214,7 +3441,7 @@
         <v>75</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>77</v>
@@ -3270,7 +3497,7 @@
         <v>41</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>68</v>
@@ -3284,10 +3511,10 @@
         <v>28</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -3301,7 +3528,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -3312,10 +3539,10 @@
         <v>28</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -3326,14 +3553,14 @@
         <v>41</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3344,7 +3571,7 @@
   <dimension ref="A1:D106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3475,10 +3702,10 @@
         <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>204</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3489,10 +3716,10 @@
         <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3503,10 +3730,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>202</v>
+        <v>167</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>206</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3517,10 +3744,10 @@
         <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>203</v>
+        <v>168</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>207</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3649,24 +3876,24 @@
         <v>21</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3677,7 +3904,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>65</v>
@@ -3708,7 +3935,7 @@
         <v>89</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3719,10 +3946,10 @@
         <v>41</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>171</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -3733,10 +3960,10 @@
         <v>28</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -3750,7 +3977,7 @@
         <v>43</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -3761,10 +3988,10 @@
         <v>28</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -3778,7 +4005,7 @@
         <v>42</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -3792,7 +4019,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -3806,7 +4033,7 @@
         <v>44</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -3817,10 +4044,10 @@
         <v>28</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -3831,10 +4058,10 @@
         <v>41</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -3845,10 +4072,10 @@
         <v>28</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -3859,10 +4086,10 @@
         <v>41</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3873,10 +4100,10 @@
         <v>28</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -3887,10 +4114,10 @@
         <v>41</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -3921,24 +4148,24 @@
         <v>21</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3949,7 +4176,7 @@
         <v>22</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>65</v>
@@ -3980,7 +4207,7 @@
         <v>35</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
     </row>
     <row r="47" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3991,10 +4218,10 @@
         <v>41</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4005,10 +4232,10 @@
         <v>28</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
     </row>
     <row r="49" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4022,7 +4249,7 @@
         <v>51</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4047,16 +4274,16 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
     </row>
     <row r="53" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4067,7 +4294,7 @@
         <v>22</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>65</v>
@@ -4109,7 +4336,7 @@
         <v>41</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>68</v>
@@ -4123,10 +4350,10 @@
         <v>28</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4140,7 +4367,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
     </row>
     <row r="59" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4151,10 +4378,10 @@
         <v>28</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
     </row>
     <row r="60" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4165,10 +4392,10 @@
         <v>41</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
     </row>
     <row r="61" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4261,24 +4488,24 @@
         <v>21</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>196</v>
+        <v>161</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
     </row>
     <row r="70" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4289,7 +4516,7 @@
         <v>22</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>65</v>
@@ -4345,10 +4572,10 @@
         <v>28</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -4362,7 +4589,7 @@
         <v>43</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -4373,10 +4600,10 @@
         <v>28</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -4390,7 +4617,7 @@
         <v>42</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -4404,7 +4631,7 @@
         <v>31</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -4418,7 +4645,7 @@
         <v>44</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -4429,10 +4656,10 @@
         <v>28</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -4443,10 +4670,10 @@
         <v>41</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -4457,10 +4684,10 @@
         <v>28</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -4471,10 +4698,10 @@
         <v>41</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4485,10 +4712,10 @@
         <v>28</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -4499,10 +4726,10 @@
         <v>41</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -4533,24 +4760,24 @@
         <v>21</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
     </row>
     <row r="90" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4561,7 +4788,7 @@
         <v>22</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>65</v>
@@ -4592,7 +4819,7 @@
         <v>35</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
     </row>
     <row r="93" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4603,10 +4830,10 @@
         <v>41</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
     </row>
     <row r="94" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4617,10 +4844,10 @@
         <v>28</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
     </row>
     <row r="95" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4634,7 +4861,7 @@
         <v>51</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
     </row>
     <row r="96" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4659,16 +4886,16 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
     </row>
     <row r="99" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4679,7 +4906,7 @@
         <v>22</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>65</v>
@@ -4721,7 +4948,7 @@
         <v>41</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>68</v>
@@ -4735,10 +4962,10 @@
         <v>28</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
     </row>
     <row r="104" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4752,7 +4979,7 @@
         <v>51</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
     </row>
     <row r="105" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4763,10 +4990,10 @@
         <v>28</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
     </row>
     <row r="106" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4777,14 +5004,14 @@
         <v>41</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4792,10 +5019,4285 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="D62" sqref="D62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>191</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>191</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>191</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>191</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>191</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>191</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>191</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D77"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection sqref="A1:D55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>219</v>
+      </c>
+      <c r="B18" t="s">
+        <v>220</v>
+      </c>
+      <c r="C18" t="s">
+        <v>221</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>219</v>
+      </c>
+      <c r="B38" t="s">
+        <v>220</v>
+      </c>
+      <c r="C38" t="s">
+        <v>227</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>219</v>
+      </c>
+      <c r="B51" t="s">
+        <v>220</v>
+      </c>
+      <c r="C51" t="s">
+        <v>224</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>219</v>
+      </c>
+      <c r="B60" t="s">
+        <v>220</v>
+      </c>
+      <c r="C60" t="s">
+        <v>225</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>219</v>
+      </c>
+      <c r="B73" t="s">
+        <v>220</v>
+      </c>
+      <c r="C73" t="s">
+        <v>226</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D56"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D85"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>243</v>
+      </c>
+      <c r="B19" t="s">
+        <v>244</v>
+      </c>
+      <c r="C19" t="s">
+        <v>259</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>243</v>
+      </c>
+      <c r="B39" t="s">
+        <v>244</v>
+      </c>
+      <c r="C39" t="s">
+        <v>246</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>243</v>
+      </c>
+      <c r="B52" t="s">
+        <v>244</v>
+      </c>
+      <c r="C52" t="s">
+        <v>262</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>243</v>
+      </c>
+      <c r="B59" t="s">
+        <v>244</v>
+      </c>
+      <c r="C59" t="s">
+        <v>263</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>243</v>
+      </c>
+      <c r="B68" t="s">
+        <v>244</v>
+      </c>
+      <c r="C68" t="s">
+        <v>264</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>243</v>
+      </c>
+      <c r="B77" t="s">
+        <v>244</v>
+      </c>
+      <c r="C77" t="s">
+        <v>266</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4803,7 +9305,7 @@
     <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -4822,472 +9324,17 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D25" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D26" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D27" t="s">
-        <v>138</v>
+      <c r="C2" s="19" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>220</v>
-      </c>
-      <c r="B3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>220</v>
-      </c>
-      <c r="B4" t="s">
-        <v>221</v>
-      </c>
-      <c r="C4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>220</v>
-      </c>
-      <c r="B5" t="s">
-        <v>221</v>
-      </c>
-      <c r="C5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>220</v>
-      </c>
-      <c r="B6" t="s">
-        <v>221</v>
-      </c>
-      <c r="C6" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>220</v>
-      </c>
-      <c r="B7" t="s">
-        <v>221</v>
-      </c>
-      <c r="C7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sources/case/Smoke.xlsx
+++ b/sources/case/Smoke.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="7140" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="7140" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="adjust" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,8 @@
     <sheet name="Out" sheetId="7" r:id="rId5"/>
     <sheet name="Resign" sheetId="8" r:id="rId6"/>
     <sheet name="OverTime" sheetId="9" r:id="rId7"/>
-    <sheet name="Temp" sheetId="4" r:id="rId8"/>
+    <sheet name="Trip" sheetId="10" r:id="rId8"/>
+    <sheet name="Temp" sheetId="4" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -26,22 +27,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2023" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2531" uniqueCount="293">
   <si>
     <t>FilePath</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>API</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Case</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>TransferIn</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -57,11 +58,11 @@
       </rPr>
       <t>.xlsx</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>TransferIn_1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -77,27 +78,27 @@
       </rPr>
       <t>Son</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>EditSon.xlsx</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>EditSon_1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>TransferIn_2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>EditSon_2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Update_direct_report</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -113,7 +114,7 @@
       </rPr>
       <t>.xlsx</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -129,7 +130,7 @@
       </rPr>
       <t>_1</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -211,7 +212,7 @@
   </si>
   <si>
     <t>approvalTypes</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -293,7 +294,7 @@
   </si>
   <si>
     <t>ApprovalTypes.xlsx</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -309,7 +310,7 @@
       </rPr>
       <t>.xlsx</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -325,11 +326,11 @@
       </rPr>
       <t>_1</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>GetInstances</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -345,7 +346,7 @@
       </rPr>
       <t>.xlsx</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -361,7 +362,7 @@
       </rPr>
       <t>_1</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -377,7 +378,7 @@
       </rPr>
       <t>uth</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -393,38 +394,38 @@
       </rPr>
       <t>uth.xlsx</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Auth_11</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Auth_12</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Auth_13</t>
   </si>
   <si>
     <t>houlong</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Auth_15</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>GetInstanceInfo</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Auth_16</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>CancelTransfer</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -440,15 +441,15 @@
       </rPr>
       <t>.xlsx</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>CancelTransfer_1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>GetInstanceInfo</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Approval</t>
@@ -467,31 +468,31 @@
   </si>
   <si>
     <t>Approval</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Approval_reject.xlsx</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>reject</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>reject_7</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>GetInstanceInfo_1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>GetInstanceInfo_2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Approval_3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -507,19 +508,19 @@
       </rPr>
       <t>0-15的员工调入到organization_1部门</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>设置organization_1部门负责人</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>将测试16-20的员工调入到organization_1部门</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>description</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -535,71 +536,71 @@
       </rPr>
       <t>0-》测试11</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：测试11-》测试12</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：测试12-》测试13</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：测试13-》测试15</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：测试15-》测试16</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：测试16-》测试17</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：测试17-》测试18</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：测试18-》测试19</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>编辑调整审理流程</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>获取发起的审批列表</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>获取审批详情</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>切换测试15登录</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>测试15审批通过</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>切换测试16登录</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>测试16审批通过</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>切换侯龙登录</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>侯龙撤回审批</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -626,11 +627,11 @@
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>编辑转正审理流程</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -646,7 +647,7 @@
       </rPr>
       <t>.xlsx</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -662,195 +663,195 @@
       </rPr>
       <t>_1</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>发起转正审批</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Formal</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>GetInstances_2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Approval_1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>测试10发起调整审批(流程1)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>FormalType_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>FormalType_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>adjuctType_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>adjuctType_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Approval_2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Approval_5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Approval_6</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Auth_10</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Auth_12</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Auth_13</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Auth_15</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Auth_16</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Approval_4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Approval_5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Approval_6</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Approval_7</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>切换测试10登录</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>切换测试11登录</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>切换测试12登录</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>切换测试13登录</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>切换测试16登录</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>测试16审批通过</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>测试13审批通过</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>测试12审批通过</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>测试11审批通过</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>测试10审批通过</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Formal_2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：新成员1-》测试10</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：新成员2-》测试10</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Update_direct_report_new2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Update_direct_report_new1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Offboard_resign1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>辞职审理流程</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Adjust</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Adjust.xlsx</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Adjust_1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Adjust_2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Offboard</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Offboard.xlsx</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>GetInstances_3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Offboard_resign2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>切换测试10登录</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Auth_11</t>
@@ -881,19 +882,19 @@
   </si>
   <si>
     <t>Auth_1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>切换测试1登录</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Approval_1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>测试10审批通过</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>测试11审批通过</t>
@@ -921,47 +922,47 @@
   </si>
   <si>
     <t>测试1审批通过</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>发起辞职审批</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Approval_2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>切换测试16登录</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>测试16审批通过</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>测试1审批通过</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>houlong</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>测试1登录</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Auth_16</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Approval_4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Formal_3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Offboard_dismiss1</t>
@@ -971,30 +972,30 @@
   </si>
   <si>
     <t>Offboard_resign_2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Offboard_resign_3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Offboard_dismiss2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Offboard_dismiss_1</t>
   </si>
   <si>
     <t>Offboard_dismiss_2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Offboard_dismiss_3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>发起辞退审批</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Update_direct_report_new3</t>
@@ -1010,63 +1011,63 @@
   </si>
   <si>
     <t>编辑汇报关系：新成员3-》测试10</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：新成员4-》测试10</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：新成员5-》测试10</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：新成员6-》测试10</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>ApprovalTypes.xlsx</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>驳回审批</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>发起调整审批</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Adjust_3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>切换测试1登录</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>测试1审批通过</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>houlong登录</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>houlong审批通过</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Adjust</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Update_direct_report_houlong</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：houlong-》测试10</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1082,15 +1083,15 @@
       </rPr>
       <t>_1</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Auth_13</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>切换测试13登录</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>out_1</t>
@@ -1106,11 +1107,11 @@
   </si>
   <si>
     <t>LeaveRequest</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>LeaveRequest.xlsx</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>LeaveRequest_01</t>
@@ -1123,113 +1124,113 @@
   </si>
   <si>
     <t>发起请假审批</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Approval_1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Approval_4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Approval_6</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Approval_2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Approval_3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Approval_7</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Leave_2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>请假审批流程</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>LeaveRequest_02</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>LeaveRequest_03</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>EditSon_3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>设置organization_3部门负责人</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>TransferIn_3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>将侯龙调入到organization_3部门</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>GetInstances_4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>切换测试11登录</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>LeaveRequest_04</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Auth_17</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Auth_18</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>LeaveRequest_07</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Auth_19</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Leave_3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>OutRequest</t>
   </si>
   <si>
     <t>OutRequest.xlsx</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>OutRequest_01</t>
   </si>
   <si>
     <t>out_2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>out_3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>OutRequest_03</t>
@@ -1242,97 +1243,93 @@
   </si>
   <si>
     <t>OutRequest_02</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>GetInstances_5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Auth_10</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>切换测试16登录</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Auth_15</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Approval_3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Auth_16</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>GetInstances_7</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Auth_13</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Approval_3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>ResignRequest</t>
   </si>
   <si>
     <t>ResignRequest_03</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>ResignRequest_02</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>ResignRequest_03</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>ResignRequest.xlsx</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>resign_2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>OvertimeRequest</t>
   </si>
   <si>
     <t>OvertimeRequest.xlsx</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>GetInstances_6</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>OvertimeRequest_02</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>GetInstances_6</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>overtime_2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>overtime_3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Auth_17</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1348,77 +1345,179 @@
       </rPr>
       <t>uth.xlsx</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Auth_18</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Auth_1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>切换测试1登录</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>加班审批流程</t>
   </si>
   <si>
     <t>加班审批流程</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>加班侯龙登录</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>发起加班审批</t>
   </si>
   <si>
     <t>OvertimeRequest_01</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>overtime_2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Approval_1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>OvertimeRequest_03</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>OvertimeRequest_04</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>OvertimeRequest_05</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Auth_20</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>OvertimeRequest_06</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>外出审批流程</t>
+  </si>
+  <si>
+    <t>发起外出审批</t>
+  </si>
+  <si>
+    <t>补卡审批流程</t>
+  </si>
+  <si>
+    <t>发起补卡审批</t>
+  </si>
+  <si>
+    <t>trip_1</t>
+  </si>
+  <si>
+    <t>GetInstanceInfo_rejected</t>
+  </si>
+  <si>
+    <t>获取审批详情，验证审批状态</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetInstanceInfo_cancelled</t>
+  </si>
+  <si>
+    <t>GetInstanceInfo_approved</t>
+  </si>
+  <si>
+    <t>trip_3</t>
+  </si>
+  <si>
+    <t>trip_3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TripRequest</t>
+  </si>
+  <si>
+    <t>TripRequest.xlsx</t>
+  </si>
+  <si>
+    <t>TripRequest_01</t>
+  </si>
+  <si>
+    <t>TripRequest_02</t>
+  </si>
+  <si>
+    <t>trip_2</t>
+  </si>
+  <si>
+    <t>切换测试17登录</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TripRequest_03</t>
+  </si>
+  <si>
+    <t>TripRequest_04</t>
+  </si>
+  <si>
+    <t>TripRequest_05</t>
+  </si>
+  <si>
+    <t>TripRequest_06</t>
+  </si>
+  <si>
+    <t>TripRequest_07</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetInstances_8</t>
+  </si>
+  <si>
+    <t>出差审批流程</t>
+  </si>
+  <si>
+    <t>发起出差审批</t>
+  </si>
+  <si>
+    <t>出差侯龙登录</t>
+  </si>
+  <si>
+    <t>切换测试20登录</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1506,87 +1605,102 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="9"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="11">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="常规 3" xfId="1"/>
@@ -1597,6 +1711,7 @@
     <cellStyle name="常规 6" xfId="6"/>
     <cellStyle name="常规 7" xfId="7"/>
     <cellStyle name="常规 8" xfId="9"/>
+    <cellStyle name="常规 9" xfId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1874,10 +1989,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64:XFD64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2442,225 +2557,225 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
+      <c r="A41" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>85</v>
+        <v>28</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>118</v>
+        <v>21</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>175</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>65</v>
+        <v>175</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C51" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="2"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>273</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>71</v>
+        <v>272</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>175</v>
-      </c>
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="2"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>184</v>
+        <v>32</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>49</v>
+        <v>176</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>66</v>
+        <v>175</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>186</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -2671,10 +2786,10 @@
         <v>28</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>133</v>
+        <v>185</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -2685,10 +2800,10 @@
         <v>41</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>178</v>
+        <v>104</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -2699,28 +2814,70 @@
         <v>28</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>32</v>
+        <v>133</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C61" s="2" t="s">
+      <c r="B63" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D63" s="2" t="s">
         <v>180</v>
       </c>
     </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2728,10 +2885,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63:XFD63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3282,225 +3439,225 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
+      <c r="A40" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>83</v>
+        <v>28</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>108</v>
+        <v>21</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>148</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>147</v>
+        <v>35</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C49" s="2" t="s">
+      <c r="B50" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>151</v>
+        <v>25</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>274</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>71</v>
+        <v>272</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>26</v>
+        <v>155</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>147</v>
+        <v>26</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -3511,10 +3668,10 @@
         <v>28</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>153</v>
+        <v>33</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>148</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -3525,10 +3682,10 @@
         <v>41</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>51</v>
+        <v>147</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>149</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -3539,28 +3696,70 @@
         <v>28</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C60" s="2" t="s">
+      <c r="B62" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D62" s="2" t="s">
         <v>150</v>
       </c>
     </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3568,10 +3767,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D106"/>
+  <dimension ref="A1:D112"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A112" sqref="A112:XFD112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4120,226 +4319,226 @@
         <v>145</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-    </row>
-    <row r="41" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C41" s="2" t="s">
+    <row r="40" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C44" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>146</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>26</v>
+        <v>121</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>148</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>147</v>
+        <v>35</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C49" s="2" t="s">
+      <c r="B50" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
     </row>
     <row r="51" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>274</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>146</v>
-      </c>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
     </row>
     <row r="53" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>26</v>
+        <v>120</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>159</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>66</v>
+        <v>146</v>
       </c>
     </row>
     <row r="55" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>33</v>
+        <v>121</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>147</v>
+        <v>26</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4350,10 +4549,10 @@
         <v>28</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>153</v>
+        <v>33</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>148</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4364,10 +4563,10 @@
         <v>41</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>51</v>
+        <v>147</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>149</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4378,365 +4577,373 @@
         <v>28</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
     </row>
     <row r="60" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C60" s="2" t="s">
+      <c r="B62" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D62" s="2" t="s">
         <v>150</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="63" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>5</v>
+        <v>25</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>274</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>52</v>
+        <v>272</v>
       </c>
     </row>
     <row r="64" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B67" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C67" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="67" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
+    <row r="70" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B71" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C71" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D71" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B72" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C72" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D72" s="2" t="s">
         <v>164</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="73" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="C73" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D76" s="2" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>129</v>
+        <v>42</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>140</v>
+        <v>31</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
+      <c r="A86" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="87" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
@@ -4746,170 +4953,170 @@
         <v>28</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>32</v>
+        <v>133</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>71</v>
+        <v>134</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>160</v>
+        <v>41</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>119</v>
+        <v>34</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>162</v>
+        <v>25</v>
+      </c>
+      <c r="C89" s="24" t="s">
+        <v>274</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>65</v>
-      </c>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
     </row>
     <row r="91" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>160</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>147</v>
+        <v>120</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>162</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
     </row>
     <row r="94" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>134</v>
+        <v>65</v>
       </c>
     </row>
     <row r="95" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>150</v>
+        <v>66</v>
       </c>
     </row>
     <row r="96" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="2"/>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
+      <c r="A96" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="97" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>32</v>
+        <v>147</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>119</v>
+        <v>27</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>163</v>
+        <v>28</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
     </row>
     <row r="99" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>65</v>
+        <v>150</v>
       </c>
     </row>
     <row r="100" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4919,99 +5126,175 @@
       <c r="B100" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>26</v>
+      <c r="C100" s="24" t="s">
+        <v>274</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>66</v>
+        <v>272</v>
       </c>
     </row>
     <row r="101" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>67</v>
-      </c>
+      <c r="A101" s="2"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
     </row>
     <row r="102" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>147</v>
+        <v>32</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>153</v>
+        <v>120</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>163</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="104" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>149</v>
+        <v>65</v>
       </c>
     </row>
     <row r="105" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>133</v>
+        <v>26</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>134</v>
+        <v>66</v>
       </c>
     </row>
     <row r="106" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C106" s="2" t="s">
+      <c r="B111" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C111" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="D111" s="2" t="s">
         <v>150</v>
       </c>
     </row>
+    <row r="112" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C112" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5019,10 +5302,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D93"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100:XFD100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5487,505 +5770,505 @@
         <v>145</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
+    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" s="2" t="s">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>191</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B39" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C39" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>196</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>200</v>
+        <v>129</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>131</v>
+        <v>200</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C44" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="45" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C45" s="2" t="s">
+    <row r="46" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C46" s="2" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C48" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
+    <row r="51" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>210</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>191</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="52" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>26</v>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>191</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>206</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>66</v>
+        <v>196</v>
       </c>
     </row>
     <row r="54" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C54" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>71</v>
+        <v>145</v>
       </c>
     </row>
     <row r="58" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C58" s="13" t="s">
-        <v>218</v>
+        <v>25</v>
+      </c>
+      <c r="C58" s="24" t="s">
+        <v>274</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>204</v>
+        <v>272</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>191</v>
-      </c>
-      <c r="B60" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>213</v>
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>196</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>191</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B64" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C64" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D64" s="2" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="65" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>133</v>
+        <v>26</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>134</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C66" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>145</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>191</v>
-      </c>
-      <c r="B69" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="C69" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="70" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>211</v>
+        <v>25</v>
+      </c>
+      <c r="C70" s="24" t="s">
+        <v>274</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>66</v>
-      </c>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
@@ -5995,72 +6278,80 @@
         <v>28</v>
       </c>
       <c r="C72" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>191</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D76" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C73" s="2" t="s">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D77" s="2" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>191</v>
-      </c>
-      <c r="B76" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="C76" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="78" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6070,74 +6361,74 @@
       <c r="B78" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>26</v>
+      <c r="C78" s="24" t="s">
+        <v>274</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>66</v>
+        <v>272</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>130</v>
-      </c>
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>129</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>191</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>195</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
@@ -6147,81 +6438,73 @@
         <v>28</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>217</v>
+        <v>35</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>191</v>
-      </c>
-      <c r="B85" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="C85" s="12" t="s">
-        <v>216</v>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>211</v>
+        <v>129</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B88" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>35</v>
+      <c r="C88" s="24" t="s">
+        <v>274</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>130</v>
+        <v>272</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>142</v>
-      </c>
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
@@ -6231,66 +6514,164 @@
         <v>28</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>129</v>
+        <v>217</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>201</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>191</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>216</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>142</v>
+        <v>196</v>
       </c>
     </row>
     <row r="92" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C92" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C98" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D98" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C93" s="2" t="s">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C99" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="D99" s="2" t="s">
         <v>145</v>
       </c>
     </row>
+    <row r="100" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C100" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection sqref="A1:D55"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82:XFD82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6514,7 +6895,7 @@
         <v>187</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>204</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6542,7 +6923,7 @@
         <v>221</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>196</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6755,592 +7136,662 @@
         <v>145</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
+    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" s="2" t="s">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>219</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>220</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>227</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>228</v>
-      </c>
       <c r="D39" s="2" t="s">
-        <v>65</v>
+        <v>267</v>
       </c>
     </row>
     <row r="40" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>200</v>
+        <v>129</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>131</v>
+        <v>200</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C44" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="45" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C45" s="2" t="s">
+    <row r="46" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C46" s="2" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C48" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
+    <row r="51" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C51" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>219</v>
-      </c>
-      <c r="B51" t="s">
-        <v>220</v>
-      </c>
-      <c r="C51" t="s">
-        <v>224</v>
-      </c>
       <c r="D51" s="2" t="s">
-        <v>196</v>
+        <v>266</v>
       </c>
     </row>
     <row r="52" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>219</v>
+      </c>
+      <c r="B53" t="s">
+        <v>220</v>
+      </c>
+      <c r="C53" t="s">
+        <v>224</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B54" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
+    <row r="55" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B55" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C54" s="2" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>71</v>
+        <v>142</v>
       </c>
     </row>
     <row r="58" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>223</v>
+        <v>25</v>
+      </c>
+      <c r="C58" s="24" t="s">
+        <v>274</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>67</v>
-      </c>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>219</v>
-      </c>
-      <c r="B60" t="s">
-        <v>220</v>
-      </c>
-      <c r="C60" t="s">
-        <v>225</v>
+      <c r="A60" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>196</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>228</v>
+        <v>21</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>223</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>65</v>
+        <v>266</v>
       </c>
     </row>
     <row r="62" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>219</v>
+      </c>
+      <c r="B63" t="s">
+        <v>220</v>
+      </c>
+      <c r="C63" t="s">
+        <v>225</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B65" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C65" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D65" s="2" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>232</v>
+        <v>131</v>
       </c>
       <c r="D66" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>144</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C68" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D71" s="2" t="s">
         <v>145</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C71" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="72" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>215</v>
+        <v>25</v>
+      </c>
+      <c r="C72" s="24" t="s">
+        <v>274</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>212</v>
+        <v>272</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>219</v>
-      </c>
-      <c r="B73" t="s">
-        <v>220</v>
-      </c>
-      <c r="C73" t="s">
-        <v>226</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>228</v>
+        <v>32</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>219</v>
+      </c>
+      <c r="B77" t="s">
+        <v>220</v>
+      </c>
+      <c r="C77" t="s">
+        <v>226</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B79" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C79" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D79" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C76" s="2" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D80" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C77" s="2" t="s">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D81" s="2" t="s">
         <v>142</v>
       </c>
     </row>
+    <row r="82" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C82" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7348,10 +7799,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD47"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59:XFD59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7589,7 +8040,7 @@
         <v>190</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>204</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -7617,7 +8068,7 @@
         <v>240</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>196</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -7830,268 +8281,268 @@
         <v>145</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
+    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>242</v>
+        <v>28</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>204</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="18" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B40" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C40" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>234</v>
-      </c>
       <c r="D40" s="2" t="s">
-        <v>65</v>
+        <v>269</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>26</v>
+        <v>234</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>129</v>
+        <v>26</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>130</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>133</v>
+        <v>51</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C47" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>274</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>71</v>
+        <v>272</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="B50" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="C50" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>196</v>
-      </c>
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>234</v>
+        <v>32</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>26</v>
+      <c r="A52" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>238</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>66</v>
+        <v>269</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>142</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -8102,10 +8553,10 @@
         <v>28</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>133</v>
+        <v>235</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -8116,24 +8567,66 @@
         <v>41</v>
       </c>
       <c r="C56" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>145</v>
       </c>
     </row>
+    <row r="59" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:XFD91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8367,11 +8860,11 @@
       <c r="B17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="19" t="s">
         <v>188</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -8396,10 +8889,10 @@
         <v>244</v>
       </c>
       <c r="C19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -8612,213 +9105,213 @@
         <v>145</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
+    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>260</v>
+        <v>28</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>256</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>243</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>244</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>246</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>247</v>
-      </c>
       <c r="D40" s="2" t="s">
-        <v>65</v>
+        <v>257</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>26</v>
+        <v>247</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>129</v>
+        <v>26</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>130</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>261</v>
+        <v>129</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>131</v>
+        <v>260</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C47" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>274</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C50" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>255</v>
-      </c>
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
@@ -8828,476 +9321,1941 @@
         <v>28</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>250</v>
+        <v>32</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>99</v>
+        <v>256</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>243</v>
-      </c>
-      <c r="B52" t="s">
-        <v>244</v>
-      </c>
-      <c r="C52" t="s">
-        <v>262</v>
+      <c r="A52" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>248</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>26</v>
+      <c r="A54" t="s">
+        <v>243</v>
+      </c>
+      <c r="B54" t="s">
+        <v>244</v>
+      </c>
+      <c r="C54" t="s">
+        <v>261</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>66</v>
+        <v>257</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>251</v>
+        <v>22</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>131</v>
+        <v>247</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>132</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>144</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
+      <c r="A57" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>252</v>
+        <v>80</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>243</v>
-      </c>
-      <c r="B59" t="s">
-        <v>244</v>
-      </c>
-      <c r="C59" t="s">
-        <v>263</v>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" s="24" t="s">
+        <v>274</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>26</v>
+        <v>251</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>35</v>
+      <c r="A62" t="s">
+        <v>243</v>
+      </c>
+      <c r="B62" t="s">
+        <v>244</v>
+      </c>
+      <c r="C62" t="s">
+        <v>262</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>132</v>
+        <v>257</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>80</v>
+        <v>247</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>144</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>251</v>
+        <v>25</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>41</v>
+        <v>250</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
+      <c r="A66" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>28</v>
+        <v>250</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>217</v>
+        <v>33</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>243</v>
-      </c>
-      <c r="B68" t="s">
-        <v>244</v>
-      </c>
-      <c r="C68" t="s">
-        <v>264</v>
+      <c r="A68" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>247</v>
+        <v>25</v>
+      </c>
+      <c r="C69" s="24" t="s">
+        <v>274</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>65</v>
+        <v>272</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>251</v>
+        <v>28</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>35</v>
+        <v>217</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>80</v>
+      <c r="A72" t="s">
+        <v>243</v>
+      </c>
+      <c r="B72" t="s">
+        <v>244</v>
+      </c>
+      <c r="C72" t="s">
+        <v>263</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>144</v>
+        <v>257</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>251</v>
+        <v>22</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>33</v>
+        <v>247</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
+      <c r="A75" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>265</v>
+        <v>80</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>99</v>
+        <v>144</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>243</v>
-      </c>
-      <c r="B77" t="s">
-        <v>244</v>
-      </c>
-      <c r="C77" t="s">
-        <v>266</v>
+      <c r="A77" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>258</v>
+        <v>67</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>247</v>
+        <v>86</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>26</v>
+      <c r="C79" s="24" t="s">
+        <v>274</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>66</v>
+        <v>272</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>132</v>
-      </c>
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>80</v>
+        <v>264</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>144</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>33</v>
+      <c r="A82" t="s">
+        <v>243</v>
+      </c>
+      <c r="B82" t="s">
+        <v>244</v>
+      </c>
+      <c r="C82" t="s">
+        <v>265</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>67</v>
+        <v>257</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>86</v>
+        <v>247</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>251</v>
+        <v>25</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>253</v>
+        <v>26</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>254</v>
+        <v>66</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>41</v>
+        <v>250</v>
       </c>
       <c r="C85" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="D90" s="2" t="s">
         <v>145</v>
       </c>
     </row>
+    <row r="91" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C91" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>277</v>
+      </c>
+      <c r="B19" t="s">
+        <v>278</v>
+      </c>
+      <c r="C19" t="s">
+        <v>279</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>277</v>
+      </c>
+      <c r="B40" t="s">
+        <v>278</v>
+      </c>
+      <c r="C40" t="s">
+        <v>280</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>277</v>
+      </c>
+      <c r="B54" t="s">
+        <v>278</v>
+      </c>
+      <c r="C54" t="s">
+        <v>283</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>277</v>
+      </c>
+      <c r="B62" t="s">
+        <v>278</v>
+      </c>
+      <c r="C62" t="s">
+        <v>284</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>277</v>
+      </c>
+      <c r="B70" t="s">
+        <v>278</v>
+      </c>
+      <c r="C70" t="s">
+        <v>285</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C77" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="2"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>277</v>
+      </c>
+      <c r="B80" t="s">
+        <v>278</v>
+      </c>
+      <c r="C80" t="s">
+        <v>286</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C89" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="2"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>277</v>
+      </c>
+      <c r="B92" t="s">
+        <v>278</v>
+      </c>
+      <c r="C92" t="s">
+        <v>287</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C101" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9329,12 +11287,12 @@
       <c r="B2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>248</v>
+      <c r="C2" s="21" t="s">
+        <v>276</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sources/case/Smoke.xlsx
+++ b/sources/case/Smoke.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="7140" activeTab="7"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="14790" windowHeight="7140" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="adjust" sheetId="1" r:id="rId1"/>
@@ -30,19 +30,19 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2531" uniqueCount="293">
   <si>
     <t>FilePath</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>API</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Case</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>TransferIn</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -58,11 +58,11 @@
       </rPr>
       <t>.xlsx</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>TransferIn_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -78,27 +78,27 @@
       </rPr>
       <t>Son</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>EditSon.xlsx</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>EditSon_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>TransferIn_2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>EditSon_2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Update_direct_report</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -114,7 +114,7 @@
       </rPr>
       <t>.xlsx</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -130,7 +130,7 @@
       </rPr>
       <t>_1</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -212,7 +212,7 @@
   </si>
   <si>
     <t>approvalTypes</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -294,7 +294,7 @@
   </si>
   <si>
     <t>ApprovalTypes.xlsx</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -310,7 +310,7 @@
       </rPr>
       <t>.xlsx</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -326,11 +326,11 @@
       </rPr>
       <t>_1</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>GetInstances</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -346,7 +346,7 @@
       </rPr>
       <t>.xlsx</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -362,7 +362,7 @@
       </rPr>
       <t>_1</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -378,7 +378,7 @@
       </rPr>
       <t>uth</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -394,38 +394,38 @@
       </rPr>
       <t>uth.xlsx</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Auth_11</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Auth_12</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Auth_13</t>
   </si>
   <si>
     <t>houlong</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Auth_15</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>GetInstanceInfo</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Auth_16</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>CancelTransfer</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -441,15 +441,15 @@
       </rPr>
       <t>.xlsx</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>CancelTransfer_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>GetInstanceInfo</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Approval</t>
@@ -468,31 +468,31 @@
   </si>
   <si>
     <t>Approval</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Approval_reject.xlsx</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>reject</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>reject_7</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>GetInstanceInfo_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>GetInstanceInfo_2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Approval_3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -508,19 +508,19 @@
       </rPr>
       <t>0-15的员工调入到organization_1部门</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>设置organization_1部门负责人</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>将测试16-20的员工调入到organization_1部门</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>description</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -536,71 +536,71 @@
       </rPr>
       <t>0-》测试11</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：测试11-》测试12</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：测试12-》测试13</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：测试13-》测试15</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：测试15-》测试16</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：测试16-》测试17</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：测试17-》测试18</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：测试18-》测试19</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>编辑调整审理流程</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>获取发起的审批列表</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>获取审批详情</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>切换测试15登录</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>测试15审批通过</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>切换测试16登录</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>测试16审批通过</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>切换侯龙登录</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>侯龙撤回审批</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -627,11 +627,11 @@
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>编辑转正审理流程</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -647,7 +647,7 @@
       </rPr>
       <t>.xlsx</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -663,195 +663,195 @@
       </rPr>
       <t>_1</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>发起转正审批</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Formal</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>GetInstances_2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Approval_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>测试10发起调整审批(流程1)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>FormalType_1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>FormalType_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>adjuctType_1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>adjuctType_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Approval_2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Approval_5</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Approval_6</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Auth_10</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Auth_12</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Auth_13</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Auth_15</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Auth_16</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Approval_4</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Approval_5</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Approval_6</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Approval_7</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>切换测试10登录</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>切换测试11登录</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>切换测试12登录</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>切换测试13登录</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>切换测试16登录</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>测试16审批通过</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>测试13审批通过</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>测试12审批通过</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>测试11审批通过</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>测试10审批通过</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Formal_2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：新成员1-》测试10</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：新成员2-》测试10</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Update_direct_report_new2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Update_direct_report_new1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Offboard_resign1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>辞职审理流程</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Adjust</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Adjust.xlsx</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Adjust_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Adjust_2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Offboard</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Offboard.xlsx</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>GetInstances_3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Offboard_resign2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>切换测试10登录</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Auth_11</t>
@@ -882,19 +882,19 @@
   </si>
   <si>
     <t>Auth_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>切换测试1登录</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Approval_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>测试10审批通过</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>测试11审批通过</t>
@@ -922,47 +922,47 @@
   </si>
   <si>
     <t>测试1审批通过</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>发起辞职审批</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Approval_2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>切换测试16登录</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>测试16审批通过</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>测试1审批通过</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>houlong</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>测试1登录</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Auth_16</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Approval_4</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Formal_3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Offboard_dismiss1</t>
@@ -972,30 +972,30 @@
   </si>
   <si>
     <t>Offboard_resign_2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Offboard_resign_3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Offboard_dismiss2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Offboard_dismiss_1</t>
   </si>
   <si>
     <t>Offboard_dismiss_2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Offboard_dismiss_3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>发起辞退审批</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Update_direct_report_new3</t>
@@ -1011,63 +1011,63 @@
   </si>
   <si>
     <t>编辑汇报关系：新成员3-》测试10</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：新成员4-》测试10</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：新成员5-》测试10</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：新成员6-》测试10</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>ApprovalTypes.xlsx</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>驳回审批</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>发起调整审批</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Adjust_3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>切换测试1登录</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>测试1审批通过</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>houlong登录</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>houlong审批通过</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Adjust</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Update_direct_report_houlong</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：houlong-》测试10</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1083,15 +1083,15 @@
       </rPr>
       <t>_1</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Auth_13</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>切换测试13登录</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>out_1</t>
@@ -1107,11 +1107,11 @@
   </si>
   <si>
     <t>LeaveRequest</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>LeaveRequest.xlsx</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>LeaveRequest_01</t>
@@ -1124,113 +1124,113 @@
   </si>
   <si>
     <t>发起请假审批</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Approval_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Approval_4</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Approval_6</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Approval_2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Approval_3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Approval_7</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Leave_2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>请假审批流程</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>LeaveRequest_02</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>LeaveRequest_03</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>EditSon_3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>设置organization_3部门负责人</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>TransferIn_3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>将侯龙调入到organization_3部门</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>GetInstances_4</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>切换测试11登录</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>LeaveRequest_04</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Auth_17</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Auth_18</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>LeaveRequest_07</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Auth_19</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Leave_3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>OutRequest</t>
   </si>
   <si>
     <t>OutRequest.xlsx</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>OutRequest_01</t>
   </si>
   <si>
     <t>out_2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>out_3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>OutRequest_03</t>
@@ -1243,93 +1243,93 @@
   </si>
   <si>
     <t>OutRequest_02</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>GetInstances_5</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Auth_10</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>切换测试16登录</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Auth_15</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Approval_3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Auth_16</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>GetInstances_7</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Auth_13</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Approval_3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>ResignRequest</t>
   </si>
   <si>
     <t>ResignRequest_03</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>ResignRequest_02</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>ResignRequest_03</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>ResignRequest.xlsx</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>resign_2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>OvertimeRequest</t>
   </si>
   <si>
     <t>OvertimeRequest.xlsx</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>GetInstances_6</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>OvertimeRequest_02</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>GetInstances_6</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>overtime_3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Auth_17</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1345,65 +1345,65 @@
       </rPr>
       <t>uth.xlsx</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Auth_18</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Auth_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>切换测试1登录</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>加班审批流程</t>
   </si>
   <si>
     <t>加班审批流程</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>加班侯龙登录</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>发起加班审批</t>
   </si>
   <si>
     <t>OvertimeRequest_01</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>overtime_2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Approval_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>OvertimeRequest_03</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>OvertimeRequest_04</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>OvertimeRequest_05</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Auth_20</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>OvertimeRequest_06</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>外出审批流程</t>
@@ -1425,7 +1425,7 @@
   </si>
   <si>
     <t>获取审批详情，验证审批状态</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>GetInstanceInfo_cancelled</t>
@@ -1438,7 +1438,7 @@
   </si>
   <si>
     <t>trip_3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>TripRequest</t>
@@ -1447,61 +1447,71 @@
     <t>TripRequest.xlsx</t>
   </si>
   <si>
+    <t>TripRequest_02</t>
+  </si>
+  <si>
+    <t>切换测试17登录</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>TripRequest_03</t>
+  </si>
+  <si>
+    <t>TripRequest_04</t>
+  </si>
+  <si>
+    <t>TripRequest_05</t>
+  </si>
+  <si>
+    <t>TripRequest_06</t>
+  </si>
+  <si>
+    <t>TripRequest_07</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetInstances_8</t>
+  </si>
+  <si>
+    <t>出差审批流程</t>
+  </si>
+  <si>
+    <t>发起出差审批</t>
+  </si>
+  <si>
+    <t>出差侯龙登录</t>
+  </si>
+  <si>
+    <t>切换测试20登录</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>TripRequest_01</t>
-  </si>
-  <si>
-    <t>TripRequest_02</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>trip_2</t>
-  </si>
-  <si>
-    <t>切换测试17登录</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>TripRequest_03</t>
-  </si>
-  <si>
-    <t>TripRequest_04</t>
-  </si>
-  <si>
-    <t>TripRequest_05</t>
-  </si>
-  <si>
-    <t>TripRequest_06</t>
-  </si>
-  <si>
-    <t>TripRequest_07</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetInstances_8</t>
-  </si>
-  <si>
-    <t>出差审批流程</t>
-  </si>
-  <si>
-    <t>发起出差审批</t>
-  </si>
-  <si>
-    <t>出差侯龙登录</t>
-  </si>
-  <si>
-    <t>切换测试20登录</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1607,93 +1617,96 @@
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="9"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyFont="1">
@@ -2877,7 +2890,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3759,7 +3772,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5294,7 +5307,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6661,7 +6674,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7791,7 +7804,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8616,7 +8629,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9864,7 +9877,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9873,8 +9886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10112,7 +10125,7 @@
         <v>270</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -10137,10 +10150,10 @@
         <v>278</v>
       </c>
       <c r="C19" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -10151,7 +10164,7 @@
         <v>22</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>65</v>
@@ -10394,11 +10407,11 @@
       <c r="B38" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="20" t="s">
-        <v>281</v>
+      <c r="C38" s="26" t="s">
+        <v>292</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -10423,10 +10436,10 @@
         <v>278</v>
       </c>
       <c r="C40" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -10437,7 +10450,7 @@
         <v>22</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>65</v>
@@ -10572,7 +10585,7 @@
         <v>32</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -10586,7 +10599,7 @@
         <v>275</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -10600,7 +10613,7 @@
         <v>214</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -10611,10 +10624,10 @@
         <v>278</v>
       </c>
       <c r="C54" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -10625,7 +10638,7 @@
         <v>22</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>65</v>
@@ -10715,10 +10728,10 @@
         <v>278</v>
       </c>
       <c r="C62" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -10729,7 +10742,7 @@
         <v>22</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>65</v>
@@ -10819,10 +10832,10 @@
         <v>278</v>
       </c>
       <c r="C70" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -10833,7 +10846,7 @@
         <v>22</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>65</v>
@@ -10940,7 +10953,7 @@
         <v>264</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -10951,10 +10964,10 @@
         <v>278</v>
       </c>
       <c r="C80" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -10965,7 +10978,7 @@
         <v>22</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>65</v>
@@ -11100,7 +11113,7 @@
         <v>264</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -11111,10 +11124,10 @@
         <v>278</v>
       </c>
       <c r="C92" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -11125,7 +11138,7 @@
         <v>22</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>65</v>
@@ -11244,7 +11257,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -11292,7 +11305,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sources/case/Smoke.xlsx
+++ b/sources/case/Smoke.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="7140"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="7140" firstSheet="7" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="adjust" sheetId="1" r:id="rId1"/>
@@ -34,19 +34,19 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3419" uniqueCount="382">
   <si>
     <t>FilePath</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>API</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Case</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>TransferIn</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -62,11 +62,11 @@
       </rPr>
       <t>.xlsx</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>TransferIn_1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -82,27 +82,27 @@
       </rPr>
       <t>Son</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>EditSon.xlsx</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>EditSon_1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>TransferIn_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>EditSon_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Update_direct_report</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -118,7 +118,7 @@
       </rPr>
       <t>.xlsx</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -134,7 +134,7 @@
       </rPr>
       <t>_1</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -216,7 +216,7 @@
   </si>
   <si>
     <t>approvalTypes</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -298,7 +298,7 @@
   </si>
   <si>
     <t>ApprovalTypes.xlsx</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -314,7 +314,7 @@
       </rPr>
       <t>.xlsx</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -330,11 +330,11 @@
       </rPr>
       <t>_1</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>GetInstances</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -350,7 +350,7 @@
       </rPr>
       <t>.xlsx</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -366,7 +366,7 @@
       </rPr>
       <t>_1</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -382,7 +382,7 @@
       </rPr>
       <t>uth</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -398,38 +398,38 @@
       </rPr>
       <t>uth.xlsx</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Auth_11</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Auth_12</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Auth_13</t>
   </si>
   <si>
     <t>houlong</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Auth_15</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>GetInstanceInfo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Auth_16</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>CancelTransfer</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -445,15 +445,15 @@
       </rPr>
       <t>.xlsx</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>CancelTransfer_1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>GetInstanceInfo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Approval</t>
@@ -472,27 +472,27 @@
   </si>
   <si>
     <t>Approval</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Approval_reject.xlsx</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>reject</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>reject_7</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>GetInstanceInfo_1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Approval_3</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -508,19 +508,19 @@
       </rPr>
       <t>0-15的员工调入到organization_1部门</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>设置organization_1部门负责人</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>将测试16-20的员工调入到organization_1部门</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>description</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -536,71 +536,71 @@
       </rPr>
       <t>0-》测试11</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：测试11-》测试12</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：测试12-》测试13</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：测试13-》测试15</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：测试15-》测试16</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：测试16-》测试17</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：测试17-》测试18</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：测试18-》测试19</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>编辑调整审理流程</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>获取发起的审批列表</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>获取审批详情</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>切换测试15登录</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>测试15审批通过</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>切换测试16登录</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>测试16审批通过</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>切换侯龙登录</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>侯龙撤回审批</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -627,11 +627,11 @@
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>编辑转正审理流程</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -647,7 +647,7 @@
       </rPr>
       <t>.xlsx</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -663,195 +663,195 @@
       </rPr>
       <t>_1</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>发起转正审批</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Formal</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>GetInstances_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Approval_1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>测试10发起调整审批(流程1)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>FormalType_1</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>FormalType_2</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>adjuctType_1</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>adjuctType_2</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Approval_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Approval_5</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Approval_6</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Auth_10</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Auth_12</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Auth_13</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Auth_15</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Auth_16</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Approval_4</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Approval_5</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Approval_6</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Approval_7</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>切换测试10登录</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>切换测试11登录</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>切换测试12登录</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>切换测试13登录</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>切换测试16登录</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>测试16审批通过</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>测试13审批通过</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>测试12审批通过</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>测试11审批通过</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>测试10审批通过</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Formal_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：新成员1-》测试10</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：新成员2-》测试10</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Update_direct_report_new2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Update_direct_report_new1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Offboard_resign1</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>辞职审理流程</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Adjust</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Adjust.xlsx</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Adjust_1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Adjust_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Offboard</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Offboard.xlsx</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>GetInstances_3</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Offboard_resign2</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>切换测试10登录</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Auth_11</t>
@@ -882,19 +882,19 @@
   </si>
   <si>
     <t>Auth_1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>切换测试1登录</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Approval_1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>测试10审批通过</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>测试11审批通过</t>
@@ -922,47 +922,47 @@
   </si>
   <si>
     <t>测试1审批通过</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>发起辞职审批</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Approval_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>切换测试16登录</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>测试16审批通过</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>测试1审批通过</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>houlong</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>测试1登录</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Auth_16</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Approval_4</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Formal_3</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Offboard_dismiss1</t>
@@ -972,30 +972,30 @@
   </si>
   <si>
     <t>Offboard_resign_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Offboard_resign_3</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Offboard_dismiss2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Offboard_dismiss_1</t>
   </si>
   <si>
     <t>Offboard_dismiss_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Offboard_dismiss_3</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>发起辞退审批</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Update_direct_report_new3</t>
@@ -1011,63 +1011,63 @@
   </si>
   <si>
     <t>编辑汇报关系：新成员3-》测试10</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：新成员4-》测试10</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：新成员5-》测试10</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：新成员6-》测试10</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>ApprovalTypes.xlsx</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>驳回审批</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>发起调整审批</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Adjust_3</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>切换测试1登录</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>测试1审批通过</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>houlong登录</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>houlong审批通过</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Adjust</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Update_direct_report_houlong</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：houlong-》测试10</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1083,15 +1083,15 @@
       </rPr>
       <t>_1</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Auth_13</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>切换测试13登录</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>out_1</t>
@@ -1107,11 +1107,11 @@
   </si>
   <si>
     <t>LeaveRequest</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>LeaveRequest.xlsx</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>LeaveRequest_01</t>
@@ -1124,113 +1124,113 @@
   </si>
   <si>
     <t>发起请假审批</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Approval_1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Approval_4</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Approval_6</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Approval_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Approval_3</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Approval_7</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Leave_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>请假审批流程</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>LeaveRequest_02</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>LeaveRequest_03</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>EditSon_3</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>设置organization_3部门负责人</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>TransferIn_3</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>将侯龙调入到organization_3部门</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>GetInstances_4</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>切换测试11登录</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>LeaveRequest_04</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Auth_17</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Auth_18</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>LeaveRequest_07</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Auth_19</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Leave_3</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>OutRequest</t>
   </si>
   <si>
     <t>OutRequest.xlsx</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>OutRequest_01</t>
   </si>
   <si>
     <t>out_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>out_3</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>OutRequest_03</t>
@@ -1243,93 +1243,93 @@
   </si>
   <si>
     <t>OutRequest_02</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>GetInstances_5</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Auth_10</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>切换测试16登录</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Auth_15</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Approval_3</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Auth_16</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>GetInstances_7</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Auth_13</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Approval_3</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>ResignRequest</t>
   </si>
   <si>
     <t>ResignRequest_03</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>ResignRequest_02</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>ResignRequest_03</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>ResignRequest.xlsx</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>resign_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>OvertimeRequest</t>
   </si>
   <si>
     <t>OvertimeRequest.xlsx</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>GetInstances_6</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>OvertimeRequest_02</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>GetInstances_6</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>overtime_3</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Auth_17</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1345,65 +1345,65 @@
       </rPr>
       <t>uth.xlsx</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Auth_18</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Auth_1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>切换测试1登录</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>加班审批流程</t>
   </si>
   <si>
     <t>加班审批流程</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>加班侯龙登录</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>发起加班审批</t>
   </si>
   <si>
     <t>OvertimeRequest_01</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>overtime_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Approval_1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>OvertimeRequest_03</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>OvertimeRequest_04</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>OvertimeRequest_05</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Auth_20</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>OvertimeRequest_06</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>外出审批流程</t>
@@ -1425,7 +1425,7 @@
   </si>
   <si>
     <t>获取审批详情，验证审批状态</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>GetInstanceInfo_cancelled</t>
@@ -1447,7 +1447,7 @@
   </si>
   <si>
     <t>切换测试17登录</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>TripRequest_03</t>
@@ -1463,7 +1463,7 @@
   </si>
   <si>
     <t>TripRequest_07</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>GetInstances_8</t>
@@ -1479,15 +1479,15 @@
   </si>
   <si>
     <t>切换测试20登录</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>TripRequest_01</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>trip_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>API</t>
@@ -2043,24 +2043,31 @@
     <t>GetInstances_12</t>
   </si>
   <si>
-    <t>adjuctType_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>Approval_3</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>overtime_3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2188,39 +2195,42 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="16">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
@@ -2232,106 +2242,107 @@
   </cellStyleXfs>
   <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="9"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="9"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="14" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="14" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="14" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="14" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="15">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="16">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="16">
+  <cellStyles count="17">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 10" xfId="15"/>
+    <cellStyle name="常规 11" xfId="16"/>
     <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="常规 3" xfId="1"/>
     <cellStyle name="常规 3 2" xfId="4"/>
@@ -2625,7 +2636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
@@ -3462,7 +3473,7 @@
         <v>41</v>
       </c>
       <c r="C61" s="43" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D61" s="43" t="s">
         <v>179</v>
@@ -3539,7 +3550,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4350,7 +4361,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5160,7 +5171,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5970,7 +5981,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5979,8 +5990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6013,11 +6024,11 @@
         <v>21</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6898,7 +6909,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8433,7 +8444,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -9800,7 +9811,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10930,7 +10941,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -11755,7 +11766,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -13003,7 +13014,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -14383,7 +14394,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -15194,7 +15205,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/sources/case/Smoke.xlsx
+++ b/sources/case/Smoke.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="7140" firstSheet="7" activeTab="12"/>
   </bookViews>
@@ -19,7 +19,8 @@
     <sheet name="General" sheetId="12" r:id="rId10"/>
     <sheet name="Materialget" sheetId="13" r:id="rId11"/>
     <sheet name="Contract" sheetId="14" r:id="rId12"/>
-    <sheet name="Temp" sheetId="4" r:id="rId13"/>
+    <sheet name="Purchase" sheetId="15" r:id="rId13"/>
+    <sheet name="Temp" sheetId="4" r:id="rId14"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3419" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3613" uniqueCount="392">
   <si>
     <t>FilePath</t>
     <phoneticPr fontId="11" type="noConversion"/>
@@ -2047,7 +2048,39 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>overtime_3</t>
+    <t>purchase_2</t>
+  </si>
+  <si>
+    <t>purchase_1</t>
+  </si>
+  <si>
+    <t>payment_1</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>payment_2</t>
+  </si>
+  <si>
+    <t>payment_3</t>
+  </si>
+  <si>
+    <t>采购审批流程</t>
+  </si>
+  <si>
+    <t>发起采购审批</t>
+  </si>
+  <si>
+    <t>purchase</t>
+  </si>
+  <si>
+    <t>purchase.xlsx</t>
+  </si>
+  <si>
+    <t>purchase</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetInstances_13</t>
   </si>
 </sst>
 </file>
@@ -2240,7 +2273,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2335,9 +2368,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="16">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5180,8 +5210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5988,10 +6018,702 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="42" t="s">
+        <v>291</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>293</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="43"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+    </row>
+    <row r="17" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="41" t="s">
+        <v>390</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>389</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>382</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="43" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="43" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="43" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="D28" s="43" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="43" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="43" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="D31" s="43" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="43" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="D33" s="43" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="43" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="D35" s="43" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="43"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="43"/>
+    </row>
+    <row r="37" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>381</v>
+      </c>
+      <c r="D38" s="43" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="43" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="41" t="s">
+        <v>388</v>
+      </c>
+      <c r="B40" s="41" t="s">
+        <v>389</v>
+      </c>
+      <c r="C40" s="41" t="s">
+        <v>381</v>
+      </c>
+      <c r="D40" s="43" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="D41" s="43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="D43" s="43" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D44" s="43" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="D45" s="43" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="D46" s="43" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="D47" s="43" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" s="43" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="D49" s="43" t="s">
+        <v>271</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6023,8 +6745,30 @@
       <c r="B2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="46" t="s">
-        <v>381</v>
+      <c r="C2" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -13023,8 +13767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14404,7 +15148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>

--- a/sources/case/Smoke.xlsx
+++ b/sources/case/Smoke.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
-  <workbookPr filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="7140" firstSheet="7" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="7140" firstSheet="7" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="adjust" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,8 @@
     <sheet name="Materialget" sheetId="13" r:id="rId11"/>
     <sheet name="Contract" sheetId="14" r:id="rId12"/>
     <sheet name="Purchase" sheetId="15" r:id="rId13"/>
-    <sheet name="Temp" sheetId="4" r:id="rId14"/>
+    <sheet name="reimbursement" sheetId="16" r:id="rId14"/>
+    <sheet name="Temp" sheetId="4" r:id="rId15"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -32,22 +33,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3613" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4131" uniqueCount="423">
   <si>
     <t>FilePath</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>API</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Case</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>TransferIn</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -63,11 +64,11 @@
       </rPr>
       <t>.xlsx</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>TransferIn_1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -83,27 +84,27 @@
       </rPr>
       <t>Son</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>EditSon.xlsx</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>EditSon_1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>TransferIn_2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>EditSon_2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Update_direct_report</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -119,7 +120,7 @@
       </rPr>
       <t>.xlsx</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -135,7 +136,7 @@
       </rPr>
       <t>_1</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -217,7 +218,7 @@
   </si>
   <si>
     <t>approvalTypes</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -299,7 +300,7 @@
   </si>
   <si>
     <t>ApprovalTypes.xlsx</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -315,7 +316,7 @@
       </rPr>
       <t>.xlsx</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -331,11 +332,11 @@
       </rPr>
       <t>_1</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>GetInstances</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -351,7 +352,7 @@
       </rPr>
       <t>.xlsx</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -367,7 +368,7 @@
       </rPr>
       <t>_1</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -383,7 +384,7 @@
       </rPr>
       <t>uth</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -399,38 +400,38 @@
       </rPr>
       <t>uth.xlsx</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Auth_11</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Auth_12</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Auth_13</t>
   </si>
   <si>
     <t>houlong</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Auth_15</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>GetInstanceInfo</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Auth_16</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>CancelTransfer</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -446,15 +447,15 @@
       </rPr>
       <t>.xlsx</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>CancelTransfer_1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>GetInstanceInfo</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Approval</t>
@@ -473,27 +474,27 @@
   </si>
   <si>
     <t>Approval</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Approval_reject.xlsx</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>reject</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>reject_7</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>GetInstanceInfo_1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Approval_3</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -509,19 +510,19 @@
       </rPr>
       <t>0-15的员工调入到organization_1部门</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>设置organization_1部门负责人</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>将测试16-20的员工调入到organization_1部门</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>description</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -537,71 +538,71 @@
       </rPr>
       <t>0-》测试11</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：测试11-》测试12</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：测试12-》测试13</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：测试13-》测试15</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：测试15-》测试16</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：测试16-》测试17</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：测试17-》测试18</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：测试18-》测试19</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>编辑调整审理流程</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>获取发起的审批列表</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>获取审批详情</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>切换测试15登录</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>测试15审批通过</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>切换测试16登录</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>测试16审批通过</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>切换侯龙登录</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>侯龙撤回审批</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -628,11 +629,11 @@
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>编辑转正审理流程</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -648,7 +649,7 @@
       </rPr>
       <t>.xlsx</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -664,195 +665,195 @@
       </rPr>
       <t>_1</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>发起转正审批</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Formal</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>GetInstances_2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Approval_1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>测试10发起调整审批(流程1)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>FormalType_1</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>FormalType_2</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>adjuctType_1</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>adjuctType_2</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>Approval_2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Approval_5</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Approval_6</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Auth_10</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Auth_12</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Auth_13</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Auth_15</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Auth_16</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Approval_4</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Approval_5</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Approval_6</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Approval_7</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>切换测试10登录</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>切换测试11登录</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>切换测试12登录</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>切换测试13登录</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>切换测试16登录</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>测试16审批通过</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>测试13审批通过</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>测试12审批通过</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>测试11审批通过</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>测试10审批通过</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Formal_2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：新成员1-》测试10</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：新成员2-》测试10</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Update_direct_report_new2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Update_direct_report_new1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Offboard_resign1</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>辞职审理流程</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Adjust</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Adjust.xlsx</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Adjust_1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Adjust_2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Offboard</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Offboard.xlsx</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>GetInstances_3</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Offboard_resign2</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>切换测试10登录</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Auth_11</t>
@@ -883,19 +884,19 @@
   </si>
   <si>
     <t>Auth_1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>切换测试1登录</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Approval_1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>测试10审批通过</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>测试11审批通过</t>
@@ -923,47 +924,47 @@
   </si>
   <si>
     <t>测试1审批通过</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>发起辞职审批</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Approval_2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>切换测试16登录</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>测试16审批通过</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>测试1审批通过</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>houlong</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>测试1登录</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Auth_16</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Approval_4</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Formal_3</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Offboard_dismiss1</t>
@@ -973,30 +974,30 @@
   </si>
   <si>
     <t>Offboard_resign_2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Offboard_resign_3</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Offboard_dismiss2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Offboard_dismiss_1</t>
   </si>
   <si>
     <t>Offboard_dismiss_2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Offboard_dismiss_3</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>发起辞退审批</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Update_direct_report_new3</t>
@@ -1012,63 +1013,63 @@
   </si>
   <si>
     <t>编辑汇报关系：新成员3-》测试10</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：新成员4-》测试10</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：新成员5-》测试10</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：新成员6-》测试10</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>ApprovalTypes.xlsx</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>驳回审批</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>发起调整审批</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Adjust_3</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>切换测试1登录</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>测试1审批通过</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>houlong登录</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>houlong审批通过</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Adjust</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Update_direct_report_houlong</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：houlong-》测试10</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1084,15 +1085,15 @@
       </rPr>
       <t>_1</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Auth_13</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>切换测试13登录</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>out_1</t>
@@ -1108,11 +1109,11 @@
   </si>
   <si>
     <t>LeaveRequest</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>LeaveRequest.xlsx</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>LeaveRequest_01</t>
@@ -1125,113 +1126,113 @@
   </si>
   <si>
     <t>发起请假审批</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Approval_1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Approval_4</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Approval_6</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Approval_2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Approval_3</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Approval_7</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Leave_2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>请假审批流程</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>LeaveRequest_02</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>LeaveRequest_03</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>EditSon_3</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>设置organization_3部门负责人</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>TransferIn_3</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>将侯龙调入到organization_3部门</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>GetInstances_4</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>切换测试11登录</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>LeaveRequest_04</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Auth_17</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Auth_18</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>LeaveRequest_07</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Auth_19</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Leave_3</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>OutRequest</t>
   </si>
   <si>
     <t>OutRequest.xlsx</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>OutRequest_01</t>
   </si>
   <si>
     <t>out_2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>out_3</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>OutRequest_03</t>
@@ -1244,93 +1245,93 @@
   </si>
   <si>
     <t>OutRequest_02</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>GetInstances_5</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Auth_10</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>切换测试16登录</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Auth_15</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Approval_3</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Auth_16</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>GetInstances_7</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Auth_13</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Approval_3</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>ResignRequest</t>
   </si>
   <si>
     <t>ResignRequest_03</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>ResignRequest_02</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>ResignRequest_03</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>ResignRequest.xlsx</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>resign_2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>OvertimeRequest</t>
   </si>
   <si>
     <t>OvertimeRequest.xlsx</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>GetInstances_6</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>OvertimeRequest_02</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>GetInstances_6</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>overtime_3</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Auth_17</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1346,65 +1347,65 @@
       </rPr>
       <t>uth.xlsx</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Auth_18</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Auth_1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>切换测试1登录</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>加班审批流程</t>
   </si>
   <si>
     <t>加班审批流程</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>加班侯龙登录</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>发起加班审批</t>
   </si>
   <si>
     <t>OvertimeRequest_01</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>overtime_2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Approval_1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>OvertimeRequest_03</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>OvertimeRequest_04</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>OvertimeRequest_05</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Auth_20</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>OvertimeRequest_06</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>外出审批流程</t>
@@ -1426,7 +1427,7 @@
   </si>
   <si>
     <t>获取审批详情，验证审批状态</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>GetInstanceInfo_cancelled</t>
@@ -1448,7 +1449,7 @@
   </si>
   <si>
     <t>切换测试17登录</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>TripRequest_03</t>
@@ -1464,7 +1465,7 @@
   </si>
   <si>
     <t>TripRequest_07</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>GetInstances_8</t>
@@ -1480,15 +1481,15 @@
   </si>
   <si>
     <t>切换测试20登录</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>TripRequest_01</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>trip_2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>API</t>
@@ -2045,7 +2046,7 @@
   </si>
   <si>
     <t>Approval_3</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>purchase_2</t>
@@ -2054,45 +2055,179 @@
     <t>purchase_1</t>
   </si>
   <si>
+    <t>payment_2</t>
+  </si>
+  <si>
+    <t>payment_3</t>
+  </si>
+  <si>
+    <t>采购审批流程</t>
+  </si>
+  <si>
+    <t>发起采购审批</t>
+  </si>
+  <si>
+    <t>purchase</t>
+  </si>
+  <si>
+    <t>purchase.xlsx</t>
+  </si>
+  <si>
+    <t>purchase</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetInstances_13</t>
+  </si>
+  <si>
+    <t>purchase_3</t>
+  </si>
+  <si>
+    <t>approvalTypes</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>TransferIn_1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Approval_3</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>reimbursement_1</t>
+  </si>
+  <si>
+    <t>reimbursement_2</t>
+  </si>
+  <si>
+    <t>reimbursement_3</t>
+  </si>
+  <si>
     <t>payment_1</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>payment_2</t>
-  </si>
-  <si>
-    <t>payment_3</t>
-  </si>
-  <si>
-    <t>采购审批流程</t>
-  </si>
-  <si>
-    <t>发起采购审批</t>
-  </si>
-  <si>
-    <t>purchase</t>
-  </si>
-  <si>
-    <t>purchase.xlsx</t>
-  </si>
-  <si>
-    <t>purchase</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetInstances_13</t>
+  </si>
+  <si>
+    <r>
+      <t>purchase_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchase_3</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Approval_1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auth_17</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换测试17登录</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取发起的审批列表</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchase_4</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>houlong</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchase_5</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auth_1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Approval_2</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auth_1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auth_16</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchase_6</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>reimbursement</t>
+  </si>
+  <si>
+    <t>reimbursement.xlsx</t>
+  </si>
+  <si>
+    <t>reimbursement_4</t>
+  </si>
+  <si>
+    <t>报销审批流程</t>
+  </si>
+  <si>
+    <t>发起报销审批</t>
+  </si>
+  <si>
+    <t>GetInstances_14</t>
+  </si>
+  <si>
+    <t>reimbursement_5</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>reimbursement_6</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>reimbursement_7</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>reimbursement_8</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2228,39 +2363,42 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
@@ -2273,106 +2411,116 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="7">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="7">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="9"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="7">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="9"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="7">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="14" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="14" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="14" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="14" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="17">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="18">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 10" xfId="15"/>
     <cellStyle name="常规 11" xfId="16"/>
+    <cellStyle name="常规 12" xfId="17"/>
     <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="常规 3" xfId="1"/>
     <cellStyle name="常规 3 2" xfId="4"/>
@@ -3580,7 +3728,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4391,7 +4539,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5201,7 +5349,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6011,17 +6159,17 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6068,7 +6216,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>5</v>
+        <v>393</v>
       </c>
       <c r="D3" s="43" t="s">
         <v>51</v>
@@ -6259,7 +6407,7 @@
         <v>382</v>
       </c>
       <c r="D17" s="43" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
@@ -6278,16 +6426,16 @@
     </row>
     <row r="19" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="41" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B19" s="41" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C19" s="41" t="s">
         <v>382</v>
       </c>
       <c r="D19" s="43" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
@@ -6298,7 +6446,7 @@
         <v>22</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D20" s="43" t="s">
         <v>64</v>
@@ -6536,7 +6684,7 @@
     </row>
     <row r="38" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="43" t="s">
-        <v>17</v>
+        <v>392</v>
       </c>
       <c r="B38" s="43" t="s">
         <v>21</v>
@@ -6545,7 +6693,7 @@
         <v>381</v>
       </c>
       <c r="D38" s="43" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="39" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
@@ -6564,16 +6712,16 @@
     </row>
     <row r="40" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="41" t="s">
+        <v>387</v>
+      </c>
+      <c r="B40" s="41" t="s">
         <v>388</v>
-      </c>
-      <c r="B40" s="41" t="s">
-        <v>389</v>
       </c>
       <c r="C40" s="41" t="s">
         <v>381</v>
       </c>
       <c r="D40" s="43" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="41" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
@@ -6584,7 +6732,7 @@
         <v>22</v>
       </c>
       <c r="C41" s="43" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D41" s="43" t="s">
         <v>64</v>
@@ -6626,7 +6774,7 @@
         <v>41</v>
       </c>
       <c r="C44" s="43" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D44" s="43" t="s">
         <v>141</v>
@@ -6654,7 +6802,7 @@
         <v>41</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>85</v>
+        <v>394</v>
       </c>
       <c r="D46" s="43" t="s">
         <v>143</v>
@@ -6682,7 +6830,7 @@
         <v>41</v>
       </c>
       <c r="C48" s="43" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="D48" s="43" t="s">
         <v>144</v>
@@ -6702,18 +6850,1864 @@
         <v>271</v>
       </c>
     </row>
+    <row r="50" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="43"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="43"/>
+    </row>
+    <row r="51" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D51" s="43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="43" t="s">
+        <v>392</v>
+      </c>
+      <c r="B52" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="46" t="s">
+        <v>399</v>
+      </c>
+      <c r="D52" s="43" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="41" t="s">
+        <v>387</v>
+      </c>
+      <c r="B53" s="41" t="s">
+        <v>388</v>
+      </c>
+      <c r="C53" s="41" t="s">
+        <v>400</v>
+      </c>
+      <c r="D53" s="43" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="43" t="s">
+        <v>390</v>
+      </c>
+      <c r="D54" s="43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B55" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D55" s="43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="D56" s="43" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B57" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C57" s="43" t="s">
+        <v>401</v>
+      </c>
+      <c r="D57" s="43" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="43"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="43"/>
+    </row>
+    <row r="59" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B59" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" s="43" t="s">
+        <v>402</v>
+      </c>
+      <c r="D59" s="43" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="41" t="s">
+        <v>387</v>
+      </c>
+      <c r="B60" s="41" t="s">
+        <v>388</v>
+      </c>
+      <c r="C60" s="41" t="s">
+        <v>405</v>
+      </c>
+      <c r="D60" s="43" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C61" s="43" t="s">
+        <v>390</v>
+      </c>
+      <c r="D61" s="43" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B62" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D62" s="43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B63" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="D63" s="43" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B64" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C64" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D64" s="43" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B65" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="D65" s="43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B66" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C66" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="D66" s="43" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="43"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="43"/>
+    </row>
+    <row r="68" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B68" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C68" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="D68" s="43" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="41" t="s">
+        <v>387</v>
+      </c>
+      <c r="B69" s="41" t="s">
+        <v>388</v>
+      </c>
+      <c r="C69" s="41" t="s">
+        <v>407</v>
+      </c>
+      <c r="D69" s="43" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B70" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C70" s="43" t="s">
+        <v>390</v>
+      </c>
+      <c r="D70" s="43" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B71" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C71" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D71" s="43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B72" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C72" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="D72" s="43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B73" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C73" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D73" s="43" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B74" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C74" s="43" t="s">
+        <v>408</v>
+      </c>
+      <c r="D74" s="43" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B75" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C75" s="43" t="s">
+        <v>409</v>
+      </c>
+      <c r="D75" s="43" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="43"/>
+      <c r="B76" s="43"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="43"/>
+    </row>
+    <row r="77" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B77" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C77" s="43" t="s">
+        <v>411</v>
+      </c>
+      <c r="D77" s="43" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="41" t="s">
+        <v>387</v>
+      </c>
+      <c r="B78" s="41" t="s">
+        <v>388</v>
+      </c>
+      <c r="C78" s="41" t="s">
+        <v>412</v>
+      </c>
+      <c r="D78" s="43" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B79" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C79" s="43" t="s">
+        <v>390</v>
+      </c>
+      <c r="D79" s="43" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B80" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C80" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D80" s="43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B81" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C81" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="D81" s="43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B82" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C82" s="43" t="s">
+        <v>401</v>
+      </c>
+      <c r="D82" s="43" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B83" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C83" s="43" t="s">
+        <v>410</v>
+      </c>
+      <c r="D83" s="43" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B84" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C84" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="D84" s="43" t="s">
+        <v>143</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D102"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C100" sqref="C100"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.875" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="41" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.125" style="41" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.25" style="41" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="41"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="42" t="s">
+        <v>291</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>293</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>393</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="43"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="46" t="s">
+        <v>395</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="41" t="s">
+        <v>413</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>414</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>395</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>418</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="43" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="43" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="43" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="D28" s="43" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="43" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="43" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="D31" s="43" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="43" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="D33" s="43" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="43" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="48" t="s">
+        <v>273</v>
+      </c>
+      <c r="D35" s="43" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="43"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="43"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="43" t="s">
+        <v>392</v>
+      </c>
+      <c r="B38" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="D38" s="43" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="43" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="41" t="s">
+        <v>413</v>
+      </c>
+      <c r="B40" s="41" t="s">
+        <v>414</v>
+      </c>
+      <c r="C40" s="41" t="s">
+        <v>396</v>
+      </c>
+      <c r="D40" s="43" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="43" t="s">
+        <v>418</v>
+      </c>
+      <c r="D41" s="43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="D43" s="43" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" s="43" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="D45" s="43" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" s="43" t="s">
+        <v>394</v>
+      </c>
+      <c r="D46" s="43" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="D47" s="43" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="D48" s="43" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="48" t="s">
+        <v>273</v>
+      </c>
+      <c r="D49" s="43" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="43"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="43"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D51" s="43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="43" t="s">
+        <v>392</v>
+      </c>
+      <c r="B52" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="46" t="s">
+        <v>397</v>
+      </c>
+      <c r="D52" s="43" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="41" t="s">
+        <v>413</v>
+      </c>
+      <c r="B53" s="41" t="s">
+        <v>414</v>
+      </c>
+      <c r="C53" s="41" t="s">
+        <v>397</v>
+      </c>
+      <c r="D53" s="43" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="43" t="s">
+        <v>418</v>
+      </c>
+      <c r="D54" s="43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B55" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D55" s="43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="D56" s="43" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B57" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C57" s="43" t="s">
+        <v>401</v>
+      </c>
+      <c r="D57" s="43" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="43"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="43"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B59" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" s="43" t="s">
+        <v>402</v>
+      </c>
+      <c r="D59" s="43" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="41" t="s">
+        <v>413</v>
+      </c>
+      <c r="B60" s="41" t="s">
+        <v>414</v>
+      </c>
+      <c r="C60" s="41" t="s">
+        <v>415</v>
+      </c>
+      <c r="D60" s="43" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C61" s="43" t="s">
+        <v>418</v>
+      </c>
+      <c r="D61" s="43" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B62" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D62" s="43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B63" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="D63" s="43" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B64" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C64" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D64" s="43" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B65" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="D65" s="43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B66" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C66" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="D66" s="43" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="43"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="43"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B68" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C68" s="43" t="s">
+        <v>402</v>
+      </c>
+      <c r="D68" s="43" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="41" t="s">
+        <v>413</v>
+      </c>
+      <c r="B69" s="41" t="s">
+        <v>414</v>
+      </c>
+      <c r="C69" s="41" t="s">
+        <v>419</v>
+      </c>
+      <c r="D69" s="43" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B70" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C70" s="43" t="s">
+        <v>418</v>
+      </c>
+      <c r="D70" s="43" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B71" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C71" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D71" s="43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B72" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C72" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="D72" s="43" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B73" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C73" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D73" s="43" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B74" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C74" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="D74" s="43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B75" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C75" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="D75" s="43" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="43"/>
+      <c r="B76" s="43"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="43"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B77" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C77" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="D77" s="43" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="41" t="s">
+        <v>413</v>
+      </c>
+      <c r="B78" s="41" t="s">
+        <v>414</v>
+      </c>
+      <c r="C78" s="41" t="s">
+        <v>420</v>
+      </c>
+      <c r="D78" s="43" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B79" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C79" s="43" t="s">
+        <v>418</v>
+      </c>
+      <c r="D79" s="43" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B80" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C80" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D80" s="43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B81" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C81" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="D81" s="43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B82" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C82" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D82" s="43" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B83" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C83" s="43" t="s">
+        <v>408</v>
+      </c>
+      <c r="D83" s="43" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B84" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C84" s="43" t="s">
+        <v>409</v>
+      </c>
+      <c r="D84" s="43" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="43"/>
+      <c r="B85" s="43"/>
+      <c r="C85" s="43"/>
+      <c r="D85" s="43"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B86" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C86" s="43" t="s">
+        <v>411</v>
+      </c>
+      <c r="D86" s="43" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="41" t="s">
+        <v>413</v>
+      </c>
+      <c r="B87" s="41" t="s">
+        <v>414</v>
+      </c>
+      <c r="C87" s="41" t="s">
+        <v>421</v>
+      </c>
+      <c r="D87" s="43" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B88" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C88" s="43" t="s">
+        <v>418</v>
+      </c>
+      <c r="D88" s="43" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B89" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C89" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D89" s="43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B90" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C90" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="D90" s="43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B91" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C91" s="43" t="s">
+        <v>401</v>
+      </c>
+      <c r="D91" s="43" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B92" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C92" s="43" t="s">
+        <v>410</v>
+      </c>
+      <c r="D92" s="43" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B93" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C93" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="D93" s="43" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="43"/>
+      <c r="B94" s="43"/>
+      <c r="C94" s="43"/>
+      <c r="D94" s="43"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B95" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C95" s="43" t="s">
+        <v>411</v>
+      </c>
+      <c r="D95" s="43" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="41" t="s">
+        <v>413</v>
+      </c>
+      <c r="B96" s="41" t="s">
+        <v>414</v>
+      </c>
+      <c r="C96" s="41" t="s">
+        <v>422</v>
+      </c>
+      <c r="D96" s="43" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B97" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C97" s="43" t="s">
+        <v>418</v>
+      </c>
+      <c r="D97" s="43" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B98" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C98" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D98" s="43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B99" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C99" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="D99" s="43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B100" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C100" s="43" t="s">
+        <v>401</v>
+      </c>
+      <c r="D100" s="43" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B101" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C101" s="43" t="s">
+        <v>410</v>
+      </c>
+      <c r="D101" s="43" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B102" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C102" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="D102" s="43" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6745,8 +8739,8 @@
       <c r="B2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>383</v>
+      <c r="C2" s="47" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6756,8 +8750,8 @@
       <c r="B3" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>384</v>
+      <c r="C3" s="47" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -6767,12 +8761,78 @@
       <c r="B4" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>385</v>
+      <c r="C4" s="47" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7653,7 +9713,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -9188,7 +11248,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -10555,7 +12615,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11685,7 +13745,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -12510,7 +14570,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -13758,7 +15818,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15138,7 +17198,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -15949,7 +18009,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/sources/case/Smoke.xlsx
+++ b/sources/case/Smoke.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="7140" firstSheet="7" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="7140" firstSheet="10" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="adjust" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,8 @@
     <sheet name="Contract" sheetId="14" r:id="rId12"/>
     <sheet name="Purchase" sheetId="15" r:id="rId13"/>
     <sheet name="reimbursement" sheetId="16" r:id="rId14"/>
-    <sheet name="Temp" sheetId="4" r:id="rId15"/>
+    <sheet name="payment" sheetId="17" r:id="rId15"/>
+    <sheet name="Temp" sheetId="4" r:id="rId16"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4131" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4571" uniqueCount="433">
   <si>
     <t>FilePath</t>
     <phoneticPr fontId="12" type="noConversion"/>
@@ -2208,6 +2209,36 @@
   <si>
     <t>reimbursement_8</t>
     <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetInstances_15</t>
+  </si>
+  <si>
+    <t>payment</t>
+  </si>
+  <si>
+    <t>payment.xlsx</t>
+  </si>
+  <si>
+    <t>payment_4</t>
+  </si>
+  <si>
+    <t>payment_5</t>
+  </si>
+  <si>
+    <t>payment_6</t>
+  </si>
+  <si>
+    <t>payment_7</t>
+  </si>
+  <si>
+    <t>payment_8</t>
+  </si>
+  <si>
+    <t>付款审批流程</t>
+  </si>
+  <si>
+    <t>发起付款审批</t>
   </si>
 </sst>
 </file>
@@ -6166,10 +6197,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6954,212 +6985,212 @@
         <v>144</v>
       </c>
     </row>
-    <row r="58" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="43"/>
-      <c r="B58" s="43"/>
-      <c r="C58" s="43"/>
-      <c r="D58" s="43"/>
+    <row r="58" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B58" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" s="48" t="s">
+        <v>273</v>
+      </c>
+      <c r="D58" s="43" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="59" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="B59" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="C59" s="43" t="s">
+      <c r="A59" s="43"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="43"/>
+    </row>
+    <row r="60" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B60" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" s="43" t="s">
         <v>402</v>
       </c>
-      <c r="D59" s="43" t="s">
+      <c r="D60" s="43" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="60" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="41" t="s">
+    <row r="61" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="41" t="s">
         <v>387</v>
       </c>
-      <c r="B60" s="41" t="s">
+      <c r="B61" s="41" t="s">
         <v>388</v>
       </c>
-      <c r="C60" s="41" t="s">
+      <c r="C61" s="41" t="s">
         <v>405</v>
       </c>
-      <c r="D60" s="43" t="s">
+      <c r="D61" s="43" t="s">
         <v>386</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="B61" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="C61" s="43" t="s">
-        <v>390</v>
-      </c>
-      <c r="D61" s="43" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="62" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="43" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B62" s="43" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C62" s="43" t="s">
-        <v>26</v>
+        <v>390</v>
       </c>
       <c r="D62" s="43" t="s">
-        <v>65</v>
+        <v>404</v>
       </c>
     </row>
     <row r="63" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="43" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B63" s="43" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C63" s="43" t="s">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="D63" s="43" t="s">
-        <v>131</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="43" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B64" s="43" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C64" s="43" t="s">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="D64" s="43" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="43" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B65" s="43" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C65" s="43" t="s">
-        <v>406</v>
+        <v>79</v>
       </c>
       <c r="D65" s="43" t="s">
-        <v>70</v>
+        <v>143</v>
       </c>
     </row>
     <row r="66" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="43" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B66" s="43" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C66" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="D66" s="43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B67" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C67" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="D66" s="43" t="s">
+      <c r="D67" s="43" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="67" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="43"/>
-      <c r="B67" s="43"/>
-      <c r="C67" s="43"/>
-      <c r="D67" s="43"/>
-    </row>
-    <row r="68" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="43" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B68" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="C68" s="43" t="s">
-        <v>214</v>
+        <v>25</v>
+      </c>
+      <c r="C68" s="48" t="s">
+        <v>273</v>
       </c>
       <c r="D68" s="43" t="s">
-        <v>403</v>
+        <v>271</v>
       </c>
     </row>
     <row r="69" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="41" t="s">
-        <v>387</v>
-      </c>
-      <c r="B69" s="41" t="s">
-        <v>388</v>
-      </c>
-      <c r="C69" s="41" t="s">
-        <v>407</v>
-      </c>
-      <c r="D69" s="43" t="s">
-        <v>386</v>
-      </c>
+      <c r="A69" s="43"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="43"/>
+      <c r="D69" s="43"/>
     </row>
     <row r="70" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="43" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B70" s="43" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C70" s="43" t="s">
-        <v>390</v>
+        <v>214</v>
       </c>
       <c r="D70" s="43" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="71" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="B71" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="C71" s="43" t="s">
-        <v>26</v>
+      <c r="A71" s="41" t="s">
+        <v>387</v>
+      </c>
+      <c r="B71" s="41" t="s">
+        <v>388</v>
+      </c>
+      <c r="C71" s="41" t="s">
+        <v>407</v>
       </c>
       <c r="D71" s="43" t="s">
-        <v>65</v>
+        <v>386</v>
       </c>
     </row>
     <row r="72" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="43" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B72" s="43" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C72" s="43" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="D72" s="43" t="s">
-        <v>70</v>
+        <v>404</v>
       </c>
     </row>
     <row r="73" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="43" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B73" s="43" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C73" s="43" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="D73" s="43" t="s">
-        <v>144</v>
+        <v>65</v>
       </c>
     </row>
     <row r="74" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
@@ -7170,10 +7201,10 @@
         <v>28</v>
       </c>
       <c r="C74" s="43" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D74" s="43" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
@@ -7184,128 +7215,184 @@
         <v>41</v>
       </c>
       <c r="C75" s="43" t="s">
-        <v>409</v>
+        <v>79</v>
       </c>
       <c r="D75" s="43" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="76" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="43"/>
-      <c r="B76" s="43"/>
-      <c r="C76" s="43"/>
-      <c r="D76" s="43"/>
+      <c r="A76" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B76" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C76" s="43" t="s">
+        <v>408</v>
+      </c>
+      <c r="D76" s="43" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="77" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="43" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B77" s="43" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C77" s="43" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D77" s="43" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="41" t="s">
-        <v>387</v>
-      </c>
-      <c r="B78" s="41" t="s">
-        <v>388</v>
-      </c>
-      <c r="C78" s="41" t="s">
-        <v>412</v>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B78" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C78" s="48" t="s">
+        <v>273</v>
       </c>
       <c r="D78" s="43" t="s">
-        <v>386</v>
+        <v>271</v>
       </c>
     </row>
     <row r="79" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="B79" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="C79" s="43" t="s">
-        <v>390</v>
-      </c>
-      <c r="D79" s="43" t="s">
-        <v>404</v>
-      </c>
+      <c r="A79" s="43"/>
+      <c r="B79" s="43"/>
+      <c r="C79" s="43"/>
+      <c r="D79" s="43"/>
     </row>
     <row r="80" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="43" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B80" s="43" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C80" s="43" t="s">
-        <v>26</v>
+        <v>411</v>
       </c>
       <c r="D80" s="43" t="s">
-        <v>65</v>
+        <v>403</v>
       </c>
     </row>
     <row r="81" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="B81" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="C81" s="43" t="s">
-        <v>406</v>
+      <c r="A81" s="41" t="s">
+        <v>387</v>
+      </c>
+      <c r="B81" s="41" t="s">
+        <v>388</v>
+      </c>
+      <c r="C81" s="41" t="s">
+        <v>412</v>
       </c>
       <c r="D81" s="43" t="s">
-        <v>70</v>
+        <v>386</v>
       </c>
     </row>
     <row r="82" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="43" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B82" s="43" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="C82" s="43" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="D82" s="43" t="s">
-        <v>144</v>
+        <v>404</v>
       </c>
     </row>
     <row r="83" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="43" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B83" s="43" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C83" s="43" t="s">
-        <v>410</v>
+        <v>26</v>
       </c>
       <c r="D83" s="43" t="s">
-        <v>131</v>
+        <v>65</v>
       </c>
     </row>
     <row r="84" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="43" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B84" s="43" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C84" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="D84" s="43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B85" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C85" s="43" t="s">
+        <v>401</v>
+      </c>
+      <c r="D85" s="43" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B86" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C86" s="43" t="s">
+        <v>410</v>
+      </c>
+      <c r="D86" s="43" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B87" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C87" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="D84" s="43" t="s">
+      <c r="D87" s="43" t="s">
         <v>143</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B88" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C88" s="48" t="s">
+        <v>273</v>
+      </c>
+      <c r="D88" s="43" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -7317,10 +7404,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:D108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C100" sqref="C100"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8106,212 +8193,212 @@
         <v>144</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="43"/>
-      <c r="B58" s="43"/>
-      <c r="C58" s="43"/>
-      <c r="D58" s="43"/>
+    <row r="58" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B58" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" s="48" t="s">
+        <v>273</v>
+      </c>
+      <c r="D58" s="43" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="B59" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="C59" s="43" t="s">
+      <c r="A59" s="43"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="43"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B60" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" s="43" t="s">
         <v>402</v>
       </c>
-      <c r="D59" s="43" t="s">
+      <c r="D60" s="43" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="41" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="41" t="s">
         <v>413</v>
       </c>
-      <c r="B60" s="41" t="s">
+      <c r="B61" s="41" t="s">
         <v>414</v>
       </c>
-      <c r="C60" s="41" t="s">
+      <c r="C61" s="41" t="s">
         <v>415</v>
       </c>
-      <c r="D60" s="43" t="s">
+      <c r="D61" s="43" t="s">
         <v>417</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="B61" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="C61" s="43" t="s">
-        <v>418</v>
-      </c>
-      <c r="D61" s="43" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="43" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B62" s="43" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C62" s="43" t="s">
-        <v>26</v>
+        <v>418</v>
       </c>
       <c r="D62" s="43" t="s">
-        <v>65</v>
+        <v>404</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="43" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B63" s="43" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C63" s="43" t="s">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="D63" s="43" t="s">
-        <v>131</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="43" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B64" s="43" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C64" s="43" t="s">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="D64" s="43" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="43" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B65" s="43" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C65" s="43" t="s">
-        <v>406</v>
+        <v>79</v>
       </c>
       <c r="D65" s="43" t="s">
-        <v>70</v>
+        <v>143</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="43" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B66" s="43" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C66" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="D66" s="43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B67" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C67" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="D66" s="43" t="s">
+      <c r="D67" s="43" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="43"/>
-      <c r="B67" s="43"/>
-      <c r="C67" s="43"/>
-      <c r="D67" s="43"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="43" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B68" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="C68" s="43" t="s">
-        <v>402</v>
+        <v>25</v>
+      </c>
+      <c r="C68" s="48" t="s">
+        <v>273</v>
       </c>
       <c r="D68" s="43" t="s">
-        <v>403</v>
+        <v>271</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="41" t="s">
-        <v>413</v>
-      </c>
-      <c r="B69" s="41" t="s">
-        <v>414</v>
-      </c>
-      <c r="C69" s="41" t="s">
-        <v>419</v>
-      </c>
-      <c r="D69" s="43" t="s">
-        <v>417</v>
-      </c>
+      <c r="A69" s="43"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="43"/>
+      <c r="D69" s="43"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="43" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B70" s="43" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C70" s="43" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="D70" s="43" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="B71" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="C71" s="43" t="s">
-        <v>26</v>
+      <c r="A71" s="41" t="s">
+        <v>413</v>
+      </c>
+      <c r="B71" s="41" t="s">
+        <v>414</v>
+      </c>
+      <c r="C71" s="41" t="s">
+        <v>419</v>
       </c>
       <c r="D71" s="43" t="s">
-        <v>65</v>
+        <v>417</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="43" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B72" s="43" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C72" s="43" t="s">
-        <v>130</v>
+        <v>418</v>
       </c>
       <c r="D72" s="43" t="s">
-        <v>131</v>
+        <v>404</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="43" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B73" s="43" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C73" s="43" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="D73" s="43" t="s">
-        <v>143</v>
+        <v>65</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -8322,10 +8409,10 @@
         <v>28</v>
       </c>
       <c r="C74" s="43" t="s">
-        <v>406</v>
+        <v>130</v>
       </c>
       <c r="D74" s="43" t="s">
-        <v>70</v>
+        <v>131</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -8336,135 +8423,143 @@
         <v>41</v>
       </c>
       <c r="C75" s="43" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D75" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="43"/>
-      <c r="B76" s="43"/>
-      <c r="C76" s="43"/>
-      <c r="D76" s="43"/>
+      <c r="A76" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B76" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C76" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="D76" s="43" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="43" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B77" s="43" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C77" s="43" t="s">
-        <v>214</v>
+        <v>85</v>
       </c>
       <c r="D77" s="43" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="41" t="s">
-        <v>413</v>
-      </c>
-      <c r="B78" s="41" t="s">
-        <v>414</v>
-      </c>
-      <c r="C78" s="41" t="s">
-        <v>420</v>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B78" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C78" s="48" t="s">
+        <v>273</v>
       </c>
       <c r="D78" s="43" t="s">
-        <v>417</v>
+        <v>271</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="B79" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="C79" s="43" t="s">
-        <v>418</v>
-      </c>
-      <c r="D79" s="43" t="s">
-        <v>404</v>
-      </c>
+      <c r="A79" s="43"/>
+      <c r="B79" s="43"/>
+      <c r="C79" s="43"/>
+      <c r="D79" s="43"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="43" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B80" s="43" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C80" s="43" t="s">
-        <v>26</v>
+        <v>214</v>
       </c>
       <c r="D80" s="43" t="s">
-        <v>65</v>
+        <v>403</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="B81" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="C81" s="43" t="s">
-        <v>406</v>
+      <c r="A81" s="41" t="s">
+        <v>413</v>
+      </c>
+      <c r="B81" s="41" t="s">
+        <v>414</v>
+      </c>
+      <c r="C81" s="41" t="s">
+        <v>420</v>
       </c>
       <c r="D81" s="43" t="s">
-        <v>70</v>
+        <v>417</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="43" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B82" s="43" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="C82" s="43" t="s">
-        <v>79</v>
+        <v>418</v>
       </c>
       <c r="D82" s="43" t="s">
-        <v>144</v>
+        <v>404</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="43" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B83" s="43" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C83" s="43" t="s">
-        <v>408</v>
+        <v>26</v>
       </c>
       <c r="D83" s="43" t="s">
-        <v>131</v>
+        <v>65</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="43" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B84" s="43" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C84" s="43" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D84" s="43" t="s">
-        <v>143</v>
+        <v>70</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="43"/>
-      <c r="B85" s="43"/>
-      <c r="C85" s="43"/>
-      <c r="D85" s="43"/>
+      <c r="A85" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B85" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C85" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D85" s="43" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="43" t="s">
@@ -8474,53 +8569,45 @@
         <v>28</v>
       </c>
       <c r="C86" s="43" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D86" s="43" t="s">
-        <v>403</v>
+        <v>131</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="41" t="s">
-        <v>413</v>
-      </c>
-      <c r="B87" s="41" t="s">
-        <v>414</v>
-      </c>
-      <c r="C87" s="41" t="s">
-        <v>421</v>
+      <c r="A87" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B87" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C87" s="43" t="s">
+        <v>409</v>
       </c>
       <c r="D87" s="43" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="43" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B88" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="C88" s="43" t="s">
-        <v>418</v>
+        <v>25</v>
+      </c>
+      <c r="C88" s="48" t="s">
+        <v>273</v>
       </c>
       <c r="D88" s="43" t="s">
-        <v>404</v>
+        <v>271</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="B89" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="C89" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="D89" s="43" t="s">
-        <v>65</v>
-      </c>
+      <c r="A89" s="43"/>
+      <c r="B89" s="43"/>
+      <c r="C89" s="43"/>
+      <c r="D89" s="43"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="43" t="s">
@@ -8530,170 +8617,254 @@
         <v>28</v>
       </c>
       <c r="C90" s="43" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="D90" s="43" t="s">
-        <v>70</v>
+        <v>403</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="B91" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="C91" s="43" t="s">
-        <v>401</v>
+      <c r="A91" s="41" t="s">
+        <v>413</v>
+      </c>
+      <c r="B91" s="41" t="s">
+        <v>414</v>
+      </c>
+      <c r="C91" s="41" t="s">
+        <v>421</v>
       </c>
       <c r="D91" s="43" t="s">
-        <v>144</v>
+        <v>417</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="43" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B92" s="43" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C92" s="43" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="D92" s="43" t="s">
-        <v>131</v>
+        <v>404</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="43" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B93" s="43" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C93" s="43" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="D93" s="43" t="s">
-        <v>143</v>
+        <v>65</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="43"/>
-      <c r="B94" s="43"/>
-      <c r="C94" s="43"/>
-      <c r="D94" s="43"/>
+      <c r="A94" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B94" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C94" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="D94" s="43" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="43" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B95" s="43" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C95" s="43" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="D95" s="43" t="s">
-        <v>403</v>
+        <v>144</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="41" t="s">
-        <v>413</v>
-      </c>
-      <c r="B96" s="41" t="s">
-        <v>414</v>
-      </c>
-      <c r="C96" s="41" t="s">
-        <v>422</v>
+      <c r="A96" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B96" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C96" s="43" t="s">
+        <v>410</v>
       </c>
       <c r="D96" s="43" t="s">
-        <v>417</v>
+        <v>131</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="43" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B97" s="43" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C97" s="43" t="s">
-        <v>418</v>
+        <v>85</v>
       </c>
       <c r="D97" s="43" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="43" t="s">
         <v>34</v>
       </c>
       <c r="B98" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C98" s="43" t="s">
-        <v>26</v>
+      <c r="C98" s="48" t="s">
+        <v>273</v>
       </c>
       <c r="D98" s="43" t="s">
-        <v>65</v>
+        <v>271</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="B99" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="C99" s="43" t="s">
-        <v>406</v>
-      </c>
-      <c r="D99" s="43" t="s">
-        <v>70</v>
-      </c>
+      <c r="A99" s="43"/>
+      <c r="B99" s="43"/>
+      <c r="C99" s="43"/>
+      <c r="D99" s="43"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="43" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B100" s="43" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C100" s="43" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="D100" s="43" t="s">
-        <v>144</v>
+        <v>403</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="B101" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="C101" s="43" t="s">
-        <v>410</v>
+      <c r="A101" s="41" t="s">
+        <v>413</v>
+      </c>
+      <c r="B101" s="41" t="s">
+        <v>414</v>
+      </c>
+      <c r="C101" s="41" t="s">
+        <v>422</v>
       </c>
       <c r="D101" s="43" t="s">
-        <v>131</v>
+        <v>417</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="43" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B102" s="43" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="C102" s="43" t="s">
+        <v>418</v>
+      </c>
+      <c r="D102" s="43" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B103" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C103" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D103" s="43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B104" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C104" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="D104" s="43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B105" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C105" s="43" t="s">
+        <v>401</v>
+      </c>
+      <c r="D105" s="43" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B106" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C106" s="43" t="s">
+        <v>410</v>
+      </c>
+      <c r="D106" s="43" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B107" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C107" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="D102" s="43" t="s">
+      <c r="D107" s="43" t="s">
         <v>143</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B108" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C108" s="48" t="s">
+        <v>273</v>
+      </c>
+      <c r="D108" s="43" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -8703,6 +8874,1478 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D108"/>
+  <sheetViews>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="D101" sqref="D101"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.875" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="41" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.125" style="41" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.25" style="41" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="41"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="42" t="s">
+        <v>291</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>293</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="43"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="46" t="s">
+        <v>398</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="41" t="s">
+        <v>424</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>425</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>398</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>423</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="43" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="43" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="43" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="D28" s="43" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="43" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="43" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="D31" s="43" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="43" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="D33" s="43" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="43" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="48" t="s">
+        <v>273</v>
+      </c>
+      <c r="D35" s="43" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="43"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="43"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="46" t="s">
+        <v>383</v>
+      </c>
+      <c r="D38" s="43" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="43" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="41" t="s">
+        <v>424</v>
+      </c>
+      <c r="B40" s="41" t="s">
+        <v>425</v>
+      </c>
+      <c r="C40" s="41" t="s">
+        <v>383</v>
+      </c>
+      <c r="D40" s="43" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="43" t="s">
+        <v>423</v>
+      </c>
+      <c r="D41" s="43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="D43" s="43" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" s="43" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="D45" s="43" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" s="43" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="D47" s="43" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="D48" s="43" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="48" t="s">
+        <v>273</v>
+      </c>
+      <c r="D49" s="43" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="43"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="43"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D51" s="43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="46" t="s">
+        <v>384</v>
+      </c>
+      <c r="D52" s="43" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="41" t="s">
+        <v>424</v>
+      </c>
+      <c r="B53" s="41" t="s">
+        <v>425</v>
+      </c>
+      <c r="C53" s="41" t="s">
+        <v>384</v>
+      </c>
+      <c r="D53" s="43" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="43" t="s">
+        <v>423</v>
+      </c>
+      <c r="D54" s="43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B55" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D55" s="43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="D56" s="43" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B57" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C57" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D57" s="43" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B58" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" s="48" t="s">
+        <v>273</v>
+      </c>
+      <c r="D58" s="43" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="43"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="43"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B60" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="D60" s="43" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="41" t="s">
+        <v>424</v>
+      </c>
+      <c r="B61" s="41" t="s">
+        <v>425</v>
+      </c>
+      <c r="C61" s="41" t="s">
+        <v>426</v>
+      </c>
+      <c r="D61" s="43" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C62" s="43" t="s">
+        <v>423</v>
+      </c>
+      <c r="D62" s="43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B63" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C63" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B64" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="D64" s="43" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B65" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C65" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D65" s="43" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B66" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C66" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D66" s="43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B67" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C67" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="D67" s="43" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B68" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C68" s="48" t="s">
+        <v>273</v>
+      </c>
+      <c r="D68" s="43" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="43"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="43"/>
+      <c r="D69" s="43"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B70" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C70" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="D70" s="43" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="41" t="s">
+        <v>424</v>
+      </c>
+      <c r="B71" s="41" t="s">
+        <v>425</v>
+      </c>
+      <c r="C71" s="41" t="s">
+        <v>427</v>
+      </c>
+      <c r="D71" s="43" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B72" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C72" s="43" t="s">
+        <v>423</v>
+      </c>
+      <c r="D72" s="43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B73" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C73" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D73" s="43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B74" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C74" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="D74" s="43" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B75" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C75" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D75" s="43" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B76" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C76" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D76" s="43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B77" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C77" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="D77" s="43" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B78" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C78" s="48" t="s">
+        <v>273</v>
+      </c>
+      <c r="D78" s="43" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="43"/>
+      <c r="B79" s="43"/>
+      <c r="C79" s="43"/>
+      <c r="D79" s="43"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B80" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C80" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="D80" s="43" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="41" t="s">
+        <v>424</v>
+      </c>
+      <c r="B81" s="41" t="s">
+        <v>425</v>
+      </c>
+      <c r="C81" s="41" t="s">
+        <v>428</v>
+      </c>
+      <c r="D81" s="43" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B82" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C82" s="43" t="s">
+        <v>423</v>
+      </c>
+      <c r="D82" s="43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B83" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C83" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D83" s="43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B84" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C84" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D84" s="43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B85" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C85" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D85" s="43" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B86" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C86" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="D86" s="43" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B87" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C87" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="D87" s="43" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B88" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C88" s="48" t="s">
+        <v>273</v>
+      </c>
+      <c r="D88" s="43" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="43"/>
+      <c r="B89" s="43"/>
+      <c r="C89" s="43"/>
+      <c r="D89" s="43"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B90" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C90" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="D90" s="43" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="41" t="s">
+        <v>424</v>
+      </c>
+      <c r="B91" s="41" t="s">
+        <v>425</v>
+      </c>
+      <c r="C91" s="41" t="s">
+        <v>429</v>
+      </c>
+      <c r="D91" s="43" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B92" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C92" s="43" t="s">
+        <v>423</v>
+      </c>
+      <c r="D92" s="43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B93" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C93" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D93" s="43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B94" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C94" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D94" s="43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B95" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C95" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D95" s="43" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B96" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C96" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="D96" s="43" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B97" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C97" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="D97" s="43" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B98" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C98" s="48" t="s">
+        <v>273</v>
+      </c>
+      <c r="D98" s="43" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="43"/>
+      <c r="B99" s="43"/>
+      <c r="C99" s="43"/>
+      <c r="D99" s="43"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B100" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C100" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="D100" s="43" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="41" t="s">
+        <v>424</v>
+      </c>
+      <c r="B101" s="41" t="s">
+        <v>425</v>
+      </c>
+      <c r="C101" s="41" t="s">
+        <v>430</v>
+      </c>
+      <c r="D101" s="43" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B102" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C102" s="43" t="s">
+        <v>423</v>
+      </c>
+      <c r="D102" s="43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B103" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C103" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D103" s="43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B104" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C104" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D104" s="43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B105" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C105" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D105" s="43" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B106" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C106" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="D106" s="43" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B107" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C107" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="D107" s="43" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B108" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C108" s="48" t="s">
+        <v>273</v>
+      </c>
+      <c r="D108" s="43" t="s">
+        <v>271</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>

--- a/sources/case/Smoke.xlsx
+++ b/sources/case/Smoke.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
-  <workbookPr filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="7140" firstSheet="10" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="7140" firstSheet="10" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="adjust" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,8 @@
     <sheet name="Purchase" sheetId="15" r:id="rId13"/>
     <sheet name="reimbursement" sheetId="16" r:id="rId14"/>
     <sheet name="payment" sheetId="17" r:id="rId15"/>
-    <sheet name="Temp" sheetId="4" r:id="rId16"/>
+    <sheet name="Attendance" sheetId="18" r:id="rId16"/>
+    <sheet name="Temp" sheetId="4" r:id="rId17"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -34,22 +35,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4571" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5211" uniqueCount="559">
   <si>
     <t>FilePath</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>API</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Case</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>TransferIn</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -65,11 +66,11 @@
       </rPr>
       <t>.xlsx</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>TransferIn_1</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -85,27 +86,27 @@
       </rPr>
       <t>Son</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>EditSon.xlsx</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>EditSon_1</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>TransferIn_2</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>EditSon_2</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Update_direct_report</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -121,7 +122,7 @@
       </rPr>
       <t>.xlsx</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -137,7 +138,7 @@
       </rPr>
       <t>_1</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -219,7 +220,7 @@
   </si>
   <si>
     <t>approvalTypes</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -301,7 +302,7 @@
   </si>
   <si>
     <t>ApprovalTypes.xlsx</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -317,7 +318,7 @@
       </rPr>
       <t>.xlsx</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -333,11 +334,11 @@
       </rPr>
       <t>_1</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>GetInstances</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -353,7 +354,7 @@
       </rPr>
       <t>.xlsx</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -369,7 +370,7 @@
       </rPr>
       <t>_1</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -385,7 +386,7 @@
       </rPr>
       <t>uth</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -401,38 +402,38 @@
       </rPr>
       <t>uth.xlsx</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Auth_11</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Auth_12</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Auth_13</t>
   </si>
   <si>
     <t>houlong</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Auth_15</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>GetInstanceInfo</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Auth_16</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>CancelTransfer</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -448,15 +449,15 @@
       </rPr>
       <t>.xlsx</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>CancelTransfer_1</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>GetInstanceInfo</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Approval</t>
@@ -475,27 +476,27 @@
   </si>
   <si>
     <t>Approval</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Approval_reject.xlsx</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>reject</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>reject_7</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>GetInstanceInfo_1</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Approval_3</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -511,19 +512,19 @@
       </rPr>
       <t>0-15的员工调入到organization_1部门</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>设置organization_1部门负责人</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>将测试16-20的员工调入到organization_1部门</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>description</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -539,71 +540,71 @@
       </rPr>
       <t>0-》测试11</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：测试11-》测试12</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：测试12-》测试13</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：测试13-》测试15</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：测试15-》测试16</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：测试16-》测试17</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：测试17-》测试18</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：测试18-》测试19</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>编辑调整审理流程</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>获取发起的审批列表</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>获取审批详情</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>切换测试15登录</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>测试15审批通过</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>切换测试16登录</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>测试16审批通过</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>切换侯龙登录</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>侯龙撤回审批</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -630,11 +631,11 @@
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>编辑转正审理流程</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -650,7 +651,7 @@
       </rPr>
       <t>.xlsx</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -666,195 +667,195 @@
       </rPr>
       <t>_1</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>发起转正审批</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Formal</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>GetInstances_2</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Approval_1</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>测试10发起调整审批(流程1)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>FormalType_1</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>FormalType_2</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>adjuctType_1</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>adjuctType_2</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Approval_2</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Approval_5</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Approval_6</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Auth_10</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Auth_12</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Auth_13</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Auth_15</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Auth_16</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Approval_4</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Approval_5</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Approval_6</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Approval_7</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>切换测试10登录</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>切换测试11登录</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>切换测试12登录</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>切换测试13登录</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>切换测试16登录</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>测试16审批通过</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>测试13审批通过</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>测试12审批通过</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>测试11审批通过</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>测试10审批通过</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Formal_2</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：新成员1-》测试10</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：新成员2-》测试10</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Update_direct_report_new2</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Update_direct_report_new1</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Offboard_resign1</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>辞职审理流程</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Adjust</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Adjust.xlsx</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Adjust_1</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Adjust_2</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Offboard</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Offboard.xlsx</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>GetInstances_3</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Offboard_resign2</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>切换测试10登录</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Auth_11</t>
@@ -885,19 +886,19 @@
   </si>
   <si>
     <t>Auth_1</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>切换测试1登录</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Approval_1</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>测试10审批通过</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>测试11审批通过</t>
@@ -925,47 +926,47 @@
   </si>
   <si>
     <t>测试1审批通过</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>发起辞职审批</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Approval_2</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>切换测试16登录</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>测试16审批通过</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>测试1审批通过</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>houlong</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>测试1登录</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Auth_16</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Approval_4</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Formal_3</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Offboard_dismiss1</t>
@@ -975,30 +976,30 @@
   </si>
   <si>
     <t>Offboard_resign_2</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Offboard_resign_3</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Offboard_dismiss2</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Offboard_dismiss_1</t>
   </si>
   <si>
     <t>Offboard_dismiss_2</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Offboard_dismiss_3</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>发起辞退审批</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Update_direct_report_new3</t>
@@ -1014,63 +1015,63 @@
   </si>
   <si>
     <t>编辑汇报关系：新成员3-》测试10</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：新成员4-》测试10</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：新成员5-》测试10</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：新成员6-》测试10</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>ApprovalTypes.xlsx</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>驳回审批</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>发起调整审批</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Adjust_3</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>切换测试1登录</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>测试1审批通过</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>houlong登录</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>houlong审批通过</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Adjust</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Update_direct_report_houlong</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：houlong-》测试10</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1086,15 +1087,15 @@
       </rPr>
       <t>_1</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Auth_13</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>切换测试13登录</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>out_1</t>
@@ -1110,11 +1111,11 @@
   </si>
   <si>
     <t>LeaveRequest</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>LeaveRequest.xlsx</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>LeaveRequest_01</t>
@@ -1127,113 +1128,113 @@
   </si>
   <si>
     <t>发起请假审批</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Approval_1</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Approval_4</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Approval_6</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Approval_2</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Approval_3</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Approval_7</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Leave_2</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>请假审批流程</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>LeaveRequest_02</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>LeaveRequest_03</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>EditSon_3</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>设置organization_3部门负责人</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>TransferIn_3</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>将侯龙调入到organization_3部门</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>GetInstances_4</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>切换测试11登录</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>LeaveRequest_04</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Auth_17</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Auth_18</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>LeaveRequest_07</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Auth_19</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Leave_3</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>OutRequest</t>
   </si>
   <si>
     <t>OutRequest.xlsx</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>OutRequest_01</t>
   </si>
   <si>
     <t>out_2</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>out_3</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>OutRequest_03</t>
@@ -1246,93 +1247,93 @@
   </si>
   <si>
     <t>OutRequest_02</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>GetInstances_5</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Auth_10</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>切换测试16登录</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Auth_15</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Approval_3</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Auth_16</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>GetInstances_7</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Auth_13</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Approval_3</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>ResignRequest</t>
   </si>
   <si>
     <t>ResignRequest_03</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>ResignRequest_02</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>ResignRequest_03</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>ResignRequest.xlsx</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>resign_2</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>OvertimeRequest</t>
   </si>
   <si>
     <t>OvertimeRequest.xlsx</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>GetInstances_6</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>OvertimeRequest_02</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>GetInstances_6</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>overtime_3</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Auth_17</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1348,65 +1349,65 @@
       </rPr>
       <t>uth.xlsx</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Auth_18</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Auth_1</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>切换测试1登录</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>加班审批流程</t>
   </si>
   <si>
     <t>加班审批流程</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>加班侯龙登录</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>发起加班审批</t>
   </si>
   <si>
     <t>OvertimeRequest_01</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>overtime_2</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Approval_1</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>OvertimeRequest_03</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>OvertimeRequest_04</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>OvertimeRequest_05</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Auth_20</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>OvertimeRequest_06</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>外出审批流程</t>
@@ -1428,7 +1429,7 @@
   </si>
   <si>
     <t>获取审批详情，验证审批状态</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>GetInstanceInfo_cancelled</t>
@@ -1450,7 +1451,7 @@
   </si>
   <si>
     <t>切换测试17登录</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>TripRequest_03</t>
@@ -1466,7 +1467,7 @@
   </si>
   <si>
     <t>TripRequest_07</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>GetInstances_8</t>
@@ -1482,15 +1483,15 @@
   </si>
   <si>
     <t>切换测试20登录</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>TripRequest_01</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>trip_2</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>API</t>
@@ -2047,7 +2048,7 @@
   </si>
   <si>
     <t>Approval_3</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>purchase_2</t>
@@ -2075,25 +2076,22 @@
   </si>
   <si>
     <t>purchase</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>GetInstances_13</t>
   </si>
   <si>
-    <t>purchase_3</t>
-  </si>
-  <si>
     <t>approvalTypes</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>TransferIn_1</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Approval_3</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>reimbursement_1</t>
@@ -2122,59 +2120,59 @@
       </rPr>
       <t>3</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>purchase_3</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Approval_1</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Auth_17</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>切换测试17登录</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>获取发起的审批列表</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>purchase_4</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>houlong</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>purchase_5</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Auth_1</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Approval_2</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Auth_1</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Auth_16</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>purchase_6</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>reimbursement</t>
@@ -2196,19 +2194,19 @@
   </si>
   <si>
     <t>reimbursement_5</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>reimbursement_6</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>reimbursement_7</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>reimbursement_8</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>GetInstances_15</t>
@@ -2239,18 +2237,545 @@
   </si>
   <si>
     <t>发起付款审批</t>
+  </si>
+  <si>
+    <t>API</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>FilePath</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uth</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uth.xlsx</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>TransferIn</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>TransferIn_1</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>将测试16-20的员工调入到organization_2部门</t>
+  </si>
+  <si>
+    <t>addLocations</t>
+  </si>
+  <si>
+    <t>Locations.xlsx</t>
+  </si>
+  <si>
+    <t>Locations_Add_01</t>
+  </si>
+  <si>
+    <t>设置打卡地点</t>
+  </si>
+  <si>
+    <t>SetSchedule</t>
+  </si>
+  <si>
+    <t>SetSchedule.xlsx</t>
+  </si>
+  <si>
+    <t>SetSchedule_01</t>
+  </si>
+  <si>
+    <t>设置班次</t>
+  </si>
+  <si>
+    <t>SetSchedule_02</t>
+  </si>
+  <si>
+    <t>SetSchedule_03</t>
+  </si>
+  <si>
+    <t>Leave_4</t>
+  </si>
+  <si>
+    <t>设置请假审批</t>
+  </si>
+  <si>
+    <t>resign_4</t>
+  </si>
+  <si>
+    <t>设置补卡审批</t>
+  </si>
+  <si>
+    <t>out_4</t>
+  </si>
+  <si>
+    <t>设置外出审批</t>
+  </si>
+  <si>
+    <t>overtime_4</t>
+  </si>
+  <si>
+    <t>设置加班审批</t>
+  </si>
+  <si>
+    <t>trip_4</t>
+  </si>
+  <si>
+    <t>设置出差审批</t>
+  </si>
+  <si>
+    <t>Auth</t>
+  </si>
+  <si>
+    <t>切换到测试16登录</t>
+  </si>
+  <si>
+    <t>AttendanceIn</t>
+  </si>
+  <si>
+    <t>AttendanceIn.xlsx</t>
+  </si>
+  <si>
+    <t>AttendanceIn_01</t>
+  </si>
+  <si>
+    <t>上班打卡</t>
+  </si>
+  <si>
+    <t>AttendanceOut_01</t>
+  </si>
+  <si>
+    <t>下班打卡</t>
+  </si>
+  <si>
+    <t>AttendanceIn_02</t>
+  </si>
+  <si>
+    <t>OvertimeRequest.xlsx</t>
+  </si>
+  <si>
+    <t>OvertimeRequest_1</t>
+  </si>
+  <si>
+    <t>GetInstances_08</t>
+  </si>
+  <si>
+    <t>GetInstanceInfo</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取审批详情</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换到测试1登录</t>
+  </si>
+  <si>
+    <t>AttendanceOut_02</t>
+  </si>
+  <si>
+    <t>ResignRequest.xlsx</t>
+  </si>
+  <si>
+    <t>ResignRequest_1</t>
+  </si>
+  <si>
+    <r>
+      <t>GetInstances</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.xlsx</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetInstances_06</t>
+  </si>
+  <si>
+    <t>获取发起的审批列表</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>GetInstanceInfo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.xlsx</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>GetInstanceInfo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_1</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttendanceIn_03</t>
+  </si>
+  <si>
+    <t>AttendanceOut_03</t>
+  </si>
+  <si>
+    <t>OvertimeRequest_2</t>
+  </si>
+  <si>
+    <t>AttendanceIn_04</t>
+  </si>
+  <si>
+    <t>ResignRequest_2</t>
+  </si>
+  <si>
+    <t>LeaveRequest</t>
+  </si>
+  <si>
+    <t>LeaveRequest.xlsx</t>
+  </si>
+  <si>
+    <t>LeaveRequest_1</t>
+  </si>
+  <si>
+    <t>发起请假审批</t>
+  </si>
+  <si>
+    <t>GetInstances_05</t>
+  </si>
+  <si>
+    <t>LeaveRequest_2</t>
+  </si>
+  <si>
+    <r>
+      <t>GetInstanceInfo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.xlsx</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeaveRequest_3</t>
+  </si>
+  <si>
+    <t>AttendanceStatisticsAPP</t>
+  </si>
+  <si>
+    <t>AttendanceStatisticsAPP.xlsx</t>
+  </si>
+  <si>
+    <t>case_1</t>
+  </si>
+  <si>
+    <t>检查APP端考勤</t>
+  </si>
+  <si>
+    <t>AttendanceStatisticsPC</t>
+  </si>
+  <si>
+    <t>AttendanceStatisticsPC.xlsx</t>
+  </si>
+  <si>
+    <t>检查PC端考勤</t>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uth.xlsx</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auth_17</t>
+  </si>
+  <si>
+    <t>切换到测试17登录</t>
+  </si>
+  <si>
+    <t>AttendanceIn_05</t>
+  </si>
+  <si>
+    <t>AttendanceOut_04</t>
+  </si>
+  <si>
+    <t>AttendanceIn_06</t>
+  </si>
+  <si>
+    <t>AttendanceOut_05</t>
+  </si>
+  <si>
+    <t>case_2</t>
+  </si>
+  <si>
+    <t>houlong</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换到测试13登录</t>
+  </si>
+  <si>
+    <t>AttendanceIn_07</t>
+  </si>
+  <si>
+    <t>AttendanceOut_06</t>
+  </si>
+  <si>
+    <t>OvertimeRequest_3</t>
+  </si>
+  <si>
+    <t>GetInstances</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>GetInstances</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.xlsx</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>GetInstanceInfo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_1</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttendanceIn_08</t>
+  </si>
+  <si>
+    <t>AttendanceOut_07</t>
+  </si>
+  <si>
+    <t>LeaveRequest_4</t>
+  </si>
+  <si>
+    <t>AttendanceIn_09</t>
+  </si>
+  <si>
+    <t>AttendanceOut_08</t>
+  </si>
+  <si>
+    <t>AttendanceIn_10</t>
+  </si>
+  <si>
+    <t>AttendanceOut_09</t>
+  </si>
+  <si>
+    <t>LeaveRequest_5</t>
+  </si>
+  <si>
+    <t>GetInstances</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetInstanceInfo</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Approval_1</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>OvertimeRequest_4</t>
+  </si>
+  <si>
+    <t>AttendanceIn_11</t>
+  </si>
+  <si>
+    <t>AttendanceOut_10</t>
+  </si>
+  <si>
+    <t>TripRequest_1</t>
+  </si>
+  <si>
+    <t>GetInstances_09</t>
+  </si>
+  <si>
+    <t>AttendanceIn_12</t>
+  </si>
+  <si>
+    <t>case_3</t>
+  </si>
+  <si>
+    <t>切换到测试15登录</t>
+  </si>
+  <si>
+    <t>TripRequest_2</t>
+  </si>
+  <si>
+    <t>OutRequest.xlsx</t>
+  </si>
+  <si>
+    <t>OutRequest_1</t>
+  </si>
+  <si>
+    <t>GetInstances_07</t>
+  </si>
+  <si>
+    <t>LeaveRequest_6</t>
+  </si>
+  <si>
+    <t>LeaveRequest_7</t>
+  </si>
+  <si>
+    <t>Approval_1</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeaveRequest_8</t>
+  </si>
+  <si>
+    <t>获取审批详情</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_4</t>
+  </si>
+  <si>
+    <t>TransferIn_3</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>将侯龙调入到organization_3部门</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>EditSon_3</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置organization_3部门负责人</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auth_1</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>RequestTransfer</t>
+  </si>
+  <si>
+    <t>RequestTransfer.xlsx</t>
+  </si>
+  <si>
+    <t>RequestTransfer_01</t>
+  </si>
+  <si>
+    <t>转给测试10</t>
+  </si>
+  <si>
+    <t>Auth_10</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换测试10登录</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试10审批通过</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2396,37 +2921,40 @@
   </borders>
   <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
@@ -2438,113 +2966,113 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="9"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="9"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="7" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="14" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="14" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="14" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="14" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyFont="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="17">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="17">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -3759,7 +4287,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4570,17 +5098,17 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5379,8 +5907,182 @@
         <v>271</v>
       </c>
     </row>
+    <row r="59" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="43"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="48"/>
+      <c r="D59" s="43"/>
+    </row>
+    <row r="60" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B60" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D60" s="43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" s="43" t="s">
+        <v>547</v>
+      </c>
+      <c r="D61" s="43" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="43" t="s">
+        <v>549</v>
+      </c>
+      <c r="D62" s="43" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" s="41" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="41" t="s">
+        <v>364</v>
+      </c>
+      <c r="B63" s="45" t="s">
+        <v>365</v>
+      </c>
+      <c r="C63" s="45" t="s">
+        <v>366</v>
+      </c>
+      <c r="D63" s="43" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B64" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" s="43" t="s">
+        <v>378</v>
+      </c>
+      <c r="D64" s="43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B65" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C65" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D65" s="43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B66" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C66" s="43" t="s">
+        <v>551</v>
+      </c>
+      <c r="D66" s="43" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="43" t="s">
+        <v>552</v>
+      </c>
+      <c r="B67" s="43" t="s">
+        <v>553</v>
+      </c>
+      <c r="C67" s="43" t="s">
+        <v>554</v>
+      </c>
+      <c r="D67" s="43" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B68" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C68" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D68" s="43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B69" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D69" s="43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B70" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C70" s="43" t="s">
+        <v>556</v>
+      </c>
+      <c r="D70" s="43" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B71" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C71" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D71" s="43" t="s">
+        <v>558</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6190,7 +6892,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6199,7 +6901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
@@ -6247,7 +6949,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D3" s="43" t="s">
         <v>51</v>
@@ -6715,7 +7417,7 @@
     </row>
     <row r="38" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="43" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B38" s="43" t="s">
         <v>21</v>
@@ -6833,7 +7535,7 @@
         <v>41</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D46" s="43" t="s">
         <v>143</v>
@@ -6903,13 +7605,13 @@
     </row>
     <row r="52" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="43" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B52" s="43" t="s">
         <v>21</v>
       </c>
       <c r="C52" s="46" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D52" s="43" t="s">
         <v>385</v>
@@ -6923,7 +7625,7 @@
         <v>388</v>
       </c>
       <c r="C53" s="41" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D53" s="43" t="s">
         <v>386</v>
@@ -6979,7 +7681,7 @@
         <v>41</v>
       </c>
       <c r="C57" s="43" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D57" s="43" t="s">
         <v>144</v>
@@ -7013,10 +7715,10 @@
         <v>28</v>
       </c>
       <c r="C60" s="43" t="s">
+        <v>401</v>
+      </c>
+      <c r="D60" s="43" t="s">
         <v>402</v>
-      </c>
-      <c r="D60" s="43" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="61" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
@@ -7027,7 +7729,7 @@
         <v>388</v>
       </c>
       <c r="C61" s="41" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D61" s="43" t="s">
         <v>386</v>
@@ -7044,7 +7746,7 @@
         <v>390</v>
       </c>
       <c r="D62" s="43" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="63" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
@@ -7097,7 +7799,7 @@
         <v>28</v>
       </c>
       <c r="C66" s="43" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D66" s="43" t="s">
         <v>70</v>
@@ -7148,7 +7850,7 @@
         <v>214</v>
       </c>
       <c r="D70" s="43" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="71" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
@@ -7159,7 +7861,7 @@
         <v>388</v>
       </c>
       <c r="C71" s="41" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D71" s="43" t="s">
         <v>386</v>
@@ -7176,7 +7878,7 @@
         <v>390</v>
       </c>
       <c r="D72" s="43" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="73" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
@@ -7201,7 +7903,7 @@
         <v>28</v>
       </c>
       <c r="C74" s="43" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D74" s="43" t="s">
         <v>70</v>
@@ -7229,7 +7931,7 @@
         <v>28</v>
       </c>
       <c r="C76" s="43" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D76" s="43" t="s">
         <v>131</v>
@@ -7243,7 +7945,7 @@
         <v>41</v>
       </c>
       <c r="C77" s="43" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D77" s="43" t="s">
         <v>143</v>
@@ -7277,10 +7979,10 @@
         <v>28</v>
       </c>
       <c r="C80" s="43" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D80" s="43" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="81" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
@@ -7291,7 +7993,7 @@
         <v>388</v>
       </c>
       <c r="C81" s="41" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D81" s="43" t="s">
         <v>386</v>
@@ -7308,7 +8010,7 @@
         <v>390</v>
       </c>
       <c r="D82" s="43" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="83" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
@@ -7333,7 +8035,7 @@
         <v>28</v>
       </c>
       <c r="C84" s="43" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D84" s="43" t="s">
         <v>70</v>
@@ -7347,7 +8049,7 @@
         <v>41</v>
       </c>
       <c r="C85" s="43" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D85" s="43" t="s">
         <v>144</v>
@@ -7361,7 +8063,7 @@
         <v>28</v>
       </c>
       <c r="C86" s="43" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D86" s="43" t="s">
         <v>131</v>
@@ -7396,7 +8098,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7455,7 +8157,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D3" s="43" t="s">
         <v>51</v>
@@ -7643,10 +8345,10 @@
         <v>21</v>
       </c>
       <c r="C17" s="46" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D17" s="43" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -7665,16 +8367,16 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="41" t="s">
+        <v>412</v>
+      </c>
+      <c r="B19" s="41" t="s">
         <v>413</v>
       </c>
-      <c r="B19" s="41" t="s">
-        <v>414</v>
-      </c>
       <c r="C19" s="41" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D19" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -7685,7 +8387,7 @@
         <v>22</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D20" s="43" t="s">
         <v>64</v>
@@ -7923,16 +8625,16 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="43" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B38" s="43" t="s">
         <v>21</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D38" s="43" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -7951,16 +8653,16 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="41" t="s">
+        <v>412</v>
+      </c>
+      <c r="B40" s="41" t="s">
         <v>413</v>
       </c>
-      <c r="B40" s="41" t="s">
-        <v>414</v>
-      </c>
       <c r="C40" s="41" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D40" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -7971,7 +8673,7 @@
         <v>22</v>
       </c>
       <c r="C41" s="43" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D41" s="43" t="s">
         <v>64</v>
@@ -8041,7 +8743,7 @@
         <v>41</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D46" s="43" t="s">
         <v>143</v>
@@ -8111,30 +8813,30 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="43" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B52" s="43" t="s">
         <v>21</v>
       </c>
       <c r="C52" s="46" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D52" s="43" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="41" t="s">
+        <v>412</v>
+      </c>
+      <c r="B53" s="41" t="s">
         <v>413</v>
       </c>
-      <c r="B53" s="41" t="s">
-        <v>414</v>
-      </c>
       <c r="C53" s="41" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D53" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -8145,7 +8847,7 @@
         <v>22</v>
       </c>
       <c r="C54" s="43" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D54" s="43" t="s">
         <v>64</v>
@@ -8187,7 +8889,7 @@
         <v>41</v>
       </c>
       <c r="C57" s="43" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D57" s="43" t="s">
         <v>144</v>
@@ -8221,24 +8923,24 @@
         <v>28</v>
       </c>
       <c r="C60" s="43" t="s">
+        <v>401</v>
+      </c>
+      <c r="D60" s="43" t="s">
         <v>402</v>
-      </c>
-      <c r="D60" s="43" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="41" t="s">
+        <v>412</v>
+      </c>
+      <c r="B61" s="41" t="s">
         <v>413</v>
       </c>
-      <c r="B61" s="41" t="s">
+      <c r="C61" s="41" t="s">
         <v>414</v>
       </c>
-      <c r="C61" s="41" t="s">
-        <v>415</v>
-      </c>
       <c r="D61" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -8249,10 +8951,10 @@
         <v>22</v>
       </c>
       <c r="C62" s="43" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D62" s="43" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -8305,7 +9007,7 @@
         <v>28</v>
       </c>
       <c r="C66" s="43" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D66" s="43" t="s">
         <v>70</v>
@@ -8353,24 +9055,24 @@
         <v>28</v>
       </c>
       <c r="C70" s="43" t="s">
+        <v>401</v>
+      </c>
+      <c r="D70" s="43" t="s">
         <v>402</v>
-      </c>
-      <c r="D70" s="43" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="41" t="s">
+        <v>412</v>
+      </c>
+      <c r="B71" s="41" t="s">
         <v>413</v>
       </c>
-      <c r="B71" s="41" t="s">
-        <v>414</v>
-      </c>
       <c r="C71" s="41" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D71" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -8381,10 +9083,10 @@
         <v>22</v>
       </c>
       <c r="C72" s="43" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D72" s="43" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -8437,7 +9139,7 @@
         <v>28</v>
       </c>
       <c r="C76" s="43" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D76" s="43" t="s">
         <v>70</v>
@@ -8488,21 +9190,21 @@
         <v>214</v>
       </c>
       <c r="D80" s="43" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="41" t="s">
+        <v>412</v>
+      </c>
+      <c r="B81" s="41" t="s">
         <v>413</v>
       </c>
-      <c r="B81" s="41" t="s">
-        <v>414</v>
-      </c>
       <c r="C81" s="41" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D81" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -8513,10 +9215,10 @@
         <v>22</v>
       </c>
       <c r="C82" s="43" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D82" s="43" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -8541,7 +9243,7 @@
         <v>28</v>
       </c>
       <c r="C84" s="43" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D84" s="43" t="s">
         <v>70</v>
@@ -8569,7 +9271,7 @@
         <v>28</v>
       </c>
       <c r="C86" s="43" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D86" s="43" t="s">
         <v>131</v>
@@ -8583,7 +9285,7 @@
         <v>41</v>
       </c>
       <c r="C87" s="43" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D87" s="43" t="s">
         <v>143</v>
@@ -8617,24 +9319,24 @@
         <v>28</v>
       </c>
       <c r="C90" s="43" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D90" s="43" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="41" t="s">
+        <v>412</v>
+      </c>
+      <c r="B91" s="41" t="s">
         <v>413</v>
       </c>
-      <c r="B91" s="41" t="s">
-        <v>414</v>
-      </c>
       <c r="C91" s="41" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D91" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -8645,10 +9347,10 @@
         <v>22</v>
       </c>
       <c r="C92" s="43" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D92" s="43" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -8673,7 +9375,7 @@
         <v>28</v>
       </c>
       <c r="C94" s="43" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D94" s="43" t="s">
         <v>70</v>
@@ -8687,7 +9389,7 @@
         <v>41</v>
       </c>
       <c r="C95" s="43" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D95" s="43" t="s">
         <v>144</v>
@@ -8701,7 +9403,7 @@
         <v>28</v>
       </c>
       <c r="C96" s="43" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D96" s="43" t="s">
         <v>131</v>
@@ -8749,24 +9451,24 @@
         <v>28</v>
       </c>
       <c r="C100" s="43" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D100" s="43" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="41" t="s">
+        <v>412</v>
+      </c>
+      <c r="B101" s="41" t="s">
         <v>413</v>
       </c>
-      <c r="B101" s="41" t="s">
-        <v>414</v>
-      </c>
       <c r="C101" s="41" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D101" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -8777,10 +9479,10 @@
         <v>22</v>
       </c>
       <c r="C102" s="43" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D102" s="43" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -8805,7 +9507,7 @@
         <v>28</v>
       </c>
       <c r="C104" s="43" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D104" s="43" t="s">
         <v>70</v>
@@ -8819,7 +9521,7 @@
         <v>41</v>
       </c>
       <c r="C105" s="43" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D105" s="43" t="s">
         <v>144</v>
@@ -8833,7 +9535,7 @@
         <v>28</v>
       </c>
       <c r="C106" s="43" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D106" s="43" t="s">
         <v>131</v>
@@ -8868,7 +9570,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9114,10 +9816,10 @@
         <v>21</v>
       </c>
       <c r="C17" s="46" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D17" s="43" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -9136,16 +9838,16 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="41" t="s">
+        <v>423</v>
+      </c>
+      <c r="B19" s="41" t="s">
         <v>424</v>
       </c>
-      <c r="B19" s="41" t="s">
-        <v>425</v>
-      </c>
       <c r="C19" s="41" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D19" s="43" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -9156,7 +9858,7 @@
         <v>22</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D20" s="43" t="s">
         <v>64</v>
@@ -9403,7 +10105,7 @@
         <v>383</v>
       </c>
       <c r="D38" s="43" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -9422,16 +10124,16 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="41" t="s">
+        <v>423</v>
+      </c>
+      <c r="B40" s="41" t="s">
         <v>424</v>
-      </c>
-      <c r="B40" s="41" t="s">
-        <v>425</v>
       </c>
       <c r="C40" s="41" t="s">
         <v>383</v>
       </c>
       <c r="D40" s="43" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -9442,7 +10144,7 @@
         <v>22</v>
       </c>
       <c r="C41" s="43" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D41" s="43" t="s">
         <v>64</v>
@@ -9591,21 +10293,21 @@
         <v>384</v>
       </c>
       <c r="D52" s="43" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="41" t="s">
+        <v>423</v>
+      </c>
+      <c r="B53" s="41" t="s">
         <v>424</v>
-      </c>
-      <c r="B53" s="41" t="s">
-        <v>425</v>
       </c>
       <c r="C53" s="41" t="s">
         <v>384</v>
       </c>
       <c r="D53" s="43" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -9616,7 +10318,7 @@
         <v>22</v>
       </c>
       <c r="C54" s="43" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D54" s="43" t="s">
         <v>64</v>
@@ -9700,16 +10402,16 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="41" t="s">
+        <v>423</v>
+      </c>
+      <c r="B61" s="41" t="s">
         <v>424</v>
       </c>
-      <c r="B61" s="41" t="s">
+      <c r="C61" s="41" t="s">
         <v>425</v>
       </c>
-      <c r="C61" s="41" t="s">
-        <v>426</v>
-      </c>
       <c r="D61" s="43" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -9720,7 +10422,7 @@
         <v>22</v>
       </c>
       <c r="C62" s="43" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D62" s="43" t="s">
         <v>64</v>
@@ -9832,16 +10534,16 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="41" t="s">
+        <v>423</v>
+      </c>
+      <c r="B71" s="41" t="s">
         <v>424</v>
       </c>
-      <c r="B71" s="41" t="s">
-        <v>425</v>
-      </c>
       <c r="C71" s="41" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D71" s="43" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -9852,7 +10554,7 @@
         <v>22</v>
       </c>
       <c r="C72" s="43" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D72" s="43" t="s">
         <v>64</v>
@@ -9964,16 +10666,16 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="41" t="s">
+        <v>423</v>
+      </c>
+      <c r="B81" s="41" t="s">
         <v>424</v>
       </c>
-      <c r="B81" s="41" t="s">
-        <v>425</v>
-      </c>
       <c r="C81" s="41" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D81" s="43" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -9984,7 +10686,7 @@
         <v>22</v>
       </c>
       <c r="C82" s="43" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D82" s="43" t="s">
         <v>64</v>
@@ -10096,16 +10798,16 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="41" t="s">
+        <v>423</v>
+      </c>
+      <c r="B91" s="41" t="s">
         <v>424</v>
       </c>
-      <c r="B91" s="41" t="s">
-        <v>425</v>
-      </c>
       <c r="C91" s="41" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D91" s="43" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -10116,7 +10818,7 @@
         <v>22</v>
       </c>
       <c r="C92" s="43" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D92" s="43" t="s">
         <v>64</v>
@@ -10228,16 +10930,16 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="41" t="s">
+        <v>423</v>
+      </c>
+      <c r="B101" s="41" t="s">
         <v>424</v>
       </c>
-      <c r="B101" s="41" t="s">
-        <v>425</v>
-      </c>
       <c r="C101" s="41" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D101" s="43" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -10248,7 +10950,7 @@
         <v>22</v>
       </c>
       <c r="C102" s="43" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D102" s="43" t="s">
         <v>64</v>
@@ -10339,7 +11041,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -10347,10 +11049,2214 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="41" customWidth="1"/>
+    <col min="2" max="2" width="22.875" style="41" customWidth="1"/>
+    <col min="3" max="3" width="24.125" style="41" customWidth="1"/>
+    <col min="4" max="4" width="38.625" style="41" customWidth="1"/>
+    <col min="5" max="16384" width="11" style="41"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="42" t="s">
+        <v>432</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>433</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="43" t="s">
+        <v>434</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>435</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="43" t="s">
+        <v>436</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>437</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>208</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="49" t="s">
+        <v>439</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>440</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>441</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="41" t="s">
+        <v>443</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>444</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>445</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="41" t="s">
+        <v>443</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>444</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>447</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="41" t="s">
+        <v>443</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>444</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>448</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="43" t="s">
+        <v>328</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>329</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="43" t="s">
+        <v>328</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>329</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="43" t="s">
+        <v>328</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>329</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="43" t="s">
+        <v>328</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>329</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="43" t="s">
+        <v>328</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>329</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="43"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="41" t="s">
+        <v>459</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="41" t="s">
+        <v>461</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>462</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>463</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="41" t="s">
+        <v>461</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>462</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>465</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="41" t="s">
+        <v>461</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>462</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>467</v>
+      </c>
+      <c r="D19" s="41" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="B20" s="41" t="s">
+        <v>468</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>469</v>
+      </c>
+      <c r="D20" s="41" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>470</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="43" t="s">
+        <v>471</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="41" t="s">
+        <v>459</v>
+      </c>
+      <c r="B23" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="43" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="41" t="s">
+        <v>459</v>
+      </c>
+      <c r="B25" s="43" t="s">
+        <v>435</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D25" s="41" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="41" t="s">
+        <v>461</v>
+      </c>
+      <c r="B26" s="41" t="s">
+        <v>462</v>
+      </c>
+      <c r="C26" s="41" t="s">
+        <v>474</v>
+      </c>
+      <c r="D26" s="41" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="B27" s="41" t="s">
+        <v>475</v>
+      </c>
+      <c r="C27" s="41" t="s">
+        <v>476</v>
+      </c>
+      <c r="D27" s="41" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="43" t="s">
+        <v>477</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>478</v>
+      </c>
+      <c r="D28" s="43" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="43" t="s">
+        <v>471</v>
+      </c>
+      <c r="B29" s="43" t="s">
+        <v>480</v>
+      </c>
+      <c r="C29" s="43" t="s">
+        <v>481</v>
+      </c>
+      <c r="D29" s="43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="41" t="s">
+        <v>459</v>
+      </c>
+      <c r="B30" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D30" s="41" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="43" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="41" t="s">
+        <v>459</v>
+      </c>
+      <c r="B32" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D32" s="41" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="41" t="s">
+        <v>461</v>
+      </c>
+      <c r="B33" s="41" t="s">
+        <v>462</v>
+      </c>
+      <c r="C33" s="41" t="s">
+        <v>482</v>
+      </c>
+      <c r="D33" s="41" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="41" t="s">
+        <v>461</v>
+      </c>
+      <c r="B34" s="41" t="s">
+        <v>462</v>
+      </c>
+      <c r="C34" s="41" t="s">
+        <v>483</v>
+      </c>
+      <c r="D34" s="41" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="B35" s="41" t="s">
+        <v>468</v>
+      </c>
+      <c r="C35" s="41" t="s">
+        <v>484</v>
+      </c>
+      <c r="D35" s="41" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="43" t="s">
+        <v>470</v>
+      </c>
+      <c r="D36" s="43" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="43" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="41" t="s">
+        <v>459</v>
+      </c>
+      <c r="B38" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D38" s="41" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" s="43" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="41" t="s">
+        <v>459</v>
+      </c>
+      <c r="B40" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D40" s="41" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="41" t="s">
+        <v>461</v>
+      </c>
+      <c r="B41" s="41" t="s">
+        <v>462</v>
+      </c>
+      <c r="C41" s="41" t="s">
+        <v>485</v>
+      </c>
+      <c r="D41" s="41" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="B42" s="41" t="s">
+        <v>475</v>
+      </c>
+      <c r="C42" s="41" t="s">
+        <v>486</v>
+      </c>
+      <c r="D42" s="41" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="43" t="s">
+        <v>478</v>
+      </c>
+      <c r="D43" s="43" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" s="43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="41" t="s">
+        <v>459</v>
+      </c>
+      <c r="B45" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D45" s="41" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" s="43" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="41" t="s">
+        <v>459</v>
+      </c>
+      <c r="B47" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D47" s="41" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="41" t="s">
+        <v>487</v>
+      </c>
+      <c r="B48" s="41" t="s">
+        <v>488</v>
+      </c>
+      <c r="C48" s="41" t="s">
+        <v>489</v>
+      </c>
+      <c r="D48" s="41" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" s="43" t="s">
+        <v>491</v>
+      </c>
+      <c r="D49" s="43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B50" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50" s="43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="41" t="s">
+        <v>459</v>
+      </c>
+      <c r="B51" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D51" s="41" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B52" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C52" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D52" s="43" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="41" t="s">
+        <v>459</v>
+      </c>
+      <c r="B53" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D53" s="41" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="41" t="s">
+        <v>487</v>
+      </c>
+      <c r="B54" s="41" t="s">
+        <v>488</v>
+      </c>
+      <c r="C54" s="41" t="s">
+        <v>492</v>
+      </c>
+      <c r="D54" s="41" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B55" s="43" t="s">
+        <v>477</v>
+      </c>
+      <c r="C55" s="43" t="s">
+        <v>491</v>
+      </c>
+      <c r="D55" s="43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B56" s="43" t="s">
+        <v>493</v>
+      </c>
+      <c r="C56" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56" s="43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="41" t="s">
+        <v>459</v>
+      </c>
+      <c r="B57" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D57" s="41" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B58" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C58" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D58" s="43" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="41" t="s">
+        <v>459</v>
+      </c>
+      <c r="B59" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D59" s="41" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="41" t="s">
+        <v>487</v>
+      </c>
+      <c r="B60" s="41" t="s">
+        <v>488</v>
+      </c>
+      <c r="C60" s="41" t="s">
+        <v>494</v>
+      </c>
+      <c r="D60" s="41" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C61" s="43" t="s">
+        <v>491</v>
+      </c>
+      <c r="D61" s="43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B62" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D62" s="43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="41" t="s">
+        <v>459</v>
+      </c>
+      <c r="B63" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D63" s="41" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B64" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C64" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D64" s="43" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="41" t="s">
+        <v>459</v>
+      </c>
+      <c r="B65" s="43" t="s">
+        <v>435</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D65" s="41" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="41" t="s">
+        <v>495</v>
+      </c>
+      <c r="B66" s="41" t="s">
+        <v>496</v>
+      </c>
+      <c r="C66" s="41" t="s">
+        <v>497</v>
+      </c>
+      <c r="D66" s="41" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B67" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C67" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D67" s="43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="41" t="s">
+        <v>499</v>
+      </c>
+      <c r="B68" s="41" t="s">
+        <v>500</v>
+      </c>
+      <c r="C68" s="41" t="s">
+        <v>497</v>
+      </c>
+      <c r="D68" s="43" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="43"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="43"/>
+      <c r="D69" s="43"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="41" t="s">
+        <v>459</v>
+      </c>
+      <c r="B70" s="43" t="s">
+        <v>502</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="D70" s="41" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="41" t="s">
+        <v>461</v>
+      </c>
+      <c r="B71" s="41" t="s">
+        <v>462</v>
+      </c>
+      <c r="C71" s="41" t="s">
+        <v>505</v>
+      </c>
+      <c r="D71" s="41" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="41" t="s">
+        <v>461</v>
+      </c>
+      <c r="B72" s="41" t="s">
+        <v>462</v>
+      </c>
+      <c r="C72" s="41" t="s">
+        <v>506</v>
+      </c>
+      <c r="D72" s="41" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="41" t="s">
+        <v>461</v>
+      </c>
+      <c r="B73" s="41" t="s">
+        <v>462</v>
+      </c>
+      <c r="C73" s="41" t="s">
+        <v>507</v>
+      </c>
+      <c r="D73" s="41" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="41" t="s">
+        <v>461</v>
+      </c>
+      <c r="B74" s="41" t="s">
+        <v>462</v>
+      </c>
+      <c r="C74" s="41" t="s">
+        <v>508</v>
+      </c>
+      <c r="D74" s="41" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="41" t="s">
+        <v>495</v>
+      </c>
+      <c r="B75" s="41" t="s">
+        <v>496</v>
+      </c>
+      <c r="C75" s="41" t="s">
+        <v>509</v>
+      </c>
+      <c r="D75" s="41" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B76" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C76" s="43" t="s">
+        <v>510</v>
+      </c>
+      <c r="D76" s="43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="41" t="s">
+        <v>499</v>
+      </c>
+      <c r="B77" s="41" t="s">
+        <v>500</v>
+      </c>
+      <c r="C77" s="41" t="s">
+        <v>509</v>
+      </c>
+      <c r="D77" s="43" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="43"/>
+      <c r="B78" s="43"/>
+      <c r="C78" s="43"/>
+      <c r="D78" s="43"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="41" t="s">
+        <v>459</v>
+      </c>
+      <c r="B79" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D79" s="41" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="41" t="s">
+        <v>461</v>
+      </c>
+      <c r="B80" s="41" t="s">
+        <v>462</v>
+      </c>
+      <c r="C80" s="41" t="s">
+        <v>512</v>
+      </c>
+      <c r="D80" s="41" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="41" t="s">
+        <v>461</v>
+      </c>
+      <c r="B81" s="41" t="s">
+        <v>462</v>
+      </c>
+      <c r="C81" s="41" t="s">
+        <v>513</v>
+      </c>
+      <c r="D81" s="41" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="B82" s="41" t="s">
+        <v>468</v>
+      </c>
+      <c r="C82" s="41" t="s">
+        <v>514</v>
+      </c>
+      <c r="D82" s="41" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="43" t="s">
+        <v>515</v>
+      </c>
+      <c r="B83" s="43" t="s">
+        <v>516</v>
+      </c>
+      <c r="C83" s="43" t="s">
+        <v>470</v>
+      </c>
+      <c r="D83" s="43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="43" t="s">
+        <v>471</v>
+      </c>
+      <c r="B84" s="43" t="s">
+        <v>493</v>
+      </c>
+      <c r="C84" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="D84" s="43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="41" t="s">
+        <v>459</v>
+      </c>
+      <c r="B85" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D85" s="41" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B86" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C86" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D86" s="43" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="41" t="s">
+        <v>459</v>
+      </c>
+      <c r="B87" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D87" s="41" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="41" t="s">
+        <v>461</v>
+      </c>
+      <c r="B88" s="41" t="s">
+        <v>462</v>
+      </c>
+      <c r="C88" s="41" t="s">
+        <v>518</v>
+      </c>
+      <c r="D88" s="41" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="41" t="s">
+        <v>461</v>
+      </c>
+      <c r="B89" s="41" t="s">
+        <v>462</v>
+      </c>
+      <c r="C89" s="41" t="s">
+        <v>519</v>
+      </c>
+      <c r="D89" s="41" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="41" t="s">
+        <v>487</v>
+      </c>
+      <c r="B90" s="41" t="s">
+        <v>488</v>
+      </c>
+      <c r="C90" s="41" t="s">
+        <v>520</v>
+      </c>
+      <c r="D90" s="41" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B91" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C91" s="43" t="s">
+        <v>491</v>
+      </c>
+      <c r="D91" s="43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B92" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C92" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="D92" s="43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="41" t="s">
+        <v>459</v>
+      </c>
+      <c r="B93" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D93" s="41" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B94" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C94" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D94" s="43" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="41" t="s">
+        <v>459</v>
+      </c>
+      <c r="B95" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D95" s="41" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="41" t="s">
+        <v>461</v>
+      </c>
+      <c r="B96" s="41" t="s">
+        <v>462</v>
+      </c>
+      <c r="C96" s="41" t="s">
+        <v>521</v>
+      </c>
+      <c r="D96" s="41" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="41" t="s">
+        <v>461</v>
+      </c>
+      <c r="B97" s="41" t="s">
+        <v>462</v>
+      </c>
+      <c r="C97" s="41" t="s">
+        <v>522</v>
+      </c>
+      <c r="D97" s="41" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="41" t="s">
+        <v>461</v>
+      </c>
+      <c r="B98" s="41" t="s">
+        <v>462</v>
+      </c>
+      <c r="C98" s="41" t="s">
+        <v>523</v>
+      </c>
+      <c r="D98" s="41" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="41" t="s">
+        <v>461</v>
+      </c>
+      <c r="B99" s="41" t="s">
+        <v>462</v>
+      </c>
+      <c r="C99" s="41" t="s">
+        <v>524</v>
+      </c>
+      <c r="D99" s="41" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="41" t="s">
+        <v>487</v>
+      </c>
+      <c r="B100" s="41" t="s">
+        <v>488</v>
+      </c>
+      <c r="C100" s="41" t="s">
+        <v>525</v>
+      </c>
+      <c r="D100" s="41" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="43" t="s">
+        <v>526</v>
+      </c>
+      <c r="B101" s="43" t="s">
+        <v>516</v>
+      </c>
+      <c r="C101" s="43" t="s">
+        <v>491</v>
+      </c>
+      <c r="D101" s="43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="43" t="s">
+        <v>527</v>
+      </c>
+      <c r="B102" s="43" t="s">
+        <v>493</v>
+      </c>
+      <c r="C102" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D102" s="43" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="41" t="s">
+        <v>459</v>
+      </c>
+      <c r="B103" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D103" s="41" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B104" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C104" s="43" t="s">
+        <v>528</v>
+      </c>
+      <c r="D104" s="43" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="41" t="s">
+        <v>459</v>
+      </c>
+      <c r="B105" s="43" t="s">
+        <v>435</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D105" s="41" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="B106" s="41" t="s">
+        <v>468</v>
+      </c>
+      <c r="C106" s="41" t="s">
+        <v>529</v>
+      </c>
+      <c r="D106" s="41" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B107" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C107" s="43" t="s">
+        <v>470</v>
+      </c>
+      <c r="D107" s="43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B108" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C108" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D108" s="43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="41" t="s">
+        <v>459</v>
+      </c>
+      <c r="B109" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D109" s="41" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B110" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C110" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D110" s="43" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="41" t="s">
+        <v>459</v>
+      </c>
+      <c r="B111" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D111" s="41" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="41" t="s">
+        <v>461</v>
+      </c>
+      <c r="B112" s="41" t="s">
+        <v>462</v>
+      </c>
+      <c r="C112" s="41" t="s">
+        <v>530</v>
+      </c>
+      <c r="D112" s="41" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="41" t="s">
+        <v>461</v>
+      </c>
+      <c r="B113" s="41" t="s">
+        <v>462</v>
+      </c>
+      <c r="C113" s="41" t="s">
+        <v>531</v>
+      </c>
+      <c r="D113" s="41" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="41" t="s">
+        <v>275</v>
+      </c>
+      <c r="B114" s="41" t="s">
+        <v>276</v>
+      </c>
+      <c r="C114" s="41" t="s">
+        <v>532</v>
+      </c>
+      <c r="D114" s="41" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B115" s="43" t="s">
+        <v>477</v>
+      </c>
+      <c r="C115" s="43" t="s">
+        <v>533</v>
+      </c>
+      <c r="D115" s="43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="43" t="s">
+        <v>527</v>
+      </c>
+      <c r="B116" s="43" t="s">
+        <v>480</v>
+      </c>
+      <c r="C116" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D116" s="43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="41" t="s">
+        <v>459</v>
+      </c>
+      <c r="B117" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D117" s="41" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B118" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C118" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D118" s="43" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="41" t="s">
+        <v>459</v>
+      </c>
+      <c r="B119" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D119" s="41" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="41" t="s">
+        <v>461</v>
+      </c>
+      <c r="B120" s="41" t="s">
+        <v>462</v>
+      </c>
+      <c r="C120" s="41" t="s">
+        <v>534</v>
+      </c>
+      <c r="D120" s="41" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="41" t="s">
+        <v>495</v>
+      </c>
+      <c r="B121" s="41" t="s">
+        <v>496</v>
+      </c>
+      <c r="C121" s="41" t="s">
+        <v>535</v>
+      </c>
+      <c r="D121" s="41" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B122" s="43" t="s">
+        <v>435</v>
+      </c>
+      <c r="C122" s="43" t="s">
+        <v>510</v>
+      </c>
+      <c r="D122" s="43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="41" t="s">
+        <v>499</v>
+      </c>
+      <c r="B123" s="41" t="s">
+        <v>500</v>
+      </c>
+      <c r="C123" s="41" t="s">
+        <v>535</v>
+      </c>
+      <c r="D123" s="43" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="43"/>
+      <c r="B124" s="43"/>
+      <c r="C124" s="43"/>
+      <c r="D124" s="43"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="41" t="s">
+        <v>459</v>
+      </c>
+      <c r="B125" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D125" s="41" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="41" t="s">
+        <v>275</v>
+      </c>
+      <c r="B126" s="41" t="s">
+        <v>276</v>
+      </c>
+      <c r="C126" s="41" t="s">
+        <v>537</v>
+      </c>
+      <c r="D126" s="41" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B127" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C127" s="43" t="s">
+        <v>533</v>
+      </c>
+      <c r="D127" s="43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B128" s="43" t="s">
+        <v>480</v>
+      </c>
+      <c r="C128" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D128" s="43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="41" t="s">
+        <v>459</v>
+      </c>
+      <c r="B129" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D129" s="41" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B130" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C130" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D130" s="43" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" s="41" t="s">
+        <v>459</v>
+      </c>
+      <c r="B131" s="43" t="s">
+        <v>435</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D131" s="41" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="B132" s="41" t="s">
+        <v>538</v>
+      </c>
+      <c r="C132" s="41" t="s">
+        <v>539</v>
+      </c>
+      <c r="D132" s="41" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B133" s="43" t="s">
+        <v>516</v>
+      </c>
+      <c r="C133" s="43" t="s">
+        <v>540</v>
+      </c>
+      <c r="D133" s="43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="43" t="s">
+        <v>471</v>
+      </c>
+      <c r="B134" s="43" t="s">
+        <v>480</v>
+      </c>
+      <c r="C134" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D134" s="43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="41" t="s">
+        <v>459</v>
+      </c>
+      <c r="B135" s="43" t="s">
+        <v>502</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D135" s="41" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B136" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C136" s="43" t="s">
+        <v>528</v>
+      </c>
+      <c r="D136" s="43" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" s="41" t="s">
+        <v>459</v>
+      </c>
+      <c r="B137" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D137" s="41" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" s="41" t="s">
+        <v>487</v>
+      </c>
+      <c r="B138" s="41" t="s">
+        <v>488</v>
+      </c>
+      <c r="C138" s="41" t="s">
+        <v>541</v>
+      </c>
+      <c r="D138" s="41" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B139" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C139" s="43" t="s">
+        <v>491</v>
+      </c>
+      <c r="D139" s="43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" s="43" t="s">
+        <v>527</v>
+      </c>
+      <c r="B140" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C140" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D140" s="43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="41" t="s">
+        <v>459</v>
+      </c>
+      <c r="B141" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D141" s="41" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B142" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C142" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D142" s="43" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" s="41" t="s">
+        <v>459</v>
+      </c>
+      <c r="B143" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D143" s="41" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" s="41" t="s">
+        <v>487</v>
+      </c>
+      <c r="B144" s="41" t="s">
+        <v>488</v>
+      </c>
+      <c r="C144" s="41" t="s">
+        <v>542</v>
+      </c>
+      <c r="D144" s="41" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" s="43" t="s">
+        <v>526</v>
+      </c>
+      <c r="B145" s="43" t="s">
+        <v>516</v>
+      </c>
+      <c r="C145" s="43" t="s">
+        <v>491</v>
+      </c>
+      <c r="D145" s="43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B146" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C146" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D146" s="43" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" s="41" t="s">
+        <v>459</v>
+      </c>
+      <c r="B147" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D147" s="41" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B148" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C148" s="43" t="s">
+        <v>543</v>
+      </c>
+      <c r="D148" s="43" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" s="41" t="s">
+        <v>459</v>
+      </c>
+      <c r="B149" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D149" s="41" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" s="41" t="s">
+        <v>487</v>
+      </c>
+      <c r="B150" s="41" t="s">
+        <v>488</v>
+      </c>
+      <c r="C150" s="41" t="s">
+        <v>544</v>
+      </c>
+      <c r="D150" s="41" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B151" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C151" s="43" t="s">
+        <v>491</v>
+      </c>
+      <c r="D151" s="43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B152" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C152" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D152" s="43" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" s="41" t="s">
+        <v>459</v>
+      </c>
+      <c r="B153" s="43" t="s">
+        <v>435</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D153" s="41" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B154" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C154" s="43" t="s">
+        <v>543</v>
+      </c>
+      <c r="D154" s="43" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" s="41" t="s">
+        <v>459</v>
+      </c>
+      <c r="B155" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D155" s="41" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" s="41" t="s">
+        <v>495</v>
+      </c>
+      <c r="B156" s="41" t="s">
+        <v>496</v>
+      </c>
+      <c r="C156" s="41" t="s">
+        <v>546</v>
+      </c>
+      <c r="D156" s="41" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B157" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C157" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D157" s="43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" s="41" t="s">
+        <v>499</v>
+      </c>
+      <c r="B158" s="41" t="s">
+        <v>500</v>
+      </c>
+      <c r="C158" s="41" t="s">
+        <v>546</v>
+      </c>
+      <c r="D158" s="43" t="s">
+        <v>501</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10386,96 +13292,8 @@
         <v>382</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="47" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="47" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="47" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="47" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="47" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="47" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="47" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="47" t="s">
-        <v>384</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11356,7 +14174,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -12891,7 +15709,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -14258,7 +17076,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15388,7 +18206,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -16213,7 +19031,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -17461,7 +20279,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18841,7 +21659,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19652,7 +22470,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/sources/case/Smoke.xlsx
+++ b/sources/case/Smoke.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="7140" firstSheet="10" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="7140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="adjust" sheetId="1" r:id="rId1"/>
@@ -13255,7 +13255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -13302,8 +13302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/sources/case/Smoke.xlsx
+++ b/sources/case/Smoke.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="7140" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="7140" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="adjust" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5211" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5227" uniqueCount="564">
   <si>
     <t>FilePath</t>
     <phoneticPr fontId="13" type="noConversion"/>
@@ -2756,6 +2756,38 @@
   </si>
   <si>
     <t>测试10审批通过</t>
+  </si>
+  <si>
+    <r>
+      <t>Reshuffle_logs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.xlsx</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>reshuffle_logs</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>reshuffle_logs_Adjust</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证发展轨迹</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>reshuffle_logs_Formal</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3371,10 +3403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4284,6 +4316,20 @@
       </c>
       <c r="D66" s="2" t="s">
         <v>271</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="43" t="s">
+        <v>560</v>
+      </c>
+      <c r="B67" s="43" t="s">
+        <v>559</v>
+      </c>
+      <c r="C67" s="43" t="s">
+        <v>561</v>
+      </c>
+      <c r="D67" s="43" t="s">
+        <v>562</v>
       </c>
     </row>
   </sheetData>
@@ -5107,8 +5153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13300,10 +13346,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13867,240 +13913,240 @@
         <v>271</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
+    <row r="41" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="43" t="s">
+        <v>560</v>
+      </c>
+      <c r="B41" s="43" t="s">
+        <v>559</v>
+      </c>
+      <c r="C41" s="43" t="s">
+        <v>563</v>
+      </c>
+      <c r="D41" s="43" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>82</v>
+        <v>28</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>107</v>
+        <v>21</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>146</v>
+        <v>35</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>50</v>
+        <v>132</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C51" s="23" t="s">
+      <c r="C52" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>70</v>
+    <row r="53" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="43" t="s">
+        <v>560</v>
+      </c>
+      <c r="B53" s="43" t="s">
+        <v>559</v>
+      </c>
+      <c r="C53" s="43" t="s">
+        <v>563</v>
+      </c>
+      <c r="D53" s="43" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>26</v>
+        <v>154</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>146</v>
+        <v>26</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -14111,10 +14157,10 @@
         <v>28</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>152</v>
+        <v>33</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>147</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -14125,10 +14171,10 @@
         <v>41</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>50</v>
+        <v>146</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>148</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -14139,38 +14185,80 @@
         <v>28</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>153</v>
+        <v>50</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B65" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C63" s="23" t="s">
+      <c r="C65" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D65" s="2" t="s">
         <v>271</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="43" t="s">
+        <v>560</v>
+      </c>
+      <c r="B66" s="43" t="s">
+        <v>559</v>
+      </c>
+      <c r="C66" s="43" t="s">
+        <v>563</v>
+      </c>
+      <c r="D66" s="43" t="s">
+        <v>562</v>
       </c>
     </row>
   </sheetData>

--- a/sources/case/Smoke.xlsx
+++ b/sources/case/Smoke.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="7140" firstSheet="4" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="7140" firstSheet="12" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="adjust" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,10 @@
     <sheet name="reimbursement" sheetId="16" r:id="rId14"/>
     <sheet name="payment" sheetId="17" r:id="rId15"/>
     <sheet name="Attendance" sheetId="18" r:id="rId16"/>
-    <sheet name="Temp" sheetId="4" r:id="rId17"/>
+    <sheet name="AttendanceOut" sheetId="20" r:id="rId17"/>
+    <sheet name="Temp" sheetId="4" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5227" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5256" uniqueCount="582">
   <si>
     <t>FilePath</t>
     <phoneticPr fontId="13" type="noConversion"/>
@@ -2296,9 +2297,6 @@
     <t>Locations.xlsx</t>
   </si>
   <si>
-    <t>Locations_Add_01</t>
-  </si>
-  <si>
     <t>设置打卡地点</t>
   </si>
   <si>
@@ -2381,9 +2379,6 @@
   </si>
   <si>
     <t>OvertimeRequest_1</t>
-  </si>
-  <si>
-    <t>GetInstances_08</t>
   </si>
   <si>
     <t>GetInstanceInfo</t>
@@ -2422,9 +2417,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>GetInstances_06</t>
-  </si>
-  <si>
     <t>获取发起的审批列表</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -2488,9 +2480,6 @@
     <t>发起请假审批</t>
   </si>
   <si>
-    <t>GetInstances_05</t>
-  </si>
-  <si>
     <t>LeaveRequest_2</t>
   </si>
   <si>
@@ -2671,9 +2660,6 @@
     <t>TripRequest_1</t>
   </si>
   <si>
-    <t>GetInstances_09</t>
-  </si>
-  <si>
     <t>AttendanceIn_12</t>
   </si>
   <si>
@@ -2692,9 +2678,6 @@
     <t>OutRequest_1</t>
   </si>
   <si>
-    <t>GetInstances_07</t>
-  </si>
-  <si>
     <t>LeaveRequest_6</t>
   </si>
   <si>
@@ -2703,9 +2686,6 @@
   <si>
     <t>Approval_1</t>
     <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>LeaveRequest_8</t>
   </si>
   <si>
     <t>获取审批详情</t>
@@ -2787,6 +2767,97 @@
   </si>
   <si>
     <t>reshuffle_logs_Formal</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>FilePath</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Case</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换侯龙登录</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttendanceOut</t>
+  </si>
+  <si>
+    <t>AttendanceOut.xlsx</t>
+  </si>
+  <si>
+    <t>AttendanceOut_1</t>
+  </si>
+  <si>
+    <t>外勤打卡</t>
+  </si>
+  <si>
+    <t>AttendanceOutStatisticsAPP</t>
+  </si>
+  <si>
+    <t>AttendanceOutStatisticsAPP.xlsx</t>
+  </si>
+  <si>
+    <t>检查数据</t>
+  </si>
+  <si>
+    <t>Offboard_resign2</t>
+  </si>
+  <si>
+    <t>Offboard_dismiss2</t>
+  </si>
+  <si>
+    <t>Offboard_resign1</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetSchedule.xlsx</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetInstances_6</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetInstances_7</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetInstances_4</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetInstances_4</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetInstances_6</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetInstances_8</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetInstances_8</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetInstances_5</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Locations_Add_01</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeaveRequest_8</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -2951,7 +3022,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="18">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -2996,6 +3067,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3097,21 +3171,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="17">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="18">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="18">
+  <cellStyles count="19">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 10" xfId="15"/>
     <cellStyle name="常规 11" xfId="16"/>
     <cellStyle name="常规 12" xfId="17"/>
+    <cellStyle name="常规 13" xfId="18"/>
     <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="常规 3" xfId="1"/>
     <cellStyle name="常规 3 2" xfId="4"/>
@@ -4320,16 +4395,16 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="43" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="B67" s="43" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="C67" s="43" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="D67" s="43" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
   </sheetData>
@@ -5153,8 +5228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5956,7 +6031,7 @@
     <row r="59" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="43"/>
       <c r="B59" s="43"/>
-      <c r="C59" s="48"/>
+      <c r="C59" s="47"/>
       <c r="D59" s="43"/>
     </row>
     <row r="60" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
@@ -5981,10 +6056,10 @@
         <v>4</v>
       </c>
       <c r="C61" s="43" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="D61" s="43" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
     </row>
     <row r="62" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
@@ -5995,10 +6070,10 @@
         <v>7</v>
       </c>
       <c r="C62" s="43" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="D62" s="43" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
     </row>
     <row r="63" spans="1:4" s="41" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -6051,7 +6126,7 @@
         <v>28</v>
       </c>
       <c r="C66" s="43" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="D66" s="43" t="s">
         <v>133</v>
@@ -6059,16 +6134,16 @@
     </row>
     <row r="67" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="43" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="B67" s="43" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="C67" s="43" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="D67" s="43" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
     </row>
     <row r="68" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
@@ -6107,10 +6182,10 @@
         <v>28</v>
       </c>
       <c r="C70" s="43" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="D70" s="43" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
     </row>
     <row r="71" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
@@ -6124,7 +6199,7 @@
         <v>42</v>
       </c>
       <c r="D71" s="43" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
     </row>
   </sheetData>
@@ -7632,7 +7707,7 @@
     <row r="50" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="43"/>
       <c r="B50" s="43"/>
-      <c r="C50" s="48"/>
+      <c r="C50" s="47"/>
       <c r="D50" s="43"/>
     </row>
     <row r="51" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
@@ -7740,7 +7815,7 @@
       <c r="B58" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C58" s="48" t="s">
+      <c r="C58" s="47" t="s">
         <v>273</v>
       </c>
       <c r="D58" s="43" t="s">
@@ -7872,7 +7947,7 @@
       <c r="B68" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C68" s="48" t="s">
+      <c r="C68" s="47" t="s">
         <v>273</v>
       </c>
       <c r="D68" s="43" t="s">
@@ -8004,7 +8079,7 @@
       <c r="B78" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C78" s="48" t="s">
+      <c r="C78" s="47" t="s">
         <v>273</v>
       </c>
       <c r="D78" s="43" t="s">
@@ -8136,7 +8211,7 @@
       <c r="B88" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C88" s="48" t="s">
+      <c r="C88" s="47" t="s">
         <v>273</v>
       </c>
       <c r="D88" s="43" t="s">
@@ -8642,7 +8717,7 @@
       <c r="B35" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="48" t="s">
+      <c r="C35" s="47" t="s">
         <v>273</v>
       </c>
       <c r="D35" s="43" t="s">
@@ -8652,7 +8727,7 @@
     <row r="36" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="43"/>
       <c r="B36" s="43"/>
-      <c r="C36" s="48"/>
+      <c r="C36" s="47"/>
       <c r="D36" s="43"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -8830,7 +8905,7 @@
       <c r="B49" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="48" t="s">
+      <c r="C49" s="47" t="s">
         <v>273</v>
       </c>
       <c r="D49" s="43" t="s">
@@ -8840,7 +8915,7 @@
     <row r="50" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="43"/>
       <c r="B50" s="43"/>
-      <c r="C50" s="48"/>
+      <c r="C50" s="47"/>
       <c r="D50" s="43"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -8948,7 +9023,7 @@
       <c r="B58" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C58" s="48" t="s">
+      <c r="C58" s="47" t="s">
         <v>273</v>
       </c>
       <c r="D58" s="43" t="s">
@@ -9080,7 +9155,7 @@
       <c r="B68" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C68" s="48" t="s">
+      <c r="C68" s="47" t="s">
         <v>273</v>
       </c>
       <c r="D68" s="43" t="s">
@@ -9212,7 +9287,7 @@
       <c r="B78" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C78" s="48" t="s">
+      <c r="C78" s="47" t="s">
         <v>273</v>
       </c>
       <c r="D78" s="43" t="s">
@@ -9344,7 +9419,7 @@
       <c r="B88" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C88" s="48" t="s">
+      <c r="C88" s="47" t="s">
         <v>273</v>
       </c>
       <c r="D88" s="43" t="s">
@@ -9476,7 +9551,7 @@
       <c r="B98" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C98" s="48" t="s">
+      <c r="C98" s="47" t="s">
         <v>273</v>
       </c>
       <c r="D98" s="43" t="s">
@@ -9608,7 +9683,7 @@
       <c r="B108" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C108" s="48" t="s">
+      <c r="C108" s="47" t="s">
         <v>273</v>
       </c>
       <c r="D108" s="43" t="s">
@@ -10113,7 +10188,7 @@
       <c r="B35" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="48" t="s">
+      <c r="C35" s="47" t="s">
         <v>273</v>
       </c>
       <c r="D35" s="43" t="s">
@@ -10123,7 +10198,7 @@
     <row r="36" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="43"/>
       <c r="B36" s="43"/>
-      <c r="C36" s="48"/>
+      <c r="C36" s="47"/>
       <c r="D36" s="43"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -10301,7 +10376,7 @@
       <c r="B49" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="48" t="s">
+      <c r="C49" s="47" t="s">
         <v>273</v>
       </c>
       <c r="D49" s="43" t="s">
@@ -10311,7 +10386,7 @@
     <row r="50" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="43"/>
       <c r="B50" s="43"/>
-      <c r="C50" s="48"/>
+      <c r="C50" s="47"/>
       <c r="D50" s="43"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -10419,7 +10494,7 @@
       <c r="B58" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C58" s="48" t="s">
+      <c r="C58" s="47" t="s">
         <v>273</v>
       </c>
       <c r="D58" s="43" t="s">
@@ -10551,7 +10626,7 @@
       <c r="B68" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C68" s="48" t="s">
+      <c r="C68" s="47" t="s">
         <v>273</v>
       </c>
       <c r="D68" s="43" t="s">
@@ -10683,7 +10758,7 @@
       <c r="B78" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C78" s="48" t="s">
+      <c r="C78" s="47" t="s">
         <v>273</v>
       </c>
       <c r="D78" s="43" t="s">
@@ -10815,7 +10890,7 @@
       <c r="B88" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C88" s="48" t="s">
+      <c r="C88" s="47" t="s">
         <v>273</v>
       </c>
       <c r="D88" s="43" t="s">
@@ -10947,7 +11022,7 @@
       <c r="B98" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C98" s="48" t="s">
+      <c r="C98" s="47" t="s">
         <v>273</v>
       </c>
       <c r="D98" s="43" t="s">
@@ -11079,7 +11154,7 @@
       <c r="B108" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C108" s="48" t="s">
+      <c r="C108" s="47" t="s">
         <v>273</v>
       </c>
       <c r="D108" s="43" t="s">
@@ -11097,8 +11172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D158"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11181,59 +11256,59 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="48" t="s">
         <v>439</v>
       </c>
       <c r="B6" s="41" t="s">
         <v>440</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="48" t="s">
+        <v>580</v>
+      </c>
+      <c r="D6" s="41" t="s">
         <v>441</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="41" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B7" s="41" t="s">
+        <v>571</v>
+      </c>
+      <c r="C7" s="41" t="s">
         <v>444</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="D7" s="41" t="s">
         <v>445</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="41" t="s">
+        <v>442</v>
+      </c>
+      <c r="B8" s="41" t="s">
         <v>443</v>
       </c>
-      <c r="B8" s="41" t="s">
-        <v>444</v>
-      </c>
       <c r="C8" s="41" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="41" t="s">
+        <v>442</v>
+      </c>
+      <c r="B9" s="41" t="s">
         <v>443</v>
       </c>
-      <c r="B9" s="41" t="s">
-        <v>444</v>
-      </c>
       <c r="C9" s="41" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -11244,10 +11319,10 @@
         <v>329</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D10" s="43" t="s">
         <v>449</v>
-      </c>
-      <c r="D10" s="43" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -11258,10 +11333,10 @@
         <v>329</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="D11" s="43" t="s">
         <v>451</v>
-      </c>
-      <c r="D11" s="43" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -11272,10 +11347,10 @@
         <v>329</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="D12" s="43" t="s">
         <v>453</v>
-      </c>
-      <c r="D12" s="43" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -11286,10 +11361,10 @@
         <v>329</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="D13" s="43" t="s">
         <v>455</v>
-      </c>
-      <c r="D13" s="43" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -11300,10 +11375,10 @@
         <v>329</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="D14" s="43" t="s">
         <v>457</v>
-      </c>
-      <c r="D14" s="43" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -11314,7 +11389,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="41" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B16" s="43" t="s">
         <v>28</v>
@@ -11323,49 +11398,49 @@
         <v>130</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="41" t="s">
+        <v>460</v>
+      </c>
+      <c r="B17" s="41" t="s">
         <v>461</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="C17" s="41" t="s">
         <v>462</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="D17" s="41" t="s">
         <v>463</v>
-      </c>
-      <c r="D17" s="41" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="41" t="s">
+        <v>460</v>
+      </c>
+      <c r="B18" s="41" t="s">
         <v>461</v>
       </c>
-      <c r="B18" s="41" t="s">
-        <v>462</v>
-      </c>
       <c r="C18" s="41" t="s">
+        <v>464</v>
+      </c>
+      <c r="D18" s="41" t="s">
         <v>465</v>
-      </c>
-      <c r="D18" s="41" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="41" t="s">
+        <v>460</v>
+      </c>
+      <c r="B19" s="41" t="s">
         <v>461</v>
       </c>
-      <c r="B19" s="41" t="s">
-        <v>462</v>
-      </c>
       <c r="C19" s="41" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D19" s="41" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -11373,10 +11448,10 @@
         <v>242</v>
       </c>
       <c r="B20" s="41" t="s">
+        <v>467</v>
+      </c>
+      <c r="C20" s="41" t="s">
         <v>468</v>
-      </c>
-      <c r="C20" s="41" t="s">
-        <v>469</v>
       </c>
       <c r="D20" s="41" t="s">
         <v>256</v>
@@ -11390,7 +11465,7 @@
         <v>22</v>
       </c>
       <c r="C21" s="43" t="s">
-        <v>470</v>
+        <v>572</v>
       </c>
       <c r="D21" s="43" t="s">
         <v>64</v>
@@ -11398,7 +11473,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="43" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B22" s="43" t="s">
         <v>25</v>
@@ -11407,12 +11482,12 @@
         <v>26</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="41" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B23" s="43" t="s">
         <v>28</v>
@@ -11421,7 +11496,7 @@
         <v>346</v>
       </c>
       <c r="D23" s="41" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -11440,7 +11515,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="41" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B25" s="43" t="s">
         <v>435</v>
@@ -11449,21 +11524,21 @@
         <v>130</v>
       </c>
       <c r="D25" s="41" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="41" t="s">
+        <v>460</v>
+      </c>
+      <c r="B26" s="41" t="s">
         <v>461</v>
       </c>
-      <c r="B26" s="41" t="s">
-        <v>462</v>
-      </c>
       <c r="C26" s="41" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D26" s="41" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -11471,10 +11546,10 @@
         <v>236</v>
       </c>
       <c r="B27" s="41" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C27" s="41" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D27" s="41" t="s">
         <v>268</v>
@@ -11485,24 +11560,24 @@
         <v>24</v>
       </c>
       <c r="B28" s="43" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C28" s="43" t="s">
-        <v>478</v>
+        <v>573</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="43" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B29" s="43" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C29" s="43" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D29" s="43" t="s">
         <v>65</v>
@@ -11510,7 +11585,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="41" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B30" s="43" t="s">
         <v>28</v>
@@ -11519,7 +11594,7 @@
         <v>346</v>
       </c>
       <c r="D30" s="41" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -11538,7 +11613,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="41" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B32" s="43" t="s">
         <v>28</v>
@@ -11547,35 +11622,35 @@
         <v>130</v>
       </c>
       <c r="D32" s="41" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="41" t="s">
+        <v>460</v>
+      </c>
+      <c r="B33" s="41" t="s">
         <v>461</v>
       </c>
-      <c r="B33" s="41" t="s">
-        <v>462</v>
-      </c>
       <c r="C33" s="41" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D33" s="41" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="41" t="s">
+        <v>460</v>
+      </c>
+      <c r="B34" s="41" t="s">
         <v>461</v>
       </c>
-      <c r="B34" s="41" t="s">
-        <v>462</v>
-      </c>
       <c r="C34" s="41" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D34" s="41" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -11583,10 +11658,10 @@
         <v>242</v>
       </c>
       <c r="B35" s="41" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C35" s="41" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D35" s="41" t="s">
         <v>256</v>
@@ -11600,10 +11675,10 @@
         <v>22</v>
       </c>
       <c r="C36" s="43" t="s">
-        <v>470</v>
+        <v>572</v>
       </c>
       <c r="D36" s="43" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -11617,12 +11692,12 @@
         <v>26</v>
       </c>
       <c r="D37" s="43" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="41" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B38" s="43" t="s">
         <v>28</v>
@@ -11631,7 +11706,7 @@
         <v>346</v>
       </c>
       <c r="D38" s="41" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -11650,7 +11725,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="41" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B40" s="43" t="s">
         <v>28</v>
@@ -11659,21 +11734,21 @@
         <v>130</v>
       </c>
       <c r="D40" s="41" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="41" t="s">
+        <v>460</v>
+      </c>
+      <c r="B41" s="41" t="s">
         <v>461</v>
       </c>
-      <c r="B41" s="41" t="s">
-        <v>462</v>
-      </c>
       <c r="C41" s="41" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D41" s="41" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -11681,10 +11756,10 @@
         <v>236</v>
       </c>
       <c r="B42" s="41" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C42" s="41" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D42" s="41" t="s">
         <v>268</v>
@@ -11698,10 +11773,10 @@
         <v>22</v>
       </c>
       <c r="C43" s="43" t="s">
-        <v>478</v>
+        <v>573</v>
       </c>
       <c r="D43" s="43" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -11720,7 +11795,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="41" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B45" s="43" t="s">
         <v>28</v>
@@ -11729,7 +11804,7 @@
         <v>346</v>
       </c>
       <c r="D45" s="41" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -11748,7 +11823,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="41" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B47" s="43" t="s">
         <v>28</v>
@@ -11757,21 +11832,21 @@
         <v>130</v>
       </c>
       <c r="D47" s="41" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="41" t="s">
+        <v>484</v>
+      </c>
+      <c r="B48" s="41" t="s">
+        <v>485</v>
+      </c>
+      <c r="C48" s="41" t="s">
+        <v>486</v>
+      </c>
+      <c r="D48" s="41" t="s">
         <v>487</v>
-      </c>
-      <c r="B48" s="41" t="s">
-        <v>488</v>
-      </c>
-      <c r="C48" s="41" t="s">
-        <v>489</v>
-      </c>
-      <c r="D48" s="41" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -11782,7 +11857,7 @@
         <v>22</v>
       </c>
       <c r="C49" s="43" t="s">
-        <v>491</v>
+        <v>574</v>
       </c>
       <c r="D49" s="43" t="s">
         <v>64</v>
@@ -11804,7 +11879,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="41" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B51" s="43" t="s">
         <v>28</v>
@@ -11813,7 +11888,7 @@
         <v>346</v>
       </c>
       <c r="D51" s="41" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -11832,7 +11907,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="41" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B53" s="43" t="s">
         <v>28</v>
@@ -11841,21 +11916,21 @@
         <v>130</v>
       </c>
       <c r="D53" s="41" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="41" t="s">
+        <v>484</v>
+      </c>
+      <c r="B54" s="41" t="s">
+        <v>485</v>
+      </c>
+      <c r="C54" s="41" t="s">
+        <v>488</v>
+      </c>
+      <c r="D54" s="41" t="s">
         <v>487</v>
-      </c>
-      <c r="B54" s="41" t="s">
-        <v>488</v>
-      </c>
-      <c r="C54" s="41" t="s">
-        <v>492</v>
-      </c>
-      <c r="D54" s="41" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -11863,10 +11938,10 @@
         <v>24</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C55" s="43" t="s">
-        <v>491</v>
+        <v>574</v>
       </c>
       <c r="D55" s="43" t="s">
         <v>64</v>
@@ -11877,7 +11952,7 @@
         <v>34</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C56" s="43" t="s">
         <v>26</v>
@@ -11888,7 +11963,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="41" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B57" s="43" t="s">
         <v>28</v>
@@ -11897,7 +11972,7 @@
         <v>346</v>
       </c>
       <c r="D57" s="41" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -11916,7 +11991,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="41" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B59" s="43" t="s">
         <v>28</v>
@@ -11925,21 +12000,21 @@
         <v>130</v>
       </c>
       <c r="D59" s="41" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="41" t="s">
+        <v>484</v>
+      </c>
+      <c r="B60" s="41" t="s">
+        <v>485</v>
+      </c>
+      <c r="C60" s="41" t="s">
+        <v>490</v>
+      </c>
+      <c r="D60" s="41" t="s">
         <v>487</v>
-      </c>
-      <c r="B60" s="41" t="s">
-        <v>488</v>
-      </c>
-      <c r="C60" s="41" t="s">
-        <v>494</v>
-      </c>
-      <c r="D60" s="41" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -11950,7 +12025,7 @@
         <v>22</v>
       </c>
       <c r="C61" s="43" t="s">
-        <v>491</v>
+        <v>575</v>
       </c>
       <c r="D61" s="43" t="s">
         <v>64</v>
@@ -11972,7 +12047,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="41" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B63" s="43" t="s">
         <v>28</v>
@@ -11981,7 +12056,7 @@
         <v>346</v>
       </c>
       <c r="D63" s="41" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -12000,7 +12075,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="41" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B65" s="43" t="s">
         <v>435</v>
@@ -12009,21 +12084,21 @@
         <v>130</v>
       </c>
       <c r="D65" s="41" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="41" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B66" s="41" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C66" s="41" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="D66" s="41" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -12042,16 +12117,16 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="41" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B68" s="41" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C68" s="41" t="s">
+        <v>493</v>
+      </c>
+      <c r="D68" s="43" t="s">
         <v>497</v>
-      </c>
-      <c r="D68" s="43" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -12062,86 +12137,86 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="41" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B70" s="43" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D70" s="41" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="41" t="s">
+        <v>460</v>
+      </c>
+      <c r="B71" s="41" t="s">
         <v>461</v>
       </c>
-      <c r="B71" s="41" t="s">
-        <v>462</v>
-      </c>
       <c r="C71" s="41" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D71" s="41" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="41" t="s">
+        <v>460</v>
+      </c>
+      <c r="B72" s="41" t="s">
         <v>461</v>
       </c>
-      <c r="B72" s="41" t="s">
-        <v>462</v>
-      </c>
       <c r="C72" s="41" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D72" s="41" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="41" t="s">
+        <v>460</v>
+      </c>
+      <c r="B73" s="41" t="s">
         <v>461</v>
       </c>
-      <c r="B73" s="41" t="s">
-        <v>462</v>
-      </c>
       <c r="C73" s="41" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D73" s="41" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="41" t="s">
+        <v>460</v>
+      </c>
+      <c r="B74" s="41" t="s">
         <v>461</v>
       </c>
-      <c r="B74" s="41" t="s">
-        <v>462</v>
-      </c>
       <c r="C74" s="41" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D74" s="41" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="41" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B75" s="41" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C75" s="41" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="D75" s="41" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -12152,7 +12227,7 @@
         <v>28</v>
       </c>
       <c r="C76" s="43" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D76" s="43" t="s">
         <v>70</v>
@@ -12160,16 +12235,16 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="41" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B77" s="41" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C77" s="41" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="D77" s="43" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -12180,7 +12255,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="41" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B79" s="43" t="s">
         <v>28</v>
@@ -12189,35 +12264,35 @@
         <v>31</v>
       </c>
       <c r="D79" s="41" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="41" t="s">
+        <v>460</v>
+      </c>
+      <c r="B80" s="41" t="s">
         <v>461</v>
       </c>
-      <c r="B80" s="41" t="s">
-        <v>462</v>
-      </c>
       <c r="C80" s="41" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D80" s="41" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="41" t="s">
+        <v>460</v>
+      </c>
+      <c r="B81" s="41" t="s">
         <v>461</v>
       </c>
-      <c r="B81" s="41" t="s">
-        <v>462</v>
-      </c>
       <c r="C81" s="41" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D81" s="41" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -12225,10 +12300,10 @@
         <v>242</v>
       </c>
       <c r="B82" s="41" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C82" s="41" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D82" s="41" t="s">
         <v>256</v>
@@ -12236,13 +12311,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="43" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B83" s="43" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C83" s="43" t="s">
-        <v>470</v>
+        <v>576</v>
       </c>
       <c r="D83" s="43" t="s">
         <v>64</v>
@@ -12250,13 +12325,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="43" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B84" s="43" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C84" s="43" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D84" s="43" t="s">
         <v>65</v>
@@ -12264,7 +12339,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="41" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B85" s="43" t="s">
         <v>28</v>
@@ -12273,7 +12348,7 @@
         <v>346</v>
       </c>
       <c r="D85" s="41" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -12292,7 +12367,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="41" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B87" s="43" t="s">
         <v>28</v>
@@ -12301,49 +12376,49 @@
         <v>31</v>
       </c>
       <c r="D87" s="41" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="41" t="s">
+        <v>460</v>
+      </c>
+      <c r="B88" s="41" t="s">
         <v>461</v>
       </c>
-      <c r="B88" s="41" t="s">
-        <v>462</v>
-      </c>
       <c r="C88" s="41" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="D88" s="41" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="41" t="s">
+        <v>460</v>
+      </c>
+      <c r="B89" s="41" t="s">
         <v>461</v>
       </c>
-      <c r="B89" s="41" t="s">
-        <v>462</v>
-      </c>
       <c r="C89" s="41" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D89" s="41" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="41" t="s">
+        <v>484</v>
+      </c>
+      <c r="B90" s="41" t="s">
+        <v>485</v>
+      </c>
+      <c r="C90" s="41" t="s">
+        <v>516</v>
+      </c>
+      <c r="D90" s="41" t="s">
         <v>487</v>
-      </c>
-      <c r="B90" s="41" t="s">
-        <v>488</v>
-      </c>
-      <c r="C90" s="41" t="s">
-        <v>520</v>
-      </c>
-      <c r="D90" s="41" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -12354,7 +12429,7 @@
         <v>22</v>
       </c>
       <c r="C91" s="43" t="s">
-        <v>491</v>
+        <v>575</v>
       </c>
       <c r="D91" s="43" t="s">
         <v>64</v>
@@ -12368,7 +12443,7 @@
         <v>25</v>
       </c>
       <c r="C92" s="43" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D92" s="43" t="s">
         <v>65</v>
@@ -12376,7 +12451,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="41" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B93" s="43" t="s">
         <v>28</v>
@@ -12385,7 +12460,7 @@
         <v>346</v>
       </c>
       <c r="D93" s="41" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -12404,7 +12479,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="41" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B95" s="43" t="s">
         <v>28</v>
@@ -12413,88 +12488,88 @@
         <v>31</v>
       </c>
       <c r="D95" s="41" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="41" t="s">
+        <v>460</v>
+      </c>
+      <c r="B96" s="41" t="s">
         <v>461</v>
       </c>
-      <c r="B96" s="41" t="s">
-        <v>462</v>
-      </c>
       <c r="C96" s="41" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="D96" s="41" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="41" t="s">
+        <v>460</v>
+      </c>
+      <c r="B97" s="41" t="s">
         <v>461</v>
       </c>
-      <c r="B97" s="41" t="s">
-        <v>462</v>
-      </c>
       <c r="C97" s="41" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="D97" s="41" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="41" t="s">
+        <v>460</v>
+      </c>
+      <c r="B98" s="41" t="s">
         <v>461</v>
       </c>
-      <c r="B98" s="41" t="s">
-        <v>462</v>
-      </c>
       <c r="C98" s="41" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="D98" s="41" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="41" t="s">
+        <v>460</v>
+      </c>
+      <c r="B99" s="41" t="s">
         <v>461</v>
       </c>
-      <c r="B99" s="41" t="s">
-        <v>462</v>
-      </c>
       <c r="C99" s="41" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="D99" s="41" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="41" t="s">
+        <v>484</v>
+      </c>
+      <c r="B100" s="41" t="s">
+        <v>485</v>
+      </c>
+      <c r="C100" s="41" t="s">
+        <v>521</v>
+      </c>
+      <c r="D100" s="41" t="s">
         <v>487</v>
-      </c>
-      <c r="B100" s="41" t="s">
-        <v>488</v>
-      </c>
-      <c r="C100" s="41" t="s">
-        <v>525</v>
-      </c>
-      <c r="D100" s="41" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="43" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B101" s="43" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C101" s="43" t="s">
-        <v>491</v>
+        <v>574</v>
       </c>
       <c r="D101" s="43" t="s">
         <v>64</v>
@@ -12502,21 +12577,21 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="43" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B102" s="43" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C102" s="43" t="s">
         <v>26</v>
       </c>
       <c r="D102" s="43" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="41" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B103" s="43" t="s">
         <v>28</v>
@@ -12525,7 +12600,7 @@
         <v>346</v>
       </c>
       <c r="D103" s="41" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -12536,7 +12611,7 @@
         <v>41</v>
       </c>
       <c r="C104" s="43" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="D104" s="43" t="s">
         <v>348</v>
@@ -12544,7 +12619,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="41" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B105" s="43" t="s">
         <v>435</v>
@@ -12553,7 +12628,7 @@
         <v>31</v>
       </c>
       <c r="D105" s="41" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -12561,10 +12636,10 @@
         <v>242</v>
       </c>
       <c r="B106" s="41" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C106" s="41" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="D106" s="41" t="s">
         <v>256</v>
@@ -12578,7 +12653,7 @@
         <v>22</v>
       </c>
       <c r="C107" s="43" t="s">
-        <v>470</v>
+        <v>572</v>
       </c>
       <c r="D107" s="43" t="s">
         <v>64</v>
@@ -12600,7 +12675,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="41" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B109" s="43" t="s">
         <v>28</v>
@@ -12609,7 +12684,7 @@
         <v>346</v>
       </c>
       <c r="D109" s="41" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -12628,7 +12703,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="41" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B111" s="43" t="s">
         <v>28</v>
@@ -12637,35 +12712,35 @@
         <v>31</v>
       </c>
       <c r="D111" s="41" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="41" t="s">
+        <v>460</v>
+      </c>
+      <c r="B112" s="41" t="s">
         <v>461</v>
       </c>
-      <c r="B112" s="41" t="s">
-        <v>462</v>
-      </c>
       <c r="C112" s="41" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D112" s="41" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="41" t="s">
+        <v>460</v>
+      </c>
+      <c r="B113" s="41" t="s">
         <v>461</v>
       </c>
-      <c r="B113" s="41" t="s">
-        <v>462</v>
-      </c>
       <c r="C113" s="41" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D113" s="41" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -12676,7 +12751,7 @@
         <v>276</v>
       </c>
       <c r="C114" s="41" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D114" s="41" t="s">
         <v>286</v>
@@ -12687,10 +12762,10 @@
         <v>24</v>
       </c>
       <c r="B115" s="43" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C115" s="43" t="s">
-        <v>533</v>
+        <v>577</v>
       </c>
       <c r="D115" s="43" t="s">
         <v>64</v>
@@ -12698,10 +12773,10 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="43" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B116" s="43" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C116" s="43" t="s">
         <v>26</v>
@@ -12712,7 +12787,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="41" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B117" s="43" t="s">
         <v>28</v>
@@ -12721,7 +12796,7 @@
         <v>346</v>
       </c>
       <c r="D117" s="41" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -12740,7 +12815,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="41" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B119" s="43" t="s">
         <v>28</v>
@@ -12749,35 +12824,35 @@
         <v>31</v>
       </c>
       <c r="D119" s="41" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="41" t="s">
+        <v>460</v>
+      </c>
+      <c r="B120" s="41" t="s">
         <v>461</v>
       </c>
-      <c r="B120" s="41" t="s">
-        <v>462</v>
-      </c>
       <c r="C120" s="41" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="D120" s="41" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="41" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B121" s="41" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C121" s="41" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="D121" s="41" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -12788,7 +12863,7 @@
         <v>435</v>
       </c>
       <c r="C122" s="43" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D122" s="43" t="s">
         <v>70</v>
@@ -12796,16 +12871,16 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="41" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B123" s="41" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C123" s="41" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="D123" s="43" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -12816,7 +12891,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="41" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B125" s="43" t="s">
         <v>28</v>
@@ -12825,7 +12900,7 @@
         <v>128</v>
       </c>
       <c r="D125" s="41" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -12836,7 +12911,7 @@
         <v>276</v>
       </c>
       <c r="C126" s="41" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="D126" s="41" t="s">
         <v>286</v>
@@ -12850,7 +12925,7 @@
         <v>22</v>
       </c>
       <c r="C127" s="43" t="s">
-        <v>533</v>
+        <v>578</v>
       </c>
       <c r="D127" s="43" t="s">
         <v>64</v>
@@ -12861,7 +12936,7 @@
         <v>34</v>
       </c>
       <c r="B128" s="43" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C128" s="43" t="s">
         <v>26</v>
@@ -12872,7 +12947,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="41" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B129" s="43" t="s">
         <v>28</v>
@@ -12881,7 +12956,7 @@
         <v>346</v>
       </c>
       <c r="D129" s="41" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -12900,7 +12975,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="41" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B131" s="43" t="s">
         <v>435</v>
@@ -12909,7 +12984,7 @@
         <v>128</v>
       </c>
       <c r="D131" s="41" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -12917,10 +12992,10 @@
         <v>218</v>
       </c>
       <c r="B132" s="41" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="C132" s="41" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="D132" s="41" t="s">
         <v>266</v>
@@ -12931,10 +13006,10 @@
         <v>24</v>
       </c>
       <c r="B133" s="43" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C133" s="43" t="s">
-        <v>540</v>
+        <v>579</v>
       </c>
       <c r="D133" s="43" t="s">
         <v>64</v>
@@ -12942,10 +13017,10 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="43" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B134" s="43" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C134" s="43" t="s">
         <v>26</v>
@@ -12956,16 +13031,16 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="41" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B135" s="43" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>346</v>
       </c>
       <c r="D135" s="41" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -12976,7 +13051,7 @@
         <v>41</v>
       </c>
       <c r="C136" s="43" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="D136" s="43" t="s">
         <v>348</v>
@@ -12984,7 +13059,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="41" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B137" s="43" t="s">
         <v>28</v>
@@ -12993,21 +13068,21 @@
         <v>128</v>
       </c>
       <c r="D137" s="41" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="41" t="s">
+        <v>484</v>
+      </c>
+      <c r="B138" s="41" t="s">
+        <v>485</v>
+      </c>
+      <c r="C138" s="41" t="s">
+        <v>535</v>
+      </c>
+      <c r="D138" s="41" t="s">
         <v>487</v>
-      </c>
-      <c r="B138" s="41" t="s">
-        <v>488</v>
-      </c>
-      <c r="C138" s="41" t="s">
-        <v>541</v>
-      </c>
-      <c r="D138" s="41" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
@@ -13018,7 +13093,7 @@
         <v>22</v>
       </c>
       <c r="C139" s="43" t="s">
-        <v>491</v>
+        <v>575</v>
       </c>
       <c r="D139" s="43" t="s">
         <v>64</v>
@@ -13026,7 +13101,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="43" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B140" s="43" t="s">
         <v>25</v>
@@ -13040,7 +13115,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="41" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B141" s="43" t="s">
         <v>28</v>
@@ -13049,7 +13124,7 @@
         <v>346</v>
       </c>
       <c r="D141" s="41" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
@@ -13068,7 +13143,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="41" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B143" s="43" t="s">
         <v>28</v>
@@ -13077,32 +13152,32 @@
         <v>128</v>
       </c>
       <c r="D143" s="41" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="41" t="s">
+        <v>484</v>
+      </c>
+      <c r="B144" s="41" t="s">
+        <v>485</v>
+      </c>
+      <c r="C144" s="41" t="s">
+        <v>536</v>
+      </c>
+      <c r="D144" s="41" t="s">
         <v>487</v>
-      </c>
-      <c r="B144" s="41" t="s">
-        <v>488</v>
-      </c>
-      <c r="C144" s="41" t="s">
-        <v>542</v>
-      </c>
-      <c r="D144" s="41" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="43" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B145" s="43" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C145" s="43" t="s">
-        <v>491</v>
+        <v>575</v>
       </c>
       <c r="D145" s="43" t="s">
         <v>64</v>
@@ -13119,12 +13194,12 @@
         <v>26</v>
       </c>
       <c r="D146" s="43" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="41" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B147" s="43" t="s">
         <v>28</v>
@@ -13133,7 +13208,7 @@
         <v>346</v>
       </c>
       <c r="D147" s="41" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
@@ -13144,7 +13219,7 @@
         <v>41</v>
       </c>
       <c r="C148" s="43" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="D148" s="43" t="s">
         <v>348</v>
@@ -13152,7 +13227,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="41" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B149" s="43" t="s">
         <v>28</v>
@@ -13161,21 +13236,21 @@
         <v>128</v>
       </c>
       <c r="D149" s="41" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="41" t="s">
+        <v>484</v>
+      </c>
+      <c r="B150" s="41" t="s">
+        <v>485</v>
+      </c>
+      <c r="C150" s="41" t="s">
+        <v>581</v>
+      </c>
+      <c r="D150" s="41" t="s">
         <v>487</v>
-      </c>
-      <c r="B150" s="41" t="s">
-        <v>488</v>
-      </c>
-      <c r="C150" s="41" t="s">
-        <v>544</v>
-      </c>
-      <c r="D150" s="41" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
@@ -13186,7 +13261,7 @@
         <v>22</v>
       </c>
       <c r="C151" s="43" t="s">
-        <v>491</v>
+        <v>575</v>
       </c>
       <c r="D151" s="43" t="s">
         <v>64</v>
@@ -13203,12 +13278,12 @@
         <v>26</v>
       </c>
       <c r="D152" s="43" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="41" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B153" s="43" t="s">
         <v>435</v>
@@ -13217,7 +13292,7 @@
         <v>346</v>
       </c>
       <c r="D153" s="41" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
@@ -13228,7 +13303,7 @@
         <v>41</v>
       </c>
       <c r="C154" s="43" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="D154" s="43" t="s">
         <v>348</v>
@@ -13236,7 +13311,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="41" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B155" s="43" t="s">
         <v>28</v>
@@ -13245,21 +13320,21 @@
         <v>128</v>
       </c>
       <c r="D155" s="41" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="41" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B156" s="41" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C156" s="41" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="D156" s="41" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
@@ -13278,16 +13353,16 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="41" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B158" s="41" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C158" s="41" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="D158" s="43" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
   </sheetData>
@@ -13299,10 +13374,89 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="42" t="s">
+        <v>432</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>557</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>558</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>405</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="41" t="s">
+        <v>561</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>562</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>563</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="41" t="s">
+        <v>565</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>566</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>493</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>567</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13327,15 +13481,62 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="47" t="s">
-        <v>382</v>
+      <c r="C3" s="49" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>569</v>
       </c>
     </row>
   </sheetData>
@@ -13915,16 +14116,16 @@
     </row>
     <row r="41" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="43" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="B41" s="43" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="C41" s="43" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="D41" s="43" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -14075,16 +14276,16 @@
     </row>
     <row r="53" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="43" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="B53" s="43" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="C53" s="43" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="D53" s="43" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -14249,16 +14450,16 @@
     </row>
     <row r="66" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="43" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="B66" s="43" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="C66" s="43" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="D66" s="43" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
   </sheetData>

--- a/sources/case/Smoke.xlsx
+++ b/sources/case/Smoke.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="7140" firstSheet="12" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="7140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="adjust" sheetId="1" r:id="rId1"/>
@@ -39,19 +39,19 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5256" uniqueCount="582">
   <si>
     <t>FilePath</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>API</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Case</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>TransferIn</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -67,11 +67,11 @@
       </rPr>
       <t>.xlsx</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>TransferIn_1</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -87,27 +87,27 @@
       </rPr>
       <t>Son</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>EditSon.xlsx</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>EditSon_1</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>TransferIn_2</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>EditSon_2</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Update_direct_report</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -123,7 +123,7 @@
       </rPr>
       <t>.xlsx</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -139,7 +139,7 @@
       </rPr>
       <t>_1</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -221,7 +221,7 @@
   </si>
   <si>
     <t>approvalTypes</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -303,7 +303,7 @@
   </si>
   <si>
     <t>ApprovalTypes.xlsx</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -319,7 +319,7 @@
       </rPr>
       <t>.xlsx</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -335,11 +335,11 @@
       </rPr>
       <t>_1</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>GetInstances</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -355,7 +355,7 @@
       </rPr>
       <t>.xlsx</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -371,7 +371,7 @@
       </rPr>
       <t>_1</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -387,7 +387,7 @@
       </rPr>
       <t>uth</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -403,38 +403,38 @@
       </rPr>
       <t>uth.xlsx</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Auth_11</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Auth_12</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Auth_13</t>
   </si>
   <si>
     <t>houlong</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Auth_15</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>GetInstanceInfo</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Auth_16</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>CancelTransfer</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -450,15 +450,15 @@
       </rPr>
       <t>.xlsx</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>CancelTransfer_1</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>GetInstanceInfo</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Approval</t>
@@ -477,27 +477,27 @@
   </si>
   <si>
     <t>Approval</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Approval_reject.xlsx</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>reject</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>reject_7</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>GetInstanceInfo_1</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Approval_3</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -513,19 +513,19 @@
       </rPr>
       <t>0-15的员工调入到organization_1部门</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>设置organization_1部门负责人</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>将测试16-20的员工调入到organization_1部门</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>description</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -541,71 +541,71 @@
       </rPr>
       <t>0-》测试11</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：测试11-》测试12</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：测试12-》测试13</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：测试13-》测试15</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：测试15-》测试16</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：测试16-》测试17</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：测试17-》测试18</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：测试18-》测试19</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>编辑调整审理流程</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>获取发起的审批列表</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>获取审批详情</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>切换测试15登录</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>测试15审批通过</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>切换测试16登录</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>测试16审批通过</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>切换侯龙登录</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>侯龙撤回审批</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -632,11 +632,11 @@
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>编辑转正审理流程</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -652,7 +652,7 @@
       </rPr>
       <t>.xlsx</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -668,195 +668,195 @@
       </rPr>
       <t>_1</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>发起转正审批</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Formal</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>GetInstances_2</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Approval_1</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>测试10发起调整审批(流程1)</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>FormalType_1</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>FormalType_2</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>adjuctType_1</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>adjuctType_2</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Approval_2</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Approval_5</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Approval_6</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Auth_10</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Auth_12</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Auth_13</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Auth_15</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Auth_16</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Approval_4</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Approval_5</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Approval_6</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Approval_7</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>切换测试10登录</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>切换测试11登录</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>切换测试12登录</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>切换测试13登录</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>切换测试16登录</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>测试16审批通过</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>测试13审批通过</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>测试12审批通过</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>测试11审批通过</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>测试10审批通过</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Formal_2</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：新成员1-》测试10</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：新成员2-》测试10</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Update_direct_report_new2</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Update_direct_report_new1</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Offboard_resign1</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>辞职审理流程</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Adjust</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Adjust.xlsx</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Adjust_1</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Adjust_2</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Offboard</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Offboard.xlsx</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>GetInstances_3</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Offboard_resign2</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>切换测试10登录</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Auth_11</t>
@@ -887,19 +887,19 @@
   </si>
   <si>
     <t>Auth_1</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>切换测试1登录</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Approval_1</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>测试10审批通过</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>测试11审批通过</t>
@@ -927,47 +927,47 @@
   </si>
   <si>
     <t>测试1审批通过</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>发起辞职审批</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Approval_2</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>切换测试16登录</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>测试16审批通过</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>测试1审批通过</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>houlong</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>测试1登录</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Auth_16</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Approval_4</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Formal_3</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Offboard_dismiss1</t>
@@ -977,30 +977,30 @@
   </si>
   <si>
     <t>Offboard_resign_2</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Offboard_resign_3</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Offboard_dismiss2</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Offboard_dismiss_1</t>
   </si>
   <si>
     <t>Offboard_dismiss_2</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Offboard_dismiss_3</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>发起辞退审批</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Update_direct_report_new3</t>
@@ -1016,63 +1016,63 @@
   </si>
   <si>
     <t>编辑汇报关系：新成员3-》测试10</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：新成员4-》测试10</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：新成员5-》测试10</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：新成员6-》测试10</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>ApprovalTypes.xlsx</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>驳回审批</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>发起调整审批</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Adjust_3</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>切换测试1登录</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>测试1审批通过</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>houlong登录</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>houlong审批通过</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Adjust</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Update_direct_report_houlong</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>编辑汇报关系：houlong-》测试10</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1088,15 +1088,15 @@
       </rPr>
       <t>_1</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Auth_13</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>切换测试13登录</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>out_1</t>
@@ -1112,11 +1112,11 @@
   </si>
   <si>
     <t>LeaveRequest</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>LeaveRequest.xlsx</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>LeaveRequest_01</t>
@@ -1129,113 +1129,113 @@
   </si>
   <si>
     <t>发起请假审批</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Approval_1</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Approval_4</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Approval_6</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Approval_2</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Approval_3</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Approval_7</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Leave_2</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>请假审批流程</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>LeaveRequest_02</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>LeaveRequest_03</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>EditSon_3</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>设置organization_3部门负责人</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>TransferIn_3</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>将侯龙调入到organization_3部门</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>GetInstances_4</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>切换测试11登录</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>LeaveRequest_04</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Auth_17</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Auth_18</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>LeaveRequest_07</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Auth_19</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Leave_3</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>OutRequest</t>
   </si>
   <si>
     <t>OutRequest.xlsx</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>OutRequest_01</t>
   </si>
   <si>
     <t>out_2</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>out_3</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>OutRequest_03</t>
@@ -1248,93 +1248,93 @@
   </si>
   <si>
     <t>OutRequest_02</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>GetInstances_5</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Auth_10</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>切换测试16登录</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Auth_15</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Approval_3</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Auth_16</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>GetInstances_7</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Auth_13</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Approval_3</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>ResignRequest</t>
   </si>
   <si>
     <t>ResignRequest_03</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>ResignRequest_02</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>ResignRequest_03</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>ResignRequest.xlsx</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>resign_2</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>OvertimeRequest</t>
   </si>
   <si>
     <t>OvertimeRequest.xlsx</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>GetInstances_6</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>OvertimeRequest_02</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>GetInstances_6</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>overtime_3</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Auth_17</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1350,65 +1350,65 @@
       </rPr>
       <t>uth.xlsx</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Auth_18</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Auth_1</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>切换测试1登录</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>加班审批流程</t>
   </si>
   <si>
     <t>加班审批流程</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>加班侯龙登录</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>发起加班审批</t>
   </si>
   <si>
     <t>OvertimeRequest_01</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>overtime_2</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Approval_1</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>OvertimeRequest_03</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>OvertimeRequest_04</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>OvertimeRequest_05</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Auth_20</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>OvertimeRequest_06</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>外出审批流程</t>
@@ -1430,7 +1430,7 @@
   </si>
   <si>
     <t>获取审批详情，验证审批状态</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>GetInstanceInfo_cancelled</t>
@@ -1452,7 +1452,7 @@
   </si>
   <si>
     <t>切换测试17登录</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>TripRequest_03</t>
@@ -1468,7 +1468,7 @@
   </si>
   <si>
     <t>TripRequest_07</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>GetInstances_8</t>
@@ -1484,15 +1484,15 @@
   </si>
   <si>
     <t>切换测试20登录</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>TripRequest_01</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>trip_2</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>API</t>
@@ -2049,7 +2049,7 @@
   </si>
   <si>
     <t>Approval_3</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>purchase_2</t>
@@ -2077,22 +2077,22 @@
   </si>
   <si>
     <t>purchase</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>GetInstances_13</t>
   </si>
   <si>
     <t>approvalTypes</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>TransferIn_1</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Approval_3</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>reimbursement_1</t>
@@ -2121,59 +2121,59 @@
       </rPr>
       <t>3</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>purchase_3</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Approval_1</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Auth_17</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>切换测试17登录</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>获取发起的审批列表</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>purchase_4</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>houlong</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>purchase_5</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Auth_1</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Approval_2</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Auth_1</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Auth_16</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>purchase_6</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>reimbursement</t>
@@ -2195,19 +2195,19 @@
   </si>
   <si>
     <t>reimbursement_5</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>reimbursement_6</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>reimbursement_7</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>reimbursement_8</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>GetInstances_15</t>
@@ -2241,11 +2241,11 @@
   </si>
   <si>
     <t>API</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>FilePath</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2261,7 +2261,7 @@
       </rPr>
       <t>uth</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2277,15 +2277,15 @@
       </rPr>
       <t>uth.xlsx</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>TransferIn</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>TransferIn_1</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>将测试16-20的员工调入到organization_2部门</t>
@@ -2382,11 +2382,11 @@
   </si>
   <si>
     <t>GetInstanceInfo</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>获取审批详情</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>切换到测试1登录</t>
@@ -2414,11 +2414,11 @@
       </rPr>
       <t>.xlsx</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>获取发起的审批列表</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2434,7 +2434,7 @@
       </rPr>
       <t>.xlsx</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2450,7 +2450,7 @@
       </rPr>
       <t>_1</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>AttendanceIn_03</t>
@@ -2496,7 +2496,7 @@
       </rPr>
       <t>.xlsx</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>LeaveRequest_3</t>
@@ -2536,7 +2536,7 @@
       </rPr>
       <t>uth.xlsx</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Auth_17</t>
@@ -2561,7 +2561,7 @@
   </si>
   <si>
     <t>houlong</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>切换到测试13登录</t>
@@ -2577,7 +2577,7 @@
   </si>
   <si>
     <t>GetInstances</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2593,7 +2593,7 @@
       </rPr>
       <t>.xlsx</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2609,7 +2609,7 @@
       </rPr>
       <t>_1</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>AttendanceIn_08</t>
@@ -2637,15 +2637,15 @@
   </si>
   <si>
     <t>GetInstances</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>GetInstanceInfo</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Approval_1</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>OvertimeRequest_4</t>
@@ -2685,34 +2685,34 @@
   </si>
   <si>
     <t>Approval_1</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>获取审批详情</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>case_4</t>
   </si>
   <si>
     <t>TransferIn_3</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>将侯龙调入到organization_3部门</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>EditSon_3</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>设置organization_3部门负责人</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Auth_1</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>RequestTransfer</t>
@@ -2728,11 +2728,11 @@
   </si>
   <si>
     <t>Auth_10</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>切换测试10登录</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>测试10审批通过</t>
@@ -2751,39 +2751,39 @@
       </rPr>
       <t>.xlsx</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>reshuffle_logs</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>reshuffle_logs_Adjust</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>验证发展轨迹</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>reshuffle_logs_Formal</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>FilePath</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Case</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>description</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>切换侯龙登录</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>AttendanceOut</t>
@@ -2814,63 +2814,71 @@
   </si>
   <si>
     <t>Offboard_resign1</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>SetSchedule.xlsx</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>GetInstances_6</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>GetInstances_7</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>GetInstances_4</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>GetInstances_4</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>GetInstances_6</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>GetInstances_8</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>GetInstances_8</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>GetInstances_5</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Locations_Add_01</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>LeaveRequest_8</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3024,37 +3032,40 @@
   </borders>
   <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
@@ -3069,115 +3080,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="7">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="7">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="9"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="7">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="9"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="7">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="7" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="14" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="14" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="14" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="14" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="18">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="18">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4408,7 +4416,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5219,7 +5227,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6203,7 +6211,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7013,7 +7021,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8219,7 +8227,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -9691,7 +9699,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11162,7 +11170,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -11172,7 +11180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -13366,7 +13374,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -13445,7 +13453,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -13540,7 +13548,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -13549,8 +13557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14463,7 +14471,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -15998,7 +16006,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -17365,7 +17373,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18495,7 +18503,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19320,7 +19328,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20568,7 +20576,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -21948,7 +21956,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -22759,7 +22767,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/sources/case/Smoke.xlsx
+++ b/sources/case/Smoke.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="7140" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="7140" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="adjust" sheetId="1" r:id="rId1"/>
@@ -13557,7 +13557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
@@ -17382,15 +17382,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82:XFD82"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/sources/case/Smoke.xlsx
+++ b/sources/case/Smoke.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="7140" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="7140" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="adjust" sheetId="1" r:id="rId1"/>
@@ -14,17 +14,17 @@
     <sheet name="Out" sheetId="7" r:id="rId5"/>
     <sheet name="Resign" sheetId="8" r:id="rId6"/>
     <sheet name="OverTime" sheetId="9" r:id="rId7"/>
-    <sheet name="Trip" sheetId="10" r:id="rId8"/>
-    <sheet name="Project" sheetId="11" r:id="rId9"/>
-    <sheet name="General" sheetId="12" r:id="rId10"/>
-    <sheet name="Materialget" sheetId="13" r:id="rId11"/>
-    <sheet name="Contract" sheetId="14" r:id="rId12"/>
-    <sheet name="Purchase" sheetId="15" r:id="rId13"/>
-    <sheet name="reimbursement" sheetId="16" r:id="rId14"/>
-    <sheet name="payment" sheetId="17" r:id="rId15"/>
-    <sheet name="Attendance" sheetId="18" r:id="rId16"/>
-    <sheet name="AttendanceOut" sheetId="20" r:id="rId17"/>
-    <sheet name="Temp" sheetId="4" r:id="rId18"/>
+    <sheet name="Temp" sheetId="4" r:id="rId8"/>
+    <sheet name="Trip" sheetId="10" r:id="rId9"/>
+    <sheet name="Project" sheetId="11" r:id="rId10"/>
+    <sheet name="General" sheetId="12" r:id="rId11"/>
+    <sheet name="Materialget" sheetId="13" r:id="rId12"/>
+    <sheet name="Contract" sheetId="14" r:id="rId13"/>
+    <sheet name="Purchase" sheetId="15" r:id="rId14"/>
+    <sheet name="reimbursement" sheetId="16" r:id="rId15"/>
+    <sheet name="payment" sheetId="17" r:id="rId16"/>
+    <sheet name="Attendance" sheetId="18" r:id="rId17"/>
+    <sheet name="AttendanceOut" sheetId="20" r:id="rId18"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5256" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5250" uniqueCount="600">
   <si>
     <t>FilePath</t>
     <phoneticPr fontId="14" type="noConversion"/>
@@ -2807,16 +2807,6 @@
     <t>检查数据</t>
   </si>
   <si>
-    <t>Offboard_resign2</t>
-  </si>
-  <si>
-    <t>Offboard_dismiss2</t>
-  </si>
-  <si>
-    <t>Offboard_resign1</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>SetSchedule.xlsx</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
@@ -2858,6 +2848,90 @@
   </si>
   <si>
     <t>LeaveRequest_8</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换测试17登录</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auth_17</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auth_16</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换测试16登录</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auth_16</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Approval_2</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auth_15</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Approval_3</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auth_1</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Approval_4</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换测试18登录</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换测试16登录</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批通过</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换测试15登录</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批通过</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换测试1登录</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批通过</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批通过</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批通过</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换测试19登录</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批通过</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
@@ -3081,7 +3155,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3184,9 +3258,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="18">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -4426,6 +4497,817 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D58"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>304</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>305</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>307</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>304</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>309</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>326</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="28" t="s">
+        <v>328</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>329</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>332</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
+        <v>334</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>335</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>336</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="28" t="s">
+        <v>338</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>376</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="28" t="s">
+        <v>341</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>342</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>343</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>345</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="D34" s="43" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="43"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="43"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="28" t="s">
+        <v>328</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>329</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="B38" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="26" t="s">
+        <v>334</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>335</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>350</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="28" t="s">
+        <v>338</v>
+      </c>
+      <c r="B40" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>376</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="28" t="s">
+        <v>341</v>
+      </c>
+      <c r="B41" s="28" t="s">
+        <v>342</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>343</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" s="28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="B46" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="C46" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="D46" s="28" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D47" s="28" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="D48" s="43" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="28"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="B50" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="C50" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="D50" s="28" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="B51" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="C51" s="28" t="s">
+        <v>351</v>
+      </c>
+      <c r="D51" s="28" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="B52" s="28" t="s">
+        <v>304</v>
+      </c>
+      <c r="C52" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="D52" s="28" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="26" t="s">
+        <v>334</v>
+      </c>
+      <c r="B53" s="30" t="s">
+        <v>335</v>
+      </c>
+      <c r="C53" s="30" t="s">
+        <v>350</v>
+      </c>
+      <c r="D53" s="28" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="28" t="s">
+        <v>338</v>
+      </c>
+      <c r="B54" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="C54" s="28" t="s">
+        <v>376</v>
+      </c>
+      <c r="D54" s="28" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="28" t="s">
+        <v>341</v>
+      </c>
+      <c r="B55" s="28" t="s">
+        <v>342</v>
+      </c>
+      <c r="C55" s="28" t="s">
+        <v>343</v>
+      </c>
+      <c r="D55" s="28" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="B56" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="C56" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="D56" s="28" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B57" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C57" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D57" s="28" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B58" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="D58" s="43" t="s">
+        <v>271</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D58"/>
+  <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="C65" sqref="C65"/>
     </sheetView>
@@ -5232,7 +6114,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D71"/>
   <sheetViews>
@@ -6216,7 +7098,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D58"/>
   <sheetViews>
@@ -7026,7 +7908,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D88"/>
   <sheetViews>
@@ -8233,7 +9115,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D108"/>
   <sheetViews>
@@ -9704,7 +10586,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D108"/>
   <sheetViews>
@@ -11176,7 +12058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D158"/>
   <sheetViews>
@@ -11271,7 +12153,7 @@
         <v>440</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="D6" s="41" t="s">
         <v>441</v>
@@ -11282,7 +12164,7 @@
         <v>442</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C7" s="41" t="s">
         <v>444</v>
@@ -11473,7 +12355,7 @@
         <v>22</v>
       </c>
       <c r="C21" s="43" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D21" s="43" t="s">
         <v>64</v>
@@ -11571,7 +12453,7 @@
         <v>475</v>
       </c>
       <c r="C28" s="43" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D28" s="43" t="s">
         <v>476</v>
@@ -11683,7 +12565,7 @@
         <v>22</v>
       </c>
       <c r="C36" s="43" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D36" s="43" t="s">
         <v>476</v>
@@ -11781,7 +12663,7 @@
         <v>22</v>
       </c>
       <c r="C43" s="43" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D43" s="43" t="s">
         <v>476</v>
@@ -11865,7 +12747,7 @@
         <v>22</v>
       </c>
       <c r="C49" s="43" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="D49" s="43" t="s">
         <v>64</v>
@@ -11949,7 +12831,7 @@
         <v>475</v>
       </c>
       <c r="C55" s="43" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="D55" s="43" t="s">
         <v>64</v>
@@ -12033,7 +12915,7 @@
         <v>22</v>
       </c>
       <c r="C61" s="43" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D61" s="43" t="s">
         <v>64</v>
@@ -12325,7 +13207,7 @@
         <v>512</v>
       </c>
       <c r="C83" s="43" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D83" s="43" t="s">
         <v>64</v>
@@ -12437,7 +13319,7 @@
         <v>22</v>
       </c>
       <c r="C91" s="43" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D91" s="43" t="s">
         <v>64</v>
@@ -12577,7 +13459,7 @@
         <v>512</v>
       </c>
       <c r="C101" s="43" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="D101" s="43" t="s">
         <v>64</v>
@@ -12661,7 +13543,7 @@
         <v>22</v>
       </c>
       <c r="C107" s="43" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D107" s="43" t="s">
         <v>64</v>
@@ -12773,7 +13655,7 @@
         <v>475</v>
       </c>
       <c r="C115" s="43" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D115" s="43" t="s">
         <v>64</v>
@@ -12933,7 +13815,7 @@
         <v>22</v>
       </c>
       <c r="C127" s="43" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="D127" s="43" t="s">
         <v>64</v>
@@ -13017,7 +13899,7 @@
         <v>512</v>
       </c>
       <c r="C133" s="43" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D133" s="43" t="s">
         <v>64</v>
@@ -13101,7 +13983,7 @@
         <v>22</v>
       </c>
       <c r="C139" s="43" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D139" s="43" t="s">
         <v>64</v>
@@ -13185,7 +14067,7 @@
         <v>512</v>
       </c>
       <c r="C145" s="43" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D145" s="43" t="s">
         <v>64</v>
@@ -13255,7 +14137,7 @@
         <v>485</v>
       </c>
       <c r="C150" s="41" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D150" s="41" t="s">
         <v>487</v>
@@ -13269,7 +14151,7 @@
         <v>22</v>
       </c>
       <c r="C151" s="43" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D151" s="43" t="s">
         <v>64</v>
@@ -13380,7 +14262,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -13456,100 +14338,6 @@
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="49" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="49" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="49" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="49" t="s">
-        <v>569</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -17382,8 +18170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -17691,7 +18479,7 @@
         <v>196</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>136</v>
+        <v>593</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -17719,7 +18507,7 @@
         <v>85</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>137</v>
+        <v>591</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -17747,7 +18535,7 @@
         <v>50</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>138</v>
+        <v>591</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -17775,7 +18563,7 @@
         <v>197</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>141</v>
+        <v>593</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -17789,7 +18577,7 @@
         <v>86</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>143</v>
+        <v>591</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -17803,7 +18591,7 @@
         <v>130</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>131</v>
+        <v>582</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -17817,7 +18605,7 @@
         <v>198</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>143</v>
+        <v>591</v>
       </c>
     </row>
     <row r="32" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -17845,7 +18633,7 @@
         <v>201</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>144</v>
+        <v>597</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -17977,7 +18765,7 @@
         <v>199</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>141</v>
+        <v>593</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -18005,7 +18793,7 @@
         <v>200</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>143</v>
+        <v>593</v>
       </c>
     </row>
     <row r="46" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -18033,7 +18821,7 @@
         <v>93</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>144</v>
+        <v>596</v>
       </c>
     </row>
     <row r="48" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -18092,7 +18880,7 @@
         <v>28</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>35</v>
+        <v>580</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>229</v>
@@ -18148,10 +18936,10 @@
         <v>28</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>128</v>
+        <v>581</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>129</v>
+        <v>582</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -18165,7 +18953,7 @@
         <v>199</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>141</v>
+        <v>591</v>
       </c>
     </row>
     <row r="58" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -18224,10 +19012,10 @@
         <v>28</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>213</v>
+        <v>583</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>66</v>
+        <v>579</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -18280,10 +19068,10 @@
         <v>28</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>130</v>
+        <v>230</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>131</v>
+        <v>592</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -18294,41 +19082,33 @@
         <v>41</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>85</v>
+        <v>584</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>230</v>
+        <v>25</v>
+      </c>
+      <c r="C68" s="23" t="s">
+        <v>273</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>131</v>
+        <v>271</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>27</v>
       </c>
@@ -18336,75 +19116,83 @@
         <v>28</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>132</v>
+        <v>32</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>93</v>
+        <v>21</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>222</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>144</v>
+        <v>265</v>
       </c>
     </row>
     <row r="72" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C72" s="23" t="s">
-        <v>273</v>
+        <v>28</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>271</v>
+        <v>589</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>218</v>
+      </c>
+      <c r="B73" t="s">
+        <v>219</v>
+      </c>
+      <c r="C73" t="s">
+        <v>225</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="75" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C75" s="15" t="s">
-        <v>222</v>
+        <v>25</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>27</v>
       </c>
@@ -18412,80 +19200,80 @@
         <v>28</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>211</v>
+        <v>590</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>218</v>
-      </c>
-      <c r="B77" t="s">
-        <v>219</v>
-      </c>
-      <c r="C77" t="s">
-        <v>225</v>
+      <c r="A77" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>141</v>
+        <v>591</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B78" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C78" s="43" t="s">
+        <v>585</v>
+      </c>
+      <c r="D78" s="43" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B79" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C79" s="43" t="s">
+        <v>586</v>
+      </c>
+      <c r="D79" s="43" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B80" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C80" s="43" t="s">
+        <v>587</v>
+      </c>
+      <c r="D80" s="43" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B81" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C81" s="43" t="s">
+        <v>588</v>
+      </c>
+      <c r="D81" s="43" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="82" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -19337,8 +20125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:XFD91"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -20300,7 +21088,7 @@
         <v>216</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>98</v>
+        <v>598</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -20370,7 +21158,7 @@
         <v>79</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>143</v>
+        <v>599</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -20398,7 +21186,7 @@
         <v>85</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>67</v>
+        <v>591</v>
       </c>
     </row>
     <row r="79" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -20573,6 +21361,79 @@
       </c>
       <c r="D91" s="2" t="s">
         <v>271</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -20581,7 +21442,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D101"/>
   <sheetViews>
@@ -21960,815 +22821,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D58"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>292</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>293</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
-        <v>295</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>296</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>297</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
-        <v>299</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>301</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
-        <v>303</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>304</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>305</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="28" t="s">
-        <v>299</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>307</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="28" t="s">
-        <v>303</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>304</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>309</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>311</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>312</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>311</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>314</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>311</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>311</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>311</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>320</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>311</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>322</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>311</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>324</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>311</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>326</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="28" t="s">
-        <v>328</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>329</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>330</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="28" t="s">
-        <v>295</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>296</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>332</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
-        <v>334</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>335</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>336</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="28" t="s">
-        <v>338</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>339</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>376</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="28" t="s">
-        <v>341</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>342</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>343</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="28" t="s">
-        <v>295</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>296</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>345</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="28" t="s">
-        <v>295</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>296</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="28" t="s">
-        <v>295</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>296</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="28" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="28" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="28" t="s">
-        <v>295</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>296</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="D27" s="28" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="28" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="D29" s="28" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="28" t="s">
-        <v>295</v>
-      </c>
-      <c r="B30" s="28" t="s">
-        <v>296</v>
-      </c>
-      <c r="C30" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="D30" s="28" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="D31" s="28" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="28" t="s">
-        <v>295</v>
-      </c>
-      <c r="B32" s="28" t="s">
-        <v>296</v>
-      </c>
-      <c r="C32" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="D32" s="28" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="D33" s="28" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>273</v>
-      </c>
-      <c r="D34" s="43" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="43"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="43"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="28" t="s">
-        <v>295</v>
-      </c>
-      <c r="B36" s="28" t="s">
-        <v>296</v>
-      </c>
-      <c r="C36" s="28" t="s">
-        <v>297</v>
-      </c>
-      <c r="D36" s="28" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="28" t="s">
-        <v>328</v>
-      </c>
-      <c r="B37" s="28" t="s">
-        <v>329</v>
-      </c>
-      <c r="C37" s="29" t="s">
-        <v>349</v>
-      </c>
-      <c r="D37" s="28" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="28" t="s">
-        <v>295</v>
-      </c>
-      <c r="B38" s="28" t="s">
-        <v>296</v>
-      </c>
-      <c r="C38" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="D38" s="28" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="26" t="s">
-        <v>334</v>
-      </c>
-      <c r="B39" s="30" t="s">
-        <v>335</v>
-      </c>
-      <c r="C39" s="30" t="s">
-        <v>350</v>
-      </c>
-      <c r="D39" s="28" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="28" t="s">
-        <v>338</v>
-      </c>
-      <c r="B40" s="28" t="s">
-        <v>339</v>
-      </c>
-      <c r="C40" s="28" t="s">
-        <v>376</v>
-      </c>
-      <c r="D40" s="28" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="28" t="s">
-        <v>341</v>
-      </c>
-      <c r="B41" s="28" t="s">
-        <v>342</v>
-      </c>
-      <c r="C41" s="28" t="s">
-        <v>343</v>
-      </c>
-      <c r="D41" s="28" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="28" t="s">
-        <v>295</v>
-      </c>
-      <c r="B42" s="28" t="s">
-        <v>296</v>
-      </c>
-      <c r="C42" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="D42" s="28" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="B43" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C43" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43" s="28" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="28" t="s">
-        <v>295</v>
-      </c>
-      <c r="B44" s="28" t="s">
-        <v>296</v>
-      </c>
-      <c r="C44" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="D44" s="28" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="B45" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C45" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D45" s="28" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="28" t="s">
-        <v>295</v>
-      </c>
-      <c r="B46" s="28" t="s">
-        <v>296</v>
-      </c>
-      <c r="C46" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="D46" s="28" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="B47" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C47" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="D47" s="28" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="B48" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="C48" s="23" t="s">
-        <v>273</v>
-      </c>
-      <c r="D48" s="43" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="28"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="28" t="s">
-        <v>295</v>
-      </c>
-      <c r="B50" s="28" t="s">
-        <v>296</v>
-      </c>
-      <c r="C50" s="28" t="s">
-        <v>297</v>
-      </c>
-      <c r="D50" s="28" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="28" t="s">
-        <v>299</v>
-      </c>
-      <c r="B51" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="C51" s="28" t="s">
-        <v>351</v>
-      </c>
-      <c r="D51" s="28" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="28" t="s">
-        <v>303</v>
-      </c>
-      <c r="B52" s="28" t="s">
-        <v>304</v>
-      </c>
-      <c r="C52" s="28" t="s">
-        <v>353</v>
-      </c>
-      <c r="D52" s="28" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="26" t="s">
-        <v>334</v>
-      </c>
-      <c r="B53" s="30" t="s">
-        <v>335</v>
-      </c>
-      <c r="C53" s="30" t="s">
-        <v>350</v>
-      </c>
-      <c r="D53" s="28" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="28" t="s">
-        <v>338</v>
-      </c>
-      <c r="B54" s="28" t="s">
-        <v>339</v>
-      </c>
-      <c r="C54" s="28" t="s">
-        <v>376</v>
-      </c>
-      <c r="D54" s="28" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="28" t="s">
-        <v>341</v>
-      </c>
-      <c r="B55" s="28" t="s">
-        <v>342</v>
-      </c>
-      <c r="C55" s="28" t="s">
-        <v>343</v>
-      </c>
-      <c r="D55" s="28" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="28" t="s">
-        <v>295</v>
-      </c>
-      <c r="B56" s="28" t="s">
-        <v>296</v>
-      </c>
-      <c r="C56" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="D56" s="28" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="B57" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C57" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="D57" s="28" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="B58" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="C58" s="23" t="s">
-        <v>273</v>
-      </c>
-      <c r="D58" s="43" t="s">
-        <v>271</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/sources/case/Smoke.xlsx
+++ b/sources/case/Smoke.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="7140" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="7140"/>
   </bookViews>
   <sheets>
-    <sheet name="adjust" sheetId="1" r:id="rId1"/>
-    <sheet name="Formal" sheetId="2" r:id="rId2"/>
-    <sheet name="Offboard" sheetId="3" r:id="rId3"/>
-    <sheet name="Leave" sheetId="6" r:id="rId4"/>
-    <sheet name="Out" sheetId="7" r:id="rId5"/>
-    <sheet name="Resign" sheetId="8" r:id="rId6"/>
-    <sheet name="OverTime" sheetId="9" r:id="rId7"/>
-    <sheet name="Temp" sheetId="4" r:id="rId8"/>
+    <sheet name="Temp" sheetId="4" r:id="rId1"/>
+    <sheet name="adjust" sheetId="1" r:id="rId2"/>
+    <sheet name="Formal" sheetId="2" r:id="rId3"/>
+    <sheet name="Offboard" sheetId="3" r:id="rId4"/>
+    <sheet name="Leave" sheetId="6" r:id="rId5"/>
+    <sheet name="Out" sheetId="7" r:id="rId6"/>
+    <sheet name="Resign" sheetId="8" r:id="rId7"/>
+    <sheet name="OverTime" sheetId="9" r:id="rId8"/>
     <sheet name="Trip" sheetId="10" r:id="rId9"/>
     <sheet name="Project" sheetId="11" r:id="rId10"/>
     <sheet name="General" sheetId="12" r:id="rId11"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5250" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5351" uniqueCount="608">
   <si>
     <t>FilePath</t>
     <phoneticPr fontId="14" type="noConversion"/>
@@ -2932,6 +2932,86 @@
   </si>
   <si>
     <t>审批通过</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Offboard_resign_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Offboard_resign_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Offboard_resign_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>16</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Offboard_resign_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>17</t>
+    </r>
+  </si>
+  <si>
+    <t>审批通过</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offboard_resign3</t>
+  </si>
+  <si>
+    <t>Auth_houlong</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换侯龙登录</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
@@ -3155,7 +3235,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3258,6 +3338,9 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -3557,19 +3640,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -3586,910 +3668,422 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="2" t="s">
+    <row r="2" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="43" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="A3" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>171</v>
+      <c r="A5" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>606</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>273</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="49"/>
+    </row>
+    <row r="12" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>61</v>
+      <c r="A13" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>606</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>273</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="43"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="43"/>
+    </row>
+    <row r="20" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+      <c r="A21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" s="49" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B22" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="2" t="s">
+      <c r="C22" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" s="43" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+    <row r="23" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B23" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C23" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D23" s="43" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="2" t="s">
+    <row r="24" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>606</v>
+      </c>
+      <c r="D24" s="43" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>106</v>
+      <c r="D25" s="43" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="47" t="s">
+        <v>273</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="43"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="43"/>
+    </row>
+    <row r="28" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="43" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
+      <c r="A29" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" s="49" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" s="43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B31" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="D41" s="2" t="s">
+      <c r="C31" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="43" t="s">
+        <v>606</v>
+      </c>
+      <c r="D32" s="43" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="43" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="47" t="s">
+        <v>273</v>
+      </c>
+      <c r="D34" s="43" t="s">
         <v>271</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C47" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C52" s="22" t="s">
-        <v>272</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="2"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="B60" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="C60" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="D60" s="43" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="B61" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="C61" s="43" t="s">
-        <v>380</v>
-      </c>
-      <c r="D61" s="43" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C66" s="23" t="s">
-        <v>273</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="43" t="s">
-        <v>553</v>
-      </c>
-      <c r="B67" s="43" t="s">
-        <v>552</v>
-      </c>
-      <c r="C67" s="43" t="s">
-        <v>554</v>
-      </c>
-      <c r="D67" s="43" t="s">
-        <v>555</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12062,8 +11656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D158"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14343,6 +13937,944 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D67"/>
+  <sheetViews>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B44" sqref="A44:B44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B60" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D60" s="43" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B61" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C61" s="43" t="s">
+        <v>380</v>
+      </c>
+      <c r="D61" s="43" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="43" t="s">
+        <v>553</v>
+      </c>
+      <c r="B67" s="43" t="s">
+        <v>552</v>
+      </c>
+      <c r="C67" s="43" t="s">
+        <v>554</v>
+      </c>
+      <c r="D67" s="43" t="s">
+        <v>555</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D66"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
@@ -15265,12 +15797,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D112"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B121" sqref="B121"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:XFD40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16800,7 +17332,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D100"/>
   <sheetViews>
@@ -18166,7 +18698,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D82"/>
   <sheetViews>
@@ -19297,7 +19829,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D59"/>
   <sheetViews>
@@ -20121,7 +20653,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D91"/>
   <sheetViews>
@@ -21367,78 +21899,6 @@
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>349</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/sources/case/Smoke.xlsx
+++ b/sources/case/Smoke.xlsx
@@ -4,27 +4,28 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="7140" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="7140"/>
   </bookViews>
   <sheets>
-    <sheet name="adjust" sheetId="1" r:id="rId1"/>
-    <sheet name="Formal" sheetId="2" r:id="rId2"/>
-    <sheet name="Offboard" sheetId="3" r:id="rId3"/>
-    <sheet name="Offboard2" sheetId="4" r:id="rId4"/>
-    <sheet name="Leave" sheetId="6" r:id="rId5"/>
-    <sheet name="Out" sheetId="7" r:id="rId6"/>
-    <sheet name="Resign" sheetId="8" r:id="rId7"/>
-    <sheet name="OverTime" sheetId="9" r:id="rId8"/>
-    <sheet name="Trip" sheetId="10" r:id="rId9"/>
-    <sheet name="Project" sheetId="11" r:id="rId10"/>
-    <sheet name="General" sheetId="12" r:id="rId11"/>
-    <sheet name="Materialget" sheetId="13" r:id="rId12"/>
-    <sheet name="Contract" sheetId="14" r:id="rId13"/>
-    <sheet name="Purchase" sheetId="15" r:id="rId14"/>
-    <sheet name="reimbursement" sheetId="16" r:id="rId15"/>
-    <sheet name="payment" sheetId="17" r:id="rId16"/>
-    <sheet name="Attendance" sheetId="18" r:id="rId17"/>
-    <sheet name="AttendanceOut" sheetId="20" r:id="rId18"/>
+    <sheet name="Temp" sheetId="21" r:id="rId1"/>
+    <sheet name="adjust" sheetId="1" r:id="rId2"/>
+    <sheet name="Formal" sheetId="2" r:id="rId3"/>
+    <sheet name="Offboard" sheetId="3" r:id="rId4"/>
+    <sheet name="Offboard2" sheetId="4" r:id="rId5"/>
+    <sheet name="Leave" sheetId="6" r:id="rId6"/>
+    <sheet name="Out" sheetId="7" r:id="rId7"/>
+    <sheet name="Resign" sheetId="8" r:id="rId8"/>
+    <sheet name="OverTime" sheetId="9" r:id="rId9"/>
+    <sheet name="Trip" sheetId="10" r:id="rId10"/>
+    <sheet name="Project" sheetId="11" r:id="rId11"/>
+    <sheet name="General" sheetId="12" r:id="rId12"/>
+    <sheet name="Materialget" sheetId="13" r:id="rId13"/>
+    <sheet name="Contract" sheetId="14" r:id="rId14"/>
+    <sheet name="Purchase" sheetId="15" r:id="rId15"/>
+    <sheet name="reimbursement" sheetId="16" r:id="rId16"/>
+    <sheet name="payment" sheetId="17" r:id="rId17"/>
+    <sheet name="Attendance" sheetId="18" r:id="rId18"/>
+    <sheet name="AttendanceOut" sheetId="20" r:id="rId19"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5323" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5340" uniqueCount="606">
   <si>
     <t>FilePath</t>
     <phoneticPr fontId="15" type="noConversion"/>
@@ -3000,6 +3001,9 @@
   </si>
   <si>
     <t>审批通过</t>
+  </si>
+  <si>
+    <t>Offboard_resign2</t>
   </si>
 </sst>
 </file>
@@ -3635,19 +3639,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -3742,10 +3828,10 @@
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>107</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3756,10 +3842,10 @@
         <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>108</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3770,10 +3856,10 @@
         <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>163</v>
+        <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>167</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3784,10 +3870,10 @@
         <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>164</v>
+        <v>16</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>168</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -3798,10 +3884,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>165</v>
+        <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>169</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3812,10 +3898,10 @@
         <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>166</v>
+        <v>19</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>170</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -3826,10 +3912,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>180</v>
+        <v>72</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>181</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -3840,10 +3926,10 @@
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -3854,198 +3940,198 @@
         <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>14</v>
+        <v>180</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>56</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>268</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>58</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>19</v>
+      <c r="A19" t="s">
+        <v>274</v>
+      </c>
+      <c r="B19" t="s">
+        <v>275</v>
+      </c>
+      <c r="C19" t="s">
+        <v>288</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>60</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>72</v>
+        <v>283</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="A22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>83</v>
+        <v>41</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>179</v>
+        <v>27</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>64</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -4056,10 +4142,10 @@
         <v>41</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -4070,24 +4156,24 @@
         <v>28</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>30</v>
+        <v>129</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -4098,53 +4184,45 @@
         <v>28</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>272</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>67</v>
-      </c>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
@@ -4154,24 +4232,24 @@
         <v>28</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>87</v>
+        <v>21</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>289</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>69</v>
+        <v>284</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -4182,45 +4260,53 @@
         <v>28</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>131</v>
+        <v>29</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>150</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>48</v>
+      <c r="A40" t="s">
+        <v>274</v>
+      </c>
+      <c r="B40" t="s">
+        <v>275</v>
+      </c>
+      <c r="C40" t="s">
+        <v>276</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>172</v>
+        <v>285</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
+      <c r="C42" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
@@ -4230,338 +4316,782 @@
         <v>28</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>84</v>
+        <v>41</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>63</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>173</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>64</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C47" s="43" t="s">
-        <v>49</v>
+        <v>28</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>65</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>85</v>
+        <v>25</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>272</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>70</v>
-      </c>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="2"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>71</v>
+        <v>286</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C52" s="22" t="s">
-        <v>271</v>
+        <v>21</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>273</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="2"/>
+      <c r="A53" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>32</v>
+      <c r="A54" t="s">
+        <v>274</v>
+      </c>
+      <c r="B54" t="s">
+        <v>275</v>
+      </c>
+      <c r="C54" t="s">
+        <v>278</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>70</v>
+        <v>285</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>174</v>
+        <v>283</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>173</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>182</v>
+        <v>26</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>49</v>
+        <v>129</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>85</v>
+        <v>25</v>
+      </c>
+      <c r="C59" s="23" t="s">
+        <v>272</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="B60" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="C60" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="D60" s="43" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="B61" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="C61" s="43" t="s">
-        <v>379</v>
-      </c>
-      <c r="D61" s="43" t="s">
-        <v>178</v>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>131</v>
+      <c r="A62" t="s">
+        <v>274</v>
+      </c>
+      <c r="B62" t="s">
+        <v>275</v>
+      </c>
+      <c r="C62" t="s">
+        <v>279</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>175</v>
+        <v>285</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>93</v>
+        <v>283</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>176</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>177</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>178</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B67" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C66" s="23" t="s">
+      <c r="C67" s="23" t="s">
         <v>272</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D67" s="2" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="43" t="s">
-        <v>552</v>
-      </c>
-      <c r="B67" s="43" t="s">
-        <v>551</v>
-      </c>
-      <c r="C67" s="43" t="s">
-        <v>553</v>
-      </c>
-      <c r="D67" s="43" t="s">
-        <v>554</v>
+    <row r="68" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>274</v>
+      </c>
+      <c r="B70" t="s">
+        <v>275</v>
+      </c>
+      <c r="C70" t="s">
+        <v>280</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C77" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="2"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>274</v>
+      </c>
+      <c r="B80" t="s">
+        <v>275</v>
+      </c>
+      <c r="C80" t="s">
+        <v>281</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C89" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="23"/>
+      <c r="D90" s="2"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>274</v>
+      </c>
+      <c r="B92" t="s">
+        <v>275</v>
+      </c>
+      <c r="C92" t="s">
+        <v>282</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C101" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -4571,7 +5101,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D58"/>
   <sheetViews>
@@ -5382,7 +5912,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D58"/>
   <sheetViews>
@@ -6192,7 +6722,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D71"/>
   <sheetViews>
@@ -7176,7 +7706,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D58"/>
   <sheetViews>
@@ -7986,7 +8516,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D88"/>
   <sheetViews>
@@ -9193,7 +9723,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D108"/>
   <sheetViews>
@@ -10664,7 +11194,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D108"/>
   <sheetViews>
@@ -12136,7 +12666,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D158"/>
   <sheetViews>
@@ -14340,7 +14870,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -14421,9 +14951,947 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D67"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B60" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D60" s="43" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B61" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C61" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="D61" s="43" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="43" t="s">
+        <v>552</v>
+      </c>
+      <c r="B67" s="43" t="s">
+        <v>551</v>
+      </c>
+      <c r="C67" s="43" t="s">
+        <v>553</v>
+      </c>
+      <c r="D67" s="43" t="s">
+        <v>554</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
@@ -15343,7 +16811,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D112"/>
   <sheetViews>
@@ -16878,7 +18346,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D27"/>
   <sheetViews>
@@ -17231,7 +18699,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D100"/>
   <sheetViews>
@@ -18597,7 +20065,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D82"/>
   <sheetViews>
@@ -19728,7 +21196,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D59"/>
   <sheetViews>
@@ -20552,7 +22020,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D91"/>
   <sheetViews>
@@ -21799,1385 +23267,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D101"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD49"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>268</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>274</v>
-      </c>
-      <c r="B19" t="s">
-        <v>275</v>
-      </c>
-      <c r="C19" t="s">
-        <v>288</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>272</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C38" s="25" t="s">
-        <v>289</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>274</v>
-      </c>
-      <c r="B40" t="s">
-        <v>275</v>
-      </c>
-      <c r="C40" t="s">
-        <v>276</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C49" s="23" t="s">
-        <v>272</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="2"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C52" s="20" t="s">
-        <v>273</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>274</v>
-      </c>
-      <c r="B54" t="s">
-        <v>275</v>
-      </c>
-      <c r="C54" t="s">
-        <v>278</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C59" s="23" t="s">
-        <v>272</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="2"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>274</v>
-      </c>
-      <c r="B62" t="s">
-        <v>275</v>
-      </c>
-      <c r="C62" t="s">
-        <v>279</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C67" s="23" t="s">
-        <v>272</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="23"/>
-      <c r="D68" s="2"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>274</v>
-      </c>
-      <c r="B70" t="s">
-        <v>275</v>
-      </c>
-      <c r="C70" t="s">
-        <v>280</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C77" s="23" t="s">
-        <v>272</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="23"/>
-      <c r="D78" s="2"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>274</v>
-      </c>
-      <c r="B80" t="s">
-        <v>275</v>
-      </c>
-      <c r="C80" t="s">
-        <v>281</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C89" s="23" t="s">
-        <v>272</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="23"/>
-      <c r="D90" s="2"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>274</v>
-      </c>
-      <c r="B92" t="s">
-        <v>275</v>
-      </c>
-      <c r="C92" t="s">
-        <v>282</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C101" s="23" t="s">
-        <v>272</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/sources/case/Smoke.xlsx
+++ b/sources/case/Smoke.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="7140"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="7140" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Temp" sheetId="21" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <sheet name="Attendance" sheetId="18" r:id="rId18"/>
     <sheet name="AttendanceOut" sheetId="20" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3641,7 +3641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -18350,7 +18350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>

--- a/sources/case/Smoke.xlsx
+++ b/sources/case/Smoke.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="7140" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="7140" firstSheet="9" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Temp" sheetId="21" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5340" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5400" uniqueCount="613">
   <si>
     <t>FilePath</t>
     <phoneticPr fontId="15" type="noConversion"/>
@@ -3004,6 +3004,34 @@
   </si>
   <si>
     <t>Offboard_resign2</t>
+  </si>
+  <si>
+    <t>ApprovalSummary.xlsx</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApprovalNew</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>approvalSummary_purchase</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证审批统计</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApprovalOld</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>approvalSummary_old</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取当前审批统计数据</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -8518,10 +8546,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92:XFD93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8748,186 +8776,186 @@
       <c r="C16" s="43"/>
       <c r="D16" s="43"/>
     </row>
-    <row r="17" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="43" t="s">
-        <v>17</v>
+    <row r="17" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>610</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>381</v>
+        <v>606</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>611</v>
       </c>
       <c r="D17" s="43" t="s">
-        <v>384</v>
+        <v>612</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="43" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B18" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="D19" s="43" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="41" t="s">
+    <row r="20" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="41" t="s">
         <v>388</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B20" s="41" t="s">
         <v>387</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C20" s="41" t="s">
         <v>381</v>
       </c>
-      <c r="D19" s="43" t="s">
+      <c r="D20" s="43" t="s">
         <v>385</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="43" t="s">
-        <v>389</v>
-      </c>
-      <c r="D20" s="43" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="43" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B21" s="43" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C21" s="43" t="s">
-        <v>26</v>
+        <v>389</v>
       </c>
       <c r="D21" s="43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="43" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>122</v>
+        <v>26</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>123</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="43" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B23" s="43" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="D23" s="43" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="43" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B24" s="43" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C24" s="43" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="D24" s="43" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="43" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B25" s="43" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C25" s="43" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="D25" s="43" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="43" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B26" s="43" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C26" s="43" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="D26" s="43" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="43" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B27" s="43" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C27" s="43" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D27" s="43" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="43" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B28" s="43" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C28" s="43" t="s">
-        <v>127</v>
+        <v>50</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="43" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B29" s="43" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C29" s="43" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="D29" s="43" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
@@ -8938,115 +8966,115 @@
         <v>41</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D30" s="43" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="43" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B31" s="43" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C31" s="43" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="D31" s="43" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="43" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B32" s="43" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C32" s="43" t="s">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="D32" s="43" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="43" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B33" s="43" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C33" s="43" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="D33" s="43" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="43" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B34" s="43" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C34" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="D34" s="43" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="D34" s="43" t="s">
+      <c r="D35" s="43" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="43" t="s">
+    <row r="36" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="43" t="s">
+      <c r="B36" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C36" s="23" t="s">
         <v>272</v>
       </c>
-      <c r="D35" s="43" t="s">
+      <c r="D36" s="43" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="43"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="43"/>
-    </row>
-    <row r="37" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="43" t="s">
-        <v>27</v>
+        <v>607</v>
       </c>
       <c r="B37" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="43" t="s">
-        <v>32</v>
+        <v>606</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>608</v>
       </c>
       <c r="D37" s="43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="43" t="s">
-        <v>390</v>
-      </c>
-      <c r="B38" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="C38" s="25" t="s">
-        <v>380</v>
-      </c>
-      <c r="D38" s="43" t="s">
-        <v>384</v>
-      </c>
+        <v>609</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="43"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="43"/>
     </row>
     <row r="39" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="43" t="s">
@@ -9056,359 +9084,359 @@
         <v>28</v>
       </c>
       <c r="C39" s="43" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D39" s="43" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="41" t="s">
-        <v>386</v>
-      </c>
-      <c r="B40" s="41" t="s">
-        <v>387</v>
-      </c>
-      <c r="C40" s="41" t="s">
-        <v>380</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="B40" s="43" t="s">
+        <v>606</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>611</v>
       </c>
       <c r="D40" s="43" t="s">
-        <v>385</v>
+        <v>612</v>
       </c>
     </row>
     <row r="41" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="43" t="s">
-        <v>24</v>
+        <v>390</v>
       </c>
       <c r="B41" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="C41" s="43" t="s">
-        <v>389</v>
+        <v>21</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>380</v>
       </c>
       <c r="D41" s="43" t="s">
-        <v>64</v>
+        <v>384</v>
       </c>
     </row>
     <row r="42" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="43" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B42" s="43" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D42" s="43" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="B43" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="C43" s="43" t="s">
-        <v>127</v>
+      <c r="A43" s="41" t="s">
+        <v>386</v>
+      </c>
+      <c r="B43" s="41" t="s">
+        <v>387</v>
+      </c>
+      <c r="C43" s="41" t="s">
+        <v>380</v>
       </c>
       <c r="D43" s="43" t="s">
-        <v>128</v>
+        <v>385</v>
       </c>
     </row>
     <row r="44" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="43" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B44" s="43" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="C44" s="43" t="s">
-        <v>85</v>
+        <v>389</v>
       </c>
       <c r="D44" s="43" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="43" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B45" s="43" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C45" s="43" t="s">
-        <v>129</v>
+        <v>26</v>
       </c>
       <c r="D45" s="43" t="s">
-        <v>130</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="43" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B46" s="43" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>392</v>
+        <v>127</v>
       </c>
       <c r="D46" s="43" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="43" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B47" s="43" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C47" s="43" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="D47" s="43" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="43" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B48" s="43" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C48" s="43" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="D48" s="43" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="43" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B49" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="C49" s="23" t="s">
-        <v>272</v>
+        <v>41</v>
+      </c>
+      <c r="C49" s="43" t="s">
+        <v>392</v>
       </c>
       <c r="D49" s="43" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="43"/>
-      <c r="B50" s="43"/>
-      <c r="C50" s="47"/>
-      <c r="D50" s="43"/>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="D50" s="43" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="51" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="43" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B51" s="43" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C51" s="43" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="D51" s="43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="43" t="s">
-        <v>390</v>
+        <v>34</v>
       </c>
       <c r="B52" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="C52" s="46" t="s">
-        <v>397</v>
+        <v>25</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>272</v>
       </c>
       <c r="D52" s="43" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="41" t="s">
-        <v>386</v>
-      </c>
-      <c r="B53" s="41" t="s">
-        <v>387</v>
-      </c>
-      <c r="C53" s="41" t="s">
-        <v>398</v>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="43" t="s">
+        <v>607</v>
+      </c>
+      <c r="B53" s="43" t="s">
+        <v>606</v>
+      </c>
+      <c r="C53" s="47" t="s">
+        <v>608</v>
       </c>
       <c r="D53" s="43" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="B54" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="C54" s="43" t="s">
-        <v>389</v>
-      </c>
-      <c r="D54" s="43" t="s">
-        <v>64</v>
-      </c>
+        <v>609</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="43"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="47"/>
+      <c r="D54" s="43"/>
     </row>
     <row r="55" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="43" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C55" s="43" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D55" s="43" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="43" t="s">
-        <v>27</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>610</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="C56" s="43" t="s">
-        <v>131</v>
+        <v>606</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>611</v>
       </c>
       <c r="D56" s="43" t="s">
-        <v>132</v>
+        <v>612</v>
       </c>
     </row>
     <row r="57" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="43" t="s">
-        <v>40</v>
+        <v>390</v>
       </c>
       <c r="B57" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="C57" s="43" t="s">
-        <v>399</v>
+        <v>21</v>
+      </c>
+      <c r="C57" s="46" t="s">
+        <v>397</v>
       </c>
       <c r="D57" s="43" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="B58" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="C58" s="47" t="s">
-        <v>272</v>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="41" t="s">
+        <v>386</v>
+      </c>
+      <c r="B58" s="41" t="s">
+        <v>387</v>
+      </c>
+      <c r="C58" s="41" t="s">
+        <v>398</v>
       </c>
       <c r="D58" s="43" t="s">
-        <v>270</v>
+        <v>385</v>
       </c>
     </row>
     <row r="59" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="43"/>
-      <c r="B59" s="43"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="43"/>
+      <c r="A59" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B59" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59" s="43" t="s">
+        <v>389</v>
+      </c>
+      <c r="D59" s="43" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="60" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="43" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B60" s="43" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C60" s="43" t="s">
-        <v>400</v>
+        <v>26</v>
       </c>
       <c r="D60" s="43" t="s">
-        <v>401</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="41" t="s">
-        <v>386</v>
-      </c>
-      <c r="B61" s="41" t="s">
-        <v>387</v>
-      </c>
-      <c r="C61" s="41" t="s">
-        <v>403</v>
+      <c r="A61" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B61" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" s="43" t="s">
+        <v>131</v>
       </c>
       <c r="D61" s="43" t="s">
-        <v>385</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="43" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B62" s="43" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C62" s="43" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="D62" s="43" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="43" t="s">
         <v>34</v>
       </c>
       <c r="B63" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C63" s="43" t="s">
-        <v>26</v>
+      <c r="C63" s="47" t="s">
+        <v>272</v>
       </c>
       <c r="D63" s="43" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="43" t="s">
-        <v>27</v>
+        <v>607</v>
       </c>
       <c r="B64" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="C64" s="43" t="s">
-        <v>129</v>
+        <v>606</v>
+      </c>
+      <c r="C64" s="47" t="s">
+        <v>608</v>
       </c>
       <c r="D64" s="43" t="s">
-        <v>130</v>
+        <v>609</v>
       </c>
     </row>
     <row r="65" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="B65" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="C65" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="D65" s="43" t="s">
-        <v>142</v>
-      </c>
+      <c r="A65" s="43"/>
+      <c r="B65" s="43"/>
+      <c r="C65" s="43"/>
+      <c r="D65" s="43"/>
     </row>
     <row r="66" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="43" t="s">
@@ -9418,100 +9446,108 @@
         <v>28</v>
       </c>
       <c r="C66" s="43" t="s">
-        <v>404</v>
+        <v>32</v>
       </c>
       <c r="D66" s="43" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="43" t="s">
-        <v>40</v>
+    <row r="67" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
+        <v>610</v>
       </c>
       <c r="B67" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="C67" s="43" t="s">
-        <v>85</v>
+        <v>606</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>611</v>
       </c>
       <c r="D67" s="43" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="43" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B68" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="C68" s="47" t="s">
-        <v>272</v>
+        <v>28</v>
+      </c>
+      <c r="C68" s="43" t="s">
+        <v>400</v>
       </c>
       <c r="D68" s="43" t="s">
-        <v>270</v>
+        <v>401</v>
       </c>
     </row>
     <row r="69" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="43"/>
-      <c r="B69" s="43"/>
-      <c r="C69" s="43"/>
-      <c r="D69" s="43"/>
+      <c r="A69" s="41" t="s">
+        <v>386</v>
+      </c>
+      <c r="B69" s="41" t="s">
+        <v>387</v>
+      </c>
+      <c r="C69" s="41" t="s">
+        <v>403</v>
+      </c>
+      <c r="D69" s="43" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="70" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="43" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B70" s="43" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C70" s="43" t="s">
-        <v>213</v>
+        <v>389</v>
       </c>
       <c r="D70" s="43" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="71" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="41" t="s">
-        <v>386</v>
-      </c>
-      <c r="B71" s="41" t="s">
-        <v>387</v>
-      </c>
-      <c r="C71" s="41" t="s">
-        <v>405</v>
+      <c r="A71" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B71" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C71" s="43" t="s">
+        <v>26</v>
       </c>
       <c r="D71" s="43" t="s">
-        <v>385</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="43" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B72" s="43" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C72" s="43" t="s">
-        <v>389</v>
+        <v>129</v>
       </c>
       <c r="D72" s="43" t="s">
-        <v>402</v>
+        <v>130</v>
       </c>
     </row>
     <row r="73" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="43" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B73" s="43" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C73" s="43" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="D73" s="43" t="s">
-        <v>65</v>
+        <v>142</v>
       </c>
     </row>
     <row r="74" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
@@ -9536,184 +9572,386 @@
         <v>41</v>
       </c>
       <c r="C75" s="43" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D75" s="43" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="76" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="43" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B76" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="C76" s="43" t="s">
-        <v>406</v>
+        <v>25</v>
+      </c>
+      <c r="C76" s="47" t="s">
+        <v>272</v>
       </c>
       <c r="D76" s="43" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="43" t="s">
-        <v>40</v>
+        <v>607</v>
       </c>
       <c r="B77" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="C77" s="43" t="s">
-        <v>407</v>
+        <v>606</v>
+      </c>
+      <c r="C77" s="47" t="s">
+        <v>608</v>
       </c>
       <c r="D77" s="43" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="B78" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="C78" s="47" t="s">
-        <v>272</v>
-      </c>
-      <c r="D78" s="43" t="s">
-        <v>270</v>
-      </c>
+        <v>609</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="43"/>
+      <c r="B78" s="43"/>
+      <c r="C78" s="43"/>
+      <c r="D78" s="43"/>
     </row>
     <row r="79" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="43"/>
-      <c r="B79" s="43"/>
-      <c r="C79" s="43"/>
-      <c r="D79" s="43"/>
-    </row>
-    <row r="80" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="43" t="s">
-        <v>27</v>
+      <c r="A79" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B79" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C79" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D79" s="43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
+        <v>610</v>
       </c>
       <c r="B80" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="C80" s="43" t="s">
-        <v>409</v>
+        <v>606</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>611</v>
       </c>
       <c r="D80" s="43" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B81" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C81" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="D81" s="43" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="81" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="41" t="s">
+    <row r="82" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="41" t="s">
         <v>386</v>
       </c>
-      <c r="B81" s="41" t="s">
+      <c r="B82" s="41" t="s">
         <v>387</v>
       </c>
-      <c r="C81" s="41" t="s">
-        <v>410</v>
-      </c>
-      <c r="D81" s="43" t="s">
+      <c r="C82" s="41" t="s">
+        <v>405</v>
+      </c>
+      <c r="D82" s="43" t="s">
         <v>385</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="B82" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="C82" s="43" t="s">
-        <v>389</v>
-      </c>
-      <c r="D82" s="43" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="83" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="43" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B83" s="43" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C83" s="43" t="s">
-        <v>26</v>
+        <v>389</v>
       </c>
       <c r="D83" s="43" t="s">
-        <v>65</v>
+        <v>402</v>
       </c>
     </row>
     <row r="84" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="43" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B84" s="43" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C84" s="43" t="s">
-        <v>404</v>
+        <v>26</v>
       </c>
       <c r="D84" s="43" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="85" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="43" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B85" s="43" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C85" s="43" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="D85" s="43" t="s">
-        <v>143</v>
+        <v>70</v>
       </c>
     </row>
     <row r="86" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="43" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B86" s="43" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C86" s="43" t="s">
-        <v>408</v>
+        <v>79</v>
       </c>
       <c r="D86" s="43" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
     <row r="87" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="43" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B87" s="43" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C87" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="D87" s="43" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B88" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C88" s="43" t="s">
+        <v>407</v>
+      </c>
+      <c r="D88" s="43" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B89" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C89" s="47" t="s">
+        <v>272</v>
+      </c>
+      <c r="D89" s="43" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="43" t="s">
+        <v>607</v>
+      </c>
+      <c r="B90" s="43" t="s">
+        <v>606</v>
+      </c>
+      <c r="C90" s="47" t="s">
+        <v>608</v>
+      </c>
+      <c r="D90" s="43" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="43"/>
+      <c r="B91" s="43"/>
+      <c r="C91" s="43"/>
+      <c r="D91" s="43"/>
+    </row>
+    <row r="92" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B92" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C92" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D92" s="43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="B93" s="43" t="s">
+        <v>606</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="D93" s="43" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B94" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C94" s="43" t="s">
+        <v>409</v>
+      </c>
+      <c r="D94" s="43" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="41" t="s">
+        <v>386</v>
+      </c>
+      <c r="B95" s="41" t="s">
+        <v>387</v>
+      </c>
+      <c r="C95" s="41" t="s">
+        <v>410</v>
+      </c>
+      <c r="D95" s="43" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B96" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C96" s="43" t="s">
+        <v>389</v>
+      </c>
+      <c r="D96" s="43" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B97" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C97" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D97" s="43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B98" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C98" s="43" t="s">
+        <v>404</v>
+      </c>
+      <c r="D98" s="43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B99" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C99" s="43" t="s">
+        <v>399</v>
+      </c>
+      <c r="D99" s="43" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B100" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C100" s="43" t="s">
+        <v>408</v>
+      </c>
+      <c r="D100" s="43" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B101" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C101" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="D87" s="43" t="s">
+      <c r="D101" s="43" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="88" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="43" t="s">
+    <row r="102" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B88" s="43" t="s">
+      <c r="B102" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C88" s="47" t="s">
+      <c r="C102" s="47" t="s">
         <v>272</v>
       </c>
-      <c r="D88" s="43" t="s">
+      <c r="D102" s="43" t="s">
         <v>270</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="43" t="s">
+        <v>607</v>
+      </c>
+      <c r="B103" s="43" t="s">
+        <v>606</v>
+      </c>
+      <c r="C103" s="47" t="s">
+        <v>608</v>
+      </c>
+      <c r="D103" s="43" t="s">
+        <v>609</v>
       </c>
     </row>
   </sheetData>
@@ -18350,7 +18588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
